--- a/database/industries/siman/sesoufi/product/monthly.xlsx
+++ b/database/industries/siman/sesoufi/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sesoufi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B2C221-6333-4106-818B-C795E9D292C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC0A8C9-F42F-4517-B1B3-356C71B69B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -1453,65 +1453,65 @@
       <c r="F11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>57</v>
+      <c r="G11" s="11">
+        <v>2881</v>
+      </c>
+      <c r="H11" s="11">
+        <v>637</v>
       </c>
       <c r="I11" s="11">
-        <v>2881</v>
+        <v>7444</v>
       </c>
       <c r="J11" s="11">
-        <v>637</v>
+        <v>10908</v>
       </c>
       <c r="K11" s="11">
-        <v>7444</v>
+        <v>11835</v>
       </c>
       <c r="L11" s="11">
-        <v>10908</v>
+        <v>10670</v>
       </c>
       <c r="M11" s="11">
-        <v>11835</v>
+        <v>3491</v>
       </c>
       <c r="N11" s="11">
-        <v>10670</v>
+        <v>1465</v>
       </c>
       <c r="O11" s="11">
-        <v>3491</v>
+        <v>1878</v>
       </c>
       <c r="P11" s="11">
-        <v>1465</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="11">
-        <v>1878</v>
+        <v>0</v>
       </c>
       <c r="R11" s="11">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="S11" s="11">
-        <v>0</v>
+        <v>3353</v>
       </c>
       <c r="T11" s="11">
-        <v>118</v>
+        <v>2242</v>
       </c>
       <c r="U11" s="11">
-        <v>3353</v>
+        <v>1092</v>
       </c>
       <c r="V11" s="11">
-        <v>2242</v>
+        <v>2329</v>
       </c>
       <c r="W11" s="11">
-        <v>1092</v>
+        <v>8482</v>
       </c>
       <c r="X11" s="11">
-        <v>2329</v>
+        <v>6863</v>
       </c>
       <c r="Y11" s="11">
-        <v>8482</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="11">
-        <v>6863</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="11">
         <v>0</v>
@@ -1535,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="AH11" s="11">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="AI11" s="11">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="AJ11" s="11">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="11">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="11">
         <v>0</v>
@@ -1559,16 +1559,16 @@
         <v>0</v>
       </c>
       <c r="AP11" s="11">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AQ11" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR11" s="11">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="11">
         <v>0</v>
@@ -1589,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="11">
-        <v>0</v>
+        <v>3621</v>
       </c>
       <c r="BA11" s="11">
         <v>0</v>
       </c>
       <c r="BB11" s="11">
-        <v>3621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1693,53 +1693,53 @@
       <c r="AG12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI12" s="13" t="s">
-        <v>57</v>
+      <c r="AH12" s="13">
+        <v>131262</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>160367</v>
       </c>
       <c r="AJ12" s="13">
-        <v>131262</v>
+        <v>175578</v>
       </c>
       <c r="AK12" s="13">
-        <v>160367</v>
+        <v>125023</v>
       </c>
       <c r="AL12" s="13">
-        <v>175578</v>
+        <v>132647</v>
       </c>
       <c r="AM12" s="13">
-        <v>125023</v>
+        <v>166769</v>
       </c>
       <c r="AN12" s="13">
-        <v>132647</v>
+        <v>193019</v>
       </c>
       <c r="AO12" s="13">
-        <v>166769</v>
+        <v>171107</v>
       </c>
       <c r="AP12" s="13">
-        <v>193019</v>
+        <v>163290</v>
       </c>
       <c r="AQ12" s="13">
-        <v>171107</v>
+        <v>74712</v>
       </c>
       <c r="AR12" s="13">
-        <v>163290</v>
+        <v>95056</v>
       </c>
       <c r="AS12" s="13">
-        <v>74712</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>95056</v>
+        <v>166455</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU12" s="13">
-        <v>166455</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW12" s="13">
-        <v>0</v>
+      <c r="AW12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX12" s="13" t="s">
         <v>57</v>
@@ -1766,16 +1766,16 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>2869</v>
       </c>
       <c r="F13" s="11">
-        <v>3853</v>
+        <v>3271</v>
       </c>
       <c r="G13" s="11">
-        <v>2869</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>3271</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
@@ -1790,73 +1790,73 @@
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>0</v>
+        <v>5755</v>
       </c>
       <c r="N13" s="11">
-        <v>0</v>
+        <v>5309</v>
       </c>
       <c r="O13" s="11">
-        <v>5755</v>
+        <v>10006</v>
       </c>
       <c r="P13" s="11">
-        <v>5309</v>
+        <v>4894</v>
       </c>
       <c r="Q13" s="11">
-        <v>10006</v>
+        <v>10385</v>
       </c>
       <c r="R13" s="11">
-        <v>4894</v>
+        <v>8313</v>
       </c>
       <c r="S13" s="11">
-        <v>10385</v>
+        <v>5361</v>
       </c>
       <c r="T13" s="11">
-        <v>8313</v>
+        <v>7140</v>
       </c>
       <c r="U13" s="11">
-        <v>5361</v>
-      </c>
-      <c r="V13" s="11">
-        <v>7140</v>
-      </c>
-      <c r="W13" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>57</v>
+      <c r="Y13" s="11">
+        <v>6497</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>7173</v>
       </c>
       <c r="AA13" s="11">
-        <v>6497</v>
+        <v>8197</v>
       </c>
       <c r="AB13" s="11">
-        <v>7173</v>
+        <v>4407</v>
       </c>
       <c r="AC13" s="11">
-        <v>8197</v>
+        <v>1941</v>
       </c>
       <c r="AD13" s="11">
-        <v>4407</v>
+        <v>2561</v>
       </c>
       <c r="AE13" s="11">
-        <v>1941</v>
+        <v>2615</v>
       </c>
       <c r="AF13" s="11">
-        <v>2561</v>
+        <v>2767</v>
       </c>
       <c r="AG13" s="11">
-        <v>2615</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>2767</v>
-      </c>
-      <c r="AI13" s="11">
         <v>4960</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ13" s="11" t="s">
         <v>57</v>
@@ -1925,98 +1925,98 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>49098</v>
+        <v>55478</v>
       </c>
       <c r="F14" s="13">
-        <v>57525</v>
+        <v>28255</v>
       </c>
       <c r="G14" s="13">
-        <v>55478</v>
+        <v>22320</v>
       </c>
       <c r="H14" s="13">
-        <v>28255</v>
+        <v>22428</v>
       </c>
       <c r="I14" s="13">
-        <v>22320</v>
+        <v>46452</v>
       </c>
       <c r="J14" s="13">
-        <v>22428</v>
+        <v>39165</v>
       </c>
       <c r="K14" s="13">
-        <v>46452</v>
+        <v>71587</v>
       </c>
       <c r="L14" s="13">
-        <v>39165</v>
+        <v>70273</v>
       </c>
       <c r="M14" s="13">
-        <v>71587</v>
+        <v>67678</v>
       </c>
       <c r="N14" s="13">
-        <v>70273</v>
+        <v>66733</v>
       </c>
       <c r="O14" s="13">
-        <v>67678</v>
+        <v>72920</v>
       </c>
       <c r="P14" s="13">
-        <v>66733</v>
+        <v>88150</v>
       </c>
       <c r="Q14" s="13">
-        <v>72920</v>
+        <v>75551</v>
       </c>
       <c r="R14" s="13">
-        <v>88150</v>
+        <v>40194</v>
       </c>
       <c r="S14" s="13">
-        <v>75551</v>
+        <v>26672</v>
       </c>
       <c r="T14" s="13">
-        <v>40194</v>
+        <v>20460</v>
       </c>
       <c r="U14" s="13">
-        <v>26672</v>
+        <v>78346</v>
       </c>
       <c r="V14" s="13">
-        <v>20460</v>
+        <v>81413</v>
       </c>
       <c r="W14" s="13">
-        <v>78346</v>
+        <v>95972</v>
       </c>
       <c r="X14" s="13">
-        <v>81413</v>
+        <v>91938</v>
       </c>
       <c r="Y14" s="13">
-        <v>95972</v>
+        <v>97872</v>
       </c>
       <c r="Z14" s="13">
-        <v>91938</v>
+        <v>67087</v>
       </c>
       <c r="AA14" s="13">
-        <v>97872</v>
+        <v>68411</v>
       </c>
       <c r="AB14" s="13">
-        <v>67087</v>
+        <v>64245</v>
       </c>
       <c r="AC14" s="13">
-        <v>68411</v>
+        <v>55320</v>
       </c>
       <c r="AD14" s="13">
-        <v>64245</v>
+        <v>61660</v>
       </c>
       <c r="AE14" s="13">
-        <v>55320</v>
+        <v>35239</v>
       </c>
       <c r="AF14" s="13">
-        <v>61660</v>
+        <v>42079</v>
       </c>
       <c r="AG14" s="13">
-        <v>35239</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>42079</v>
-      </c>
-      <c r="AI14" s="13">
         <v>56222</v>
       </c>
+      <c r="AH14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2047,32 +2047,32 @@
       <c r="AS14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU14" s="13" t="s">
-        <v>57</v>
+      <c r="AT14" s="13">
+        <v>61258</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>69165</v>
       </c>
       <c r="AV14" s="13">
-        <v>61258</v>
+        <v>72172</v>
       </c>
       <c r="AW14" s="13">
-        <v>69165</v>
+        <v>52548</v>
       </c>
       <c r="AX14" s="13">
-        <v>72172</v>
+        <v>52024</v>
       </c>
       <c r="AY14" s="13">
-        <v>52548</v>
+        <v>68487</v>
       </c>
       <c r="AZ14" s="13">
-        <v>52024</v>
+        <v>64433</v>
       </c>
       <c r="BA14" s="13">
-        <v>68487</v>
+        <v>60936</v>
       </c>
       <c r="BB14" s="13">
-        <v>64433</v>
+        <v>36337</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2134,21 +2134,21 @@
       <c r="U15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>57</v>
+      <c r="V15" s="11">
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <v>2206</v>
       </c>
       <c r="X15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>2206</v>
-      </c>
-      <c r="Z15" s="11">
         <v>4840</v>
       </c>
+      <c r="Y15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2206,32 +2206,32 @@
       <c r="AS15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>57</v>
+      <c r="AT15" s="11">
+        <v>741</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>1244</v>
       </c>
       <c r="AV15" s="11">
-        <v>741</v>
+        <v>1001</v>
       </c>
       <c r="AW15" s="11">
-        <v>1244</v>
+        <v>1274</v>
       </c>
       <c r="AX15" s="11">
-        <v>1001</v>
+        <v>2879</v>
       </c>
       <c r="AY15" s="11">
-        <v>1274</v>
+        <v>12952</v>
       </c>
       <c r="AZ15" s="11">
-        <v>1272</v>
+        <v>16331</v>
       </c>
       <c r="BA15" s="11">
-        <v>1916</v>
+        <v>23413</v>
       </c>
       <c r="BB15" s="11">
-        <v>3079</v>
+        <v>23470</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2243,98 +2243,98 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>36594</v>
+        <v>41338</v>
       </c>
       <c r="F16" s="13">
-        <v>47772</v>
+        <v>37159</v>
       </c>
       <c r="G16" s="13">
-        <v>41338</v>
+        <v>29469</v>
       </c>
       <c r="H16" s="13">
-        <v>37159</v>
+        <v>16326</v>
       </c>
       <c r="I16" s="13">
-        <v>29469</v>
+        <v>44669</v>
       </c>
       <c r="J16" s="13">
-        <v>16326</v>
+        <v>30080</v>
       </c>
       <c r="K16" s="13">
-        <v>44669</v>
+        <v>43467</v>
       </c>
       <c r="L16" s="13">
-        <v>30080</v>
+        <v>56847</v>
       </c>
       <c r="M16" s="13">
-        <v>43467</v>
+        <v>52616</v>
       </c>
       <c r="N16" s="13">
-        <v>56847</v>
+        <v>43182</v>
       </c>
       <c r="O16" s="13">
-        <v>52616</v>
+        <v>38631</v>
       </c>
       <c r="P16" s="13">
-        <v>43182</v>
+        <v>52127</v>
       </c>
       <c r="Q16" s="13">
-        <v>38631</v>
+        <v>49760</v>
       </c>
       <c r="R16" s="13">
-        <v>52127</v>
+        <v>39676</v>
       </c>
       <c r="S16" s="13">
-        <v>49760</v>
+        <v>26064</v>
       </c>
       <c r="T16" s="13">
-        <v>39676</v>
+        <v>9302</v>
       </c>
       <c r="U16" s="13">
-        <v>26064</v>
+        <v>43471</v>
       </c>
       <c r="V16" s="13">
-        <v>9302</v>
+        <v>39638</v>
       </c>
       <c r="W16" s="13">
-        <v>43471</v>
+        <v>46410</v>
       </c>
       <c r="X16" s="13">
-        <v>39638</v>
+        <v>66130</v>
       </c>
       <c r="Y16" s="13">
-        <v>46410</v>
+        <v>73497</v>
       </c>
       <c r="Z16" s="13">
-        <v>66130</v>
+        <v>67338</v>
       </c>
       <c r="AA16" s="13">
-        <v>73497</v>
+        <v>58923</v>
       </c>
       <c r="AB16" s="13">
-        <v>67338</v>
+        <v>65087</v>
       </c>
       <c r="AC16" s="13">
-        <v>58923</v>
+        <v>40103</v>
       </c>
       <c r="AD16" s="13">
-        <v>65087</v>
+        <v>44607</v>
       </c>
       <c r="AE16" s="13">
-        <v>40103</v>
+        <v>35055</v>
       </c>
       <c r="AF16" s="13">
-        <v>44607</v>
+        <v>46944</v>
       </c>
       <c r="AG16" s="13">
-        <v>35055</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>46944</v>
-      </c>
-      <c r="AI16" s="13">
         <v>79229</v>
       </c>
+      <c r="AH16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2365,32 +2365,32 @@
       <c r="AS16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU16" s="13" t="s">
-        <v>57</v>
+      <c r="AT16" s="13">
+        <v>30189</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>69431</v>
       </c>
       <c r="AV16" s="13">
-        <v>30189</v>
+        <v>57757</v>
       </c>
       <c r="AW16" s="13">
-        <v>69431</v>
+        <v>64337</v>
       </c>
       <c r="AX16" s="13">
-        <v>57757</v>
+        <v>35806</v>
       </c>
       <c r="AY16" s="13">
-        <v>64337</v>
+        <v>29273</v>
       </c>
       <c r="AZ16" s="13">
-        <v>35806</v>
+        <v>33780</v>
       </c>
       <c r="BA16" s="13">
-        <v>29273</v>
+        <v>28009</v>
       </c>
       <c r="BB16" s="13">
-        <v>33780</v>
+        <v>29623</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2402,13 +2402,13 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>13692</v>
+        <v>1652</v>
       </c>
       <c r="F17" s="11">
-        <v>6787</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -2429,70 +2429,70 @@
         <v>0</v>
       </c>
       <c r="N17" s="11">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="O17" s="11">
-        <v>0</v>
+        <v>5839</v>
       </c>
       <c r="P17" s="11">
-        <v>201</v>
+        <v>6678</v>
       </c>
       <c r="Q17" s="11">
-        <v>5839</v>
+        <v>5532</v>
       </c>
       <c r="R17" s="11">
-        <v>6678</v>
+        <v>4887</v>
       </c>
       <c r="S17" s="11">
-        <v>5532</v>
+        <v>3256</v>
       </c>
       <c r="T17" s="11">
-        <v>4887</v>
+        <v>3192</v>
       </c>
       <c r="U17" s="11">
-        <v>3256</v>
-      </c>
-      <c r="V17" s="11">
-        <v>3192</v>
-      </c>
-      <c r="W17" s="11">
         <v>2392</v>
       </c>
+      <c r="V17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>57</v>
+      <c r="Y17" s="11">
+        <v>8883</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>7526</v>
       </c>
       <c r="AA17" s="11">
-        <v>8883</v>
+        <v>10061</v>
       </c>
       <c r="AB17" s="11">
-        <v>7526</v>
+        <v>3726</v>
       </c>
       <c r="AC17" s="11">
-        <v>10061</v>
+        <v>2580</v>
       </c>
       <c r="AD17" s="11">
-        <v>3726</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="11">
-        <v>2580</v>
+        <v>1574</v>
       </c>
       <c r="AF17" s="11">
-        <v>0</v>
+        <v>5879</v>
       </c>
       <c r="AG17" s="11">
-        <v>1574</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>5879</v>
-      </c>
-      <c r="AI17" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ17" s="11" t="s">
         <v>57</v>
@@ -2561,85 +2561,85 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>152</v>
+        <v>3660</v>
       </c>
       <c r="F18" s="13">
-        <v>94</v>
+        <v>1803</v>
       </c>
       <c r="G18" s="13">
-        <v>3660</v>
+        <v>1176</v>
       </c>
       <c r="H18" s="13">
-        <v>1803</v>
+        <v>3030</v>
       </c>
       <c r="I18" s="13">
-        <v>1176</v>
+        <v>4506</v>
       </c>
       <c r="J18" s="13">
-        <v>3030</v>
+        <v>11077</v>
       </c>
       <c r="K18" s="13">
-        <v>4506</v>
+        <v>10617</v>
       </c>
       <c r="L18" s="13">
-        <v>11077</v>
+        <v>6292</v>
       </c>
       <c r="M18" s="13">
-        <v>10617</v>
+        <v>30</v>
       </c>
       <c r="N18" s="13">
-        <v>6292</v>
+        <v>44</v>
       </c>
       <c r="O18" s="13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P18" s="13">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="13">
         <v>20</v>
       </c>
-      <c r="S18" s="13">
+      <c r="T18" s="13">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0</v>
+      </c>
+      <c r="V18" s="13">
+        <v>0</v>
+      </c>
+      <c r="W18" s="13">
         <v>10</v>
       </c>
-      <c r="T18" s="13">
-        <v>0</v>
-      </c>
-      <c r="U18" s="13">
+      <c r="X18" s="13">
         <v>20</v>
       </c>
-      <c r="V18" s="13">
-        <v>0</v>
-      </c>
-      <c r="W18" s="13">
-        <v>0</v>
-      </c>
-      <c r="X18" s="13">
-        <v>0</v>
-      </c>
       <c r="Y18" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB18" s="13">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AC18" s="13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AD18" s="13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="13">
         <v>0</v>
@@ -2647,11 +2647,11 @@
       <c r="AG18" s="13">
         <v>0</v>
       </c>
-      <c r="AH18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>0</v>
+      <c r="AH18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ18" s="13" t="s">
         <v>57</v>
@@ -2701,14 +2701,14 @@
       <c r="AY18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ18" s="13">
-        <v>1607</v>
-      </c>
-      <c r="BA18" s="13">
-        <v>11036</v>
-      </c>
-      <c r="BB18" s="13">
-        <v>13252</v>
+      <c r="AZ18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB18" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2720,46 +2720,46 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>2987</v>
+        <v>2213</v>
       </c>
       <c r="F19" s="11">
-        <v>1172</v>
+        <v>3420</v>
       </c>
       <c r="G19" s="11">
-        <v>2213</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>3420</v>
+        <v>1842</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>1845</v>
       </c>
       <c r="J19" s="11">
-        <v>1842</v>
+        <v>2590</v>
       </c>
       <c r="K19" s="11">
-        <v>1845</v>
+        <v>1721</v>
       </c>
       <c r="L19" s="11">
-        <v>2590</v>
+        <v>2052</v>
       </c>
       <c r="M19" s="11">
-        <v>1721</v>
+        <v>248</v>
       </c>
       <c r="N19" s="11">
-        <v>2052</v>
+        <v>1717</v>
       </c>
       <c r="O19" s="11">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="P19" s="11">
-        <v>1717</v>
+        <v>886</v>
       </c>
       <c r="Q19" s="11">
         <v>0</v>
       </c>
       <c r="R19" s="11">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="S19" s="11">
         <v>0</v>
@@ -2780,91 +2780,91 @@
         <v>0</v>
       </c>
       <c r="Y19" s="11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Z19" s="11">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="AA19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>200</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>1637</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>430</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>748</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>1362</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>1097</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT19" s="11">
         <v>600</v>
       </c>
-      <c r="AB19" s="11">
-        <v>546</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="11">
-        <v>200</v>
-      </c>
-      <c r="AE19" s="11">
-        <v>1637</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>430</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>748</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>1362</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>1097</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU19" s="11" t="s">
-        <v>57</v>
+      <c r="AU19" s="11">
+        <v>610</v>
       </c>
       <c r="AV19" s="11">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="11">
-        <v>610</v>
+        <v>2320</v>
       </c>
       <c r="AX19" s="11">
         <v>0</v>
       </c>
       <c r="AY19" s="11">
-        <v>2320</v>
+        <v>570</v>
       </c>
       <c r="AZ19" s="11">
         <v>0</v>
       </c>
       <c r="BA19" s="11">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="11">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -2909,67 +2909,67 @@
         <v>0</v>
       </c>
       <c r="O20" s="13">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="P20" s="13">
-        <v>0</v>
+        <v>1691</v>
       </c>
       <c r="Q20" s="13">
-        <v>424</v>
+        <v>1967</v>
       </c>
       <c r="R20" s="13">
-        <v>1691</v>
+        <v>2834</v>
       </c>
       <c r="S20" s="13">
-        <v>1967</v>
+        <v>1345</v>
       </c>
       <c r="T20" s="13">
-        <v>2834</v>
+        <v>0</v>
       </c>
       <c r="U20" s="13">
-        <v>1345</v>
-      </c>
-      <c r="V20" s="13">
-        <v>0</v>
-      </c>
-      <c r="W20" s="13">
         <v>1028</v>
       </c>
+      <c r="V20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>57</v>
+      <c r="Y20" s="13">
+        <v>2805</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>1772</v>
       </c>
       <c r="AA20" s="13">
-        <v>2805</v>
+        <v>479</v>
       </c>
       <c r="AB20" s="13">
-        <v>1772</v>
+        <v>76</v>
       </c>
       <c r="AC20" s="13">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="AD20" s="13">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="13">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AF20" s="13">
-        <v>0</v>
+        <v>2122</v>
       </c>
       <c r="AG20" s="13">
-        <v>176</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>2122</v>
-      </c>
-      <c r="AI20" s="13">
         <v>1548</v>
+      </c>
+      <c r="AH20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ20" s="13" t="s">
         <v>57</v>
@@ -3088,11 +3088,11 @@
       <c r="U21" s="11">
         <v>0</v>
       </c>
-      <c r="V21" s="11">
-        <v>0</v>
-      </c>
-      <c r="W21" s="11">
-        <v>0</v>
+      <c r="V21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>57</v>
@@ -3197,98 +3197,98 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>3010</v>
+        <v>9252</v>
       </c>
       <c r="F22" s="13">
-        <v>2887</v>
+        <v>9656</v>
       </c>
       <c r="G22" s="13">
-        <v>9252</v>
+        <v>8599</v>
       </c>
       <c r="H22" s="13">
-        <v>9656</v>
+        <v>6468</v>
       </c>
       <c r="I22" s="13">
-        <v>8599</v>
+        <v>9813</v>
       </c>
       <c r="J22" s="13">
-        <v>6468</v>
+        <v>4809</v>
       </c>
       <c r="K22" s="13">
-        <v>9813</v>
+        <v>13703</v>
       </c>
       <c r="L22" s="13">
-        <v>4809</v>
+        <v>7122</v>
       </c>
       <c r="M22" s="13">
-        <v>13703</v>
+        <v>9740</v>
       </c>
       <c r="N22" s="13">
-        <v>7122</v>
+        <v>4643</v>
       </c>
       <c r="O22" s="13">
-        <v>9740</v>
+        <v>4542</v>
       </c>
       <c r="P22" s="13">
-        <v>4643</v>
+        <v>5836</v>
       </c>
       <c r="Q22" s="13">
-        <v>4542</v>
+        <v>7696</v>
       </c>
       <c r="R22" s="13">
-        <v>5836</v>
+        <v>1309</v>
       </c>
       <c r="S22" s="13">
-        <v>7696</v>
+        <v>2485</v>
       </c>
       <c r="T22" s="13">
-        <v>1309</v>
+        <v>1533</v>
       </c>
       <c r="U22" s="13">
-        <v>2485</v>
+        <v>5895</v>
       </c>
       <c r="V22" s="13">
-        <v>1533</v>
+        <v>16102</v>
       </c>
       <c r="W22" s="13">
-        <v>5895</v>
+        <v>15697</v>
       </c>
       <c r="X22" s="13">
-        <v>16102</v>
+        <v>10911</v>
       </c>
       <c r="Y22" s="13">
-        <v>15697</v>
+        <v>17688</v>
       </c>
       <c r="Z22" s="13">
-        <v>10911</v>
+        <v>18992</v>
       </c>
       <c r="AA22" s="13">
-        <v>17688</v>
+        <v>17827</v>
       </c>
       <c r="AB22" s="13">
-        <v>18992</v>
+        <v>17643</v>
       </c>
       <c r="AC22" s="13">
-        <v>17827</v>
+        <v>6246</v>
       </c>
       <c r="AD22" s="13">
-        <v>17643</v>
+        <v>4915</v>
       </c>
       <c r="AE22" s="13">
-        <v>6246</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="13">
-        <v>4915</v>
+        <v>1038</v>
       </c>
       <c r="AG22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="13">
-        <v>1038</v>
-      </c>
-      <c r="AI22" s="13">
         <v>612</v>
       </c>
+      <c r="AH22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI22" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ22" s="13" t="s">
         <v>57</v>
       </c>
@@ -3319,32 +3319,32 @@
       <c r="AS22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT22" s="13" t="s">
-        <v>57</v>
+      <c r="AT22" s="13">
+        <v>559</v>
       </c>
       <c r="AU22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV22" s="13">
-        <v>559</v>
-      </c>
-      <c r="AW22" s="13">
-        <v>11757</v>
-      </c>
-      <c r="AX22" s="13">
-        <v>16685</v>
-      </c>
-      <c r="AY22" s="13">
-        <v>18139</v>
-      </c>
-      <c r="AZ22" s="13">
-        <v>17221</v>
-      </c>
-      <c r="BA22" s="13">
-        <v>32488</v>
-      </c>
-      <c r="BB22" s="13">
-        <v>31053</v>
+      <c r="AV22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB22" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3356,46 +3356,46 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>2876</v>
+        <v>8232</v>
       </c>
       <c r="F23" s="11">
-        <v>2512</v>
+        <v>1497</v>
       </c>
       <c r="G23" s="11">
-        <v>8232</v>
+        <v>1727</v>
       </c>
       <c r="H23" s="11">
-        <v>1497</v>
+        <v>979</v>
       </c>
       <c r="I23" s="11">
-        <v>1727</v>
+        <v>620</v>
       </c>
       <c r="J23" s="11">
-        <v>979</v>
+        <v>355</v>
       </c>
       <c r="K23" s="11">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="L23" s="11">
-        <v>355</v>
+        <v>679</v>
       </c>
       <c r="M23" s="11">
-        <v>633</v>
+        <v>242</v>
       </c>
       <c r="N23" s="11">
-        <v>679</v>
+        <v>497</v>
       </c>
       <c r="O23" s="11">
-        <v>242</v>
+        <v>149</v>
       </c>
       <c r="P23" s="11">
-        <v>497</v>
+        <v>227</v>
       </c>
       <c r="Q23" s="11">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="R23" s="11">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="S23" s="11">
         <v>0</v>
@@ -3422,31 +3422,31 @@
         <v>0</v>
       </c>
       <c r="AA23" s="11">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="AB23" s="11">
         <v>0</v>
       </c>
       <c r="AC23" s="11">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="11">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AE23" s="11">
         <v>0</v>
       </c>
       <c r="AF23" s="11">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="11">
         <v>0</v>
       </c>
-      <c r="AH23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="11">
-        <v>0</v>
+      <c r="AH23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ23" s="11" t="s">
         <v>57</v>
@@ -3478,11 +3478,11 @@
       <c r="AS23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU23" s="11" t="s">
-        <v>57</v>
+      <c r="AT23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="11">
+        <v>0</v>
       </c>
       <c r="AV23" s="11">
         <v>0</v>
@@ -3515,10 +3515,10 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="F24" s="13">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="G24" s="13">
         <v>0</v>
@@ -3545,31 +3545,31 @@
         <v>0</v>
       </c>
       <c r="O24" s="13">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P24" s="13">
         <v>0</v>
       </c>
       <c r="Q24" s="13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R24" s="13">
         <v>0</v>
       </c>
       <c r="S24" s="13">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T24" s="13">
         <v>0</v>
       </c>
       <c r="U24" s="13">
-        <v>139</v>
-      </c>
-      <c r="V24" s="13">
-        <v>0</v>
-      </c>
-      <c r="W24" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X24" s="13" t="s">
         <v>57</v>
@@ -3577,35 +3577,35 @@
       <c r="Y24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA24" s="13" t="s">
-        <v>57</v>
+      <c r="Z24" s="13">
+        <v>910</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>2238</v>
       </c>
       <c r="AB24" s="13">
-        <v>910</v>
+        <v>1240</v>
       </c>
       <c r="AC24" s="13">
-        <v>2238</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="13">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="13">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AF24" s="13">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AG24" s="13">
-        <v>349</v>
-      </c>
-      <c r="AH24" s="13">
-        <v>103</v>
-      </c>
-      <c r="AI24" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ24" s="13" t="s">
         <v>57</v>
@@ -3674,64 +3674,64 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>19864</v>
+        <v>12463</v>
       </c>
       <c r="F25" s="11">
-        <v>26705</v>
+        <v>9204</v>
       </c>
       <c r="G25" s="11">
-        <v>12463</v>
+        <v>6161</v>
       </c>
       <c r="H25" s="11">
-        <v>9204</v>
+        <v>5348</v>
       </c>
       <c r="I25" s="11">
-        <v>6161</v>
+        <v>9414</v>
       </c>
       <c r="J25" s="11">
-        <v>5348</v>
+        <v>4491</v>
       </c>
       <c r="K25" s="11">
-        <v>9414</v>
+        <v>9457</v>
       </c>
       <c r="L25" s="11">
-        <v>4491</v>
+        <v>9954</v>
       </c>
       <c r="M25" s="11">
-        <v>9457</v>
+        <v>6824</v>
       </c>
       <c r="N25" s="11">
-        <v>9954</v>
+        <v>7545</v>
       </c>
       <c r="O25" s="11">
-        <v>6824</v>
+        <v>7629</v>
       </c>
       <c r="P25" s="11">
-        <v>7545</v>
+        <v>4527</v>
       </c>
       <c r="Q25" s="11">
-        <v>7629</v>
+        <v>6530</v>
       </c>
       <c r="R25" s="11">
-        <v>4527</v>
+        <v>3236</v>
       </c>
       <c r="S25" s="11">
-        <v>6530</v>
+        <v>2030</v>
       </c>
       <c r="T25" s="11">
-        <v>3236</v>
+        <v>2559</v>
       </c>
       <c r="U25" s="11">
-        <v>2030</v>
+        <v>10659</v>
       </c>
       <c r="V25" s="11">
-        <v>2559</v>
+        <v>14248</v>
       </c>
       <c r="W25" s="11">
-        <v>10659</v>
+        <v>0</v>
       </c>
       <c r="X25" s="11">
-        <v>14248</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="11">
         <v>0</v>
@@ -3740,32 +3740,32 @@
         <v>0</v>
       </c>
       <c r="AA25" s="11">
-        <v>0</v>
+        <v>2601</v>
       </c>
       <c r="AB25" s="11">
-        <v>0</v>
+        <v>14817</v>
       </c>
       <c r="AC25" s="11">
-        <v>2601</v>
+        <v>13223</v>
       </c>
       <c r="AD25" s="11">
-        <v>14817</v>
+        <v>10161</v>
       </c>
       <c r="AE25" s="11">
-        <v>13223</v>
+        <v>11620</v>
       </c>
       <c r="AF25" s="11">
-        <v>10161</v>
+        <v>7712</v>
       </c>
       <c r="AG25" s="11">
-        <v>11620</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>7712</v>
-      </c>
-      <c r="AI25" s="11">
         <v>30065</v>
       </c>
+      <c r="AH25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI25" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ25" s="11" t="s">
         <v>57</v>
       </c>
@@ -3796,32 +3796,32 @@
       <c r="AS25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU25" s="11" t="s">
-        <v>57</v>
+      <c r="AT25" s="11">
+        <v>10731</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>17685</v>
       </c>
       <c r="AV25" s="11">
-        <v>10731</v>
+        <v>16794</v>
       </c>
       <c r="AW25" s="11">
-        <v>17685</v>
+        <v>14449</v>
       </c>
       <c r="AX25" s="11">
-        <v>16794</v>
+        <v>14539</v>
       </c>
       <c r="AY25" s="11">
-        <v>14449</v>
+        <v>19316</v>
       </c>
       <c r="AZ25" s="11">
-        <v>14539</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="11">
-        <v>19316</v>
+        <v>24995</v>
       </c>
       <c r="BB25" s="11">
-        <v>0</v>
+        <v>14823</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3833,98 +3833,98 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="F26" s="13">
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="G26" s="13">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="H26" s="13">
-        <v>1049</v>
+        <v>989</v>
       </c>
       <c r="I26" s="13">
-        <v>0</v>
+        <v>3016</v>
       </c>
       <c r="J26" s="13">
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="K26" s="13">
-        <v>3016</v>
+        <v>0</v>
       </c>
       <c r="L26" s="13">
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="M26" s="13">
         <v>0</v>
       </c>
       <c r="N26" s="13">
-        <v>1306</v>
+        <v>0</v>
       </c>
       <c r="O26" s="13">
-        <v>0</v>
+        <v>2721</v>
       </c>
       <c r="P26" s="13">
         <v>0</v>
       </c>
       <c r="Q26" s="13">
-        <v>2721</v>
+        <v>0</v>
       </c>
       <c r="R26" s="13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S26" s="13">
         <v>0</v>
       </c>
       <c r="T26" s="13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U26" s="13">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="V26" s="13">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="W26" s="13">
-        <v>465</v>
+        <v>15043</v>
       </c>
       <c r="X26" s="13">
-        <v>87</v>
+        <v>5030</v>
       </c>
       <c r="Y26" s="13">
-        <v>15043</v>
+        <v>922</v>
       </c>
       <c r="Z26" s="13">
-        <v>5030</v>
+        <v>6849</v>
       </c>
       <c r="AA26" s="13">
-        <v>922</v>
+        <v>7143</v>
       </c>
       <c r="AB26" s="13">
-        <v>6849</v>
+        <v>103</v>
       </c>
       <c r="AC26" s="13">
-        <v>7143</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="13">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="13">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AF26" s="13">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="AG26" s="13">
-        <v>260</v>
-      </c>
-      <c r="AH26" s="13">
-        <v>636</v>
-      </c>
-      <c r="AI26" s="13">
         <v>539</v>
       </c>
+      <c r="AH26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI26" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ26" s="13" t="s">
         <v>57</v>
       </c>
@@ -3955,32 +3955,32 @@
       <c r="AS26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU26" s="13" t="s">
-        <v>57</v>
+      <c r="AT26" s="13">
+        <v>3279</v>
+      </c>
+      <c r="AU26" s="13">
+        <v>0</v>
       </c>
       <c r="AV26" s="13">
-        <v>3279</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="13">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="AX26" s="13">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="AY26" s="13">
-        <v>431</v>
+        <v>1234</v>
       </c>
       <c r="AZ26" s="13">
-        <v>446</v>
+        <v>24420</v>
       </c>
       <c r="BA26" s="13">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="13">
-        <v>24420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4042,21 +4042,21 @@
       <c r="U27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>57</v>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>1023</v>
       </c>
       <c r="X27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>1023</v>
-      </c>
-      <c r="Z27" s="11">
         <v>3135</v>
       </c>
+      <c r="Y27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA27" s="11" t="s">
         <v>57</v>
       </c>
@@ -4117,29 +4117,29 @@
       <c r="AT27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV27" s="11" t="s">
-        <v>57</v>
+      <c r="AU27" s="11">
+        <v>11856</v>
+      </c>
+      <c r="AV27" s="11">
+        <v>16909</v>
       </c>
       <c r="AW27" s="11">
-        <v>99</v>
+        <v>18336</v>
       </c>
       <c r="AX27" s="11">
-        <v>224</v>
+        <v>64361</v>
       </c>
       <c r="AY27" s="11">
-        <v>197</v>
+        <v>32488</v>
       </c>
       <c r="AZ27" s="11">
-        <v>0</v>
+        <v>31400</v>
       </c>
       <c r="BA27" s="11">
-        <v>0</v>
+        <v>43892</v>
       </c>
       <c r="BB27" s="11">
-        <v>347</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -4273,32 +4273,32 @@
       <c r="AS28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU28" s="13" t="s">
-        <v>57</v>
+      <c r="AT28" s="13">
+        <v>5670</v>
+      </c>
+      <c r="AU28" s="13">
+        <v>12036</v>
       </c>
       <c r="AV28" s="13">
-        <v>5670</v>
+        <v>14465</v>
       </c>
       <c r="AW28" s="13">
-        <v>12036</v>
+        <v>12460</v>
       </c>
       <c r="AX28" s="13">
-        <v>14465</v>
+        <v>7220</v>
       </c>
       <c r="AY28" s="13">
-        <v>12460</v>
+        <v>3800</v>
       </c>
       <c r="AZ28" s="13">
-        <v>7220</v>
+        <v>2970</v>
       </c>
       <c r="BA28" s="13">
-        <v>3800</v>
+        <v>1100</v>
       </c>
       <c r="BB28" s="13">
-        <v>2970</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -4424,11 +4424,11 @@
       <c r="X30" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y30" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z30" s="17" t="s">
-        <v>57</v>
+      <c r="Y30" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="17">
+        <v>0</v>
       </c>
       <c r="AA30" s="17">
         <v>0</v>
@@ -4522,154 +4522,154 @@
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19">
-        <v>131325</v>
+        <v>138462</v>
       </c>
       <c r="F31" s="19">
-        <v>149888</v>
+        <v>95314</v>
       </c>
       <c r="G31" s="19">
-        <v>138462</v>
+        <v>72333</v>
       </c>
       <c r="H31" s="19">
-        <v>95314</v>
+        <v>58047</v>
       </c>
       <c r="I31" s="19">
-        <v>72333</v>
+        <v>127779</v>
       </c>
       <c r="J31" s="19">
-        <v>58047</v>
+        <v>103475</v>
       </c>
       <c r="K31" s="19">
-        <v>127779</v>
+        <v>163020</v>
       </c>
       <c r="L31" s="19">
-        <v>103475</v>
+        <v>165195</v>
       </c>
       <c r="M31" s="19">
-        <v>163020</v>
+        <v>146624</v>
       </c>
       <c r="N31" s="19">
-        <v>165195</v>
+        <v>131336</v>
       </c>
       <c r="O31" s="19">
-        <v>146624</v>
+        <v>144766</v>
       </c>
       <c r="P31" s="19">
-        <v>131336</v>
+        <v>165036</v>
       </c>
       <c r="Q31" s="19">
-        <v>144766</v>
+        <v>157431</v>
       </c>
       <c r="R31" s="19">
-        <v>165036</v>
+        <v>100586</v>
       </c>
       <c r="S31" s="19">
-        <v>157431</v>
+        <v>70725</v>
       </c>
       <c r="T31" s="19">
-        <v>100586</v>
+        <v>46428</v>
       </c>
       <c r="U31" s="19">
-        <v>70725</v>
+        <v>143348</v>
       </c>
       <c r="V31" s="19">
-        <v>46428</v>
+        <v>153817</v>
       </c>
       <c r="W31" s="19">
-        <v>143348</v>
+        <v>184843</v>
       </c>
       <c r="X31" s="19">
-        <v>153817</v>
+        <v>188867</v>
       </c>
       <c r="Y31" s="19">
-        <v>184843</v>
+        <v>208764</v>
       </c>
       <c r="Z31" s="19">
-        <v>188867</v>
+        <v>178193</v>
       </c>
       <c r="AA31" s="19">
-        <v>208764</v>
+        <v>179526</v>
       </c>
       <c r="AB31" s="19">
-        <v>178193</v>
+        <v>171629</v>
       </c>
       <c r="AC31" s="19">
-        <v>179526</v>
+        <v>121214</v>
       </c>
       <c r="AD31" s="19">
-        <v>171629</v>
+        <v>124812</v>
       </c>
       <c r="AE31" s="19">
-        <v>121214</v>
+        <v>87636</v>
       </c>
       <c r="AF31" s="19">
-        <v>124812</v>
+        <v>110642</v>
       </c>
       <c r="AG31" s="19">
-        <v>87636</v>
+        <v>174272</v>
       </c>
       <c r="AH31" s="19">
-        <v>110642</v>
+        <v>135507</v>
       </c>
       <c r="AI31" s="19">
-        <v>174272</v>
+        <v>161407</v>
       </c>
       <c r="AJ31" s="19">
-        <v>135507</v>
+        <v>175578</v>
       </c>
       <c r="AK31" s="19">
-        <v>161407</v>
+        <v>125023</v>
       </c>
       <c r="AL31" s="19">
-        <v>175578</v>
+        <v>132647</v>
       </c>
       <c r="AM31" s="19">
-        <v>125023</v>
+        <v>166769</v>
       </c>
       <c r="AN31" s="19">
-        <v>132647</v>
+        <v>193019</v>
       </c>
       <c r="AO31" s="19">
-        <v>166769</v>
+        <v>171107</v>
       </c>
       <c r="AP31" s="19">
-        <v>193019</v>
+        <v>164280</v>
       </c>
       <c r="AQ31" s="19">
-        <v>171107</v>
+        <v>74722</v>
       </c>
       <c r="AR31" s="19">
-        <v>164280</v>
+        <v>95056</v>
       </c>
       <c r="AS31" s="19">
-        <v>74722</v>
+        <v>166455</v>
       </c>
       <c r="AT31" s="19">
-        <v>95056</v>
+        <v>113027</v>
       </c>
       <c r="AU31" s="19">
-        <v>166455</v>
+        <v>182027</v>
       </c>
       <c r="AV31" s="19">
-        <v>113027</v>
+        <v>179098</v>
       </c>
       <c r="AW31" s="19">
-        <v>182027</v>
+        <v>166155</v>
       </c>
       <c r="AX31" s="19">
-        <v>179098</v>
+        <v>177275</v>
       </c>
       <c r="AY31" s="19">
-        <v>166155</v>
+        <v>168120</v>
       </c>
       <c r="AZ31" s="19">
-        <v>130135</v>
+        <v>176955</v>
       </c>
       <c r="BA31" s="19">
-        <v>168120</v>
+        <v>182345</v>
       </c>
       <c r="BB31" s="19">
-        <v>176955</v>
+        <v>150032</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -5120,65 +5120,65 @@
       <c r="F38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>57</v>
+      <c r="G38" s="11">
+        <v>2881</v>
+      </c>
+      <c r="H38" s="11">
+        <v>637</v>
       </c>
       <c r="I38" s="11">
-        <v>2881</v>
+        <v>7444</v>
       </c>
       <c r="J38" s="11">
-        <v>637</v>
+        <v>10908</v>
       </c>
       <c r="K38" s="11">
-        <v>7444</v>
+        <v>11835</v>
       </c>
       <c r="L38" s="11">
-        <v>10908</v>
+        <v>10670</v>
       </c>
       <c r="M38" s="11">
-        <v>11835</v>
+        <v>3491</v>
       </c>
       <c r="N38" s="11">
-        <v>10670</v>
+        <v>1465</v>
       </c>
       <c r="O38" s="11">
-        <v>3491</v>
+        <v>1878</v>
       </c>
       <c r="P38" s="11">
-        <v>1465</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="11">
-        <v>1878</v>
+        <v>0</v>
       </c>
       <c r="R38" s="11">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="S38" s="11">
-        <v>0</v>
+        <v>3353</v>
       </c>
       <c r="T38" s="11">
-        <v>118</v>
+        <v>2242</v>
       </c>
       <c r="U38" s="11">
-        <v>3353</v>
+        <v>0</v>
       </c>
       <c r="V38" s="11">
-        <v>2242</v>
+        <v>2329</v>
       </c>
       <c r="W38" s="11">
-        <v>0</v>
+        <v>8482</v>
       </c>
       <c r="X38" s="11">
-        <v>2329</v>
+        <v>6863</v>
       </c>
       <c r="Y38" s="11">
-        <v>8482</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="11">
-        <v>6863</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="11">
         <v>0</v>
@@ -5202,16 +5202,16 @@
         <v>0</v>
       </c>
       <c r="AH38" s="11">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="AI38" s="11">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="AJ38" s="11">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="11">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="11">
         <v>0</v>
@@ -5226,16 +5226,16 @@
         <v>0</v>
       </c>
       <c r="AP38" s="11">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AQ38" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR38" s="11">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="11">
         <v>0</v>
@@ -5256,13 +5256,13 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="11">
-        <v>0</v>
+        <v>3621</v>
       </c>
       <c r="BA38" s="11">
         <v>0</v>
       </c>
       <c r="BB38" s="11">
-        <v>3621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5360,53 +5360,53 @@
       <c r="AG39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI39" s="13" t="s">
-        <v>57</v>
+      <c r="AH39" s="13">
+        <v>138446</v>
+      </c>
+      <c r="AI39" s="13">
+        <v>158829</v>
       </c>
       <c r="AJ39" s="13">
-        <v>138446</v>
+        <v>172744</v>
       </c>
       <c r="AK39" s="13">
-        <v>158829</v>
+        <v>131116</v>
       </c>
       <c r="AL39" s="13">
-        <v>172744</v>
+        <v>112650</v>
       </c>
       <c r="AM39" s="13">
-        <v>131116</v>
+        <v>182807</v>
       </c>
       <c r="AN39" s="13">
-        <v>112650</v>
+        <v>185165</v>
       </c>
       <c r="AO39" s="13">
-        <v>182807</v>
+        <v>172278</v>
       </c>
       <c r="AP39" s="13">
-        <v>185165</v>
+        <v>160859</v>
       </c>
       <c r="AQ39" s="13">
-        <v>172278</v>
+        <v>72880</v>
       </c>
       <c r="AR39" s="13">
-        <v>160859</v>
+        <v>95205</v>
       </c>
       <c r="AS39" s="13">
-        <v>72880</v>
-      </c>
-      <c r="AT39" s="13">
-        <v>95205</v>
+        <v>163311</v>
+      </c>
+      <c r="AT39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU39" s="13">
-        <v>163311</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW39" s="13">
-        <v>0</v>
+      <c r="AW39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX39" s="13" t="s">
         <v>57</v>
@@ -5433,16 +5433,16 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>2869</v>
       </c>
       <c r="F40" s="11">
-        <v>3853</v>
+        <v>3271</v>
       </c>
       <c r="G40" s="11">
-        <v>2869</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>3271</v>
+        <v>0</v>
       </c>
       <c r="I40" s="11">
         <v>0</v>
@@ -5457,73 +5457,73 @@
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <v>0</v>
+        <v>5755</v>
       </c>
       <c r="N40" s="11">
-        <v>0</v>
+        <v>5309</v>
       </c>
       <c r="O40" s="11">
-        <v>5755</v>
+        <v>10006</v>
       </c>
       <c r="P40" s="11">
-        <v>5309</v>
+        <v>4894</v>
       </c>
       <c r="Q40" s="11">
-        <v>10006</v>
+        <v>10385</v>
       </c>
       <c r="R40" s="11">
-        <v>4894</v>
+        <v>8313</v>
       </c>
       <c r="S40" s="11">
-        <v>10385</v>
+        <v>5361</v>
       </c>
       <c r="T40" s="11">
-        <v>8313</v>
+        <v>7140</v>
       </c>
       <c r="U40" s="11">
-        <v>5361</v>
-      </c>
-      <c r="V40" s="11">
-        <v>7140</v>
-      </c>
-      <c r="W40" s="11">
         <v>1092</v>
       </c>
+      <c r="V40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z40" s="11" t="s">
-        <v>57</v>
+      <c r="Y40" s="11">
+        <v>6497</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>7173</v>
       </c>
       <c r="AA40" s="11">
-        <v>6497</v>
+        <v>8197</v>
       </c>
       <c r="AB40" s="11">
-        <v>7173</v>
+        <v>4407</v>
       </c>
       <c r="AC40" s="11">
-        <v>8197</v>
+        <v>1941</v>
       </c>
       <c r="AD40" s="11">
-        <v>4407</v>
+        <v>2561</v>
       </c>
       <c r="AE40" s="11">
-        <v>1941</v>
+        <v>2615</v>
       </c>
       <c r="AF40" s="11">
-        <v>2561</v>
+        <v>2767</v>
       </c>
       <c r="AG40" s="11">
-        <v>2615</v>
-      </c>
-      <c r="AH40" s="11">
-        <v>2767</v>
-      </c>
-      <c r="AI40" s="11">
         <v>4960</v>
+      </c>
+      <c r="AH40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI40" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ40" s="11" t="s">
         <v>57</v>
@@ -5592,98 +5592,98 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>49098</v>
+        <v>55478</v>
       </c>
       <c r="F41" s="13">
-        <v>57525</v>
+        <v>28255</v>
       </c>
       <c r="G41" s="13">
-        <v>55478</v>
+        <v>22320</v>
       </c>
       <c r="H41" s="13">
-        <v>28255</v>
+        <v>22428</v>
       </c>
       <c r="I41" s="13">
-        <v>22320</v>
+        <v>46452</v>
       </c>
       <c r="J41" s="13">
-        <v>22428</v>
+        <v>39165</v>
       </c>
       <c r="K41" s="13">
-        <v>46452</v>
+        <v>71587</v>
       </c>
       <c r="L41" s="13">
-        <v>39165</v>
+        <v>70273</v>
       </c>
       <c r="M41" s="13">
-        <v>71587</v>
+        <v>67678</v>
       </c>
       <c r="N41" s="13">
-        <v>70273</v>
+        <v>66733</v>
       </c>
       <c r="O41" s="13">
-        <v>67678</v>
+        <v>72920</v>
       </c>
       <c r="P41" s="13">
-        <v>66733</v>
+        <v>88150</v>
       </c>
       <c r="Q41" s="13">
-        <v>72920</v>
+        <v>75551</v>
       </c>
       <c r="R41" s="13">
-        <v>88150</v>
+        <v>40194</v>
       </c>
       <c r="S41" s="13">
-        <v>75551</v>
+        <v>26672</v>
       </c>
       <c r="T41" s="13">
-        <v>40194</v>
+        <v>20460</v>
       </c>
       <c r="U41" s="13">
-        <v>26672</v>
+        <v>78346</v>
       </c>
       <c r="V41" s="13">
-        <v>20460</v>
+        <v>81413</v>
       </c>
       <c r="W41" s="13">
-        <v>78346</v>
+        <v>95972</v>
       </c>
       <c r="X41" s="13">
-        <v>81413</v>
+        <v>91938</v>
       </c>
       <c r="Y41" s="13">
-        <v>95972</v>
+        <v>97872</v>
       </c>
       <c r="Z41" s="13">
-        <v>91938</v>
+        <v>67087</v>
       </c>
       <c r="AA41" s="13">
-        <v>97872</v>
+        <v>68411</v>
       </c>
       <c r="AB41" s="13">
-        <v>67087</v>
+        <v>64245</v>
       </c>
       <c r="AC41" s="13">
-        <v>68411</v>
+        <v>55320</v>
       </c>
       <c r="AD41" s="13">
-        <v>64245</v>
+        <v>61660</v>
       </c>
       <c r="AE41" s="13">
-        <v>55320</v>
+        <v>35239</v>
       </c>
       <c r="AF41" s="13">
-        <v>61660</v>
+        <v>42079</v>
       </c>
       <c r="AG41" s="13">
-        <v>35239</v>
-      </c>
-      <c r="AH41" s="13">
-        <v>42079</v>
-      </c>
-      <c r="AI41" s="13">
         <v>56222</v>
       </c>
+      <c r="AH41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI41" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ41" s="13" t="s">
         <v>57</v>
       </c>
@@ -5714,32 +5714,32 @@
       <c r="AS41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU41" s="13" t="s">
-        <v>57</v>
+      <c r="AT41" s="13">
+        <v>61258</v>
+      </c>
+      <c r="AU41" s="13">
+        <v>69165</v>
       </c>
       <c r="AV41" s="13">
-        <v>61258</v>
+        <v>72172</v>
       </c>
       <c r="AW41" s="13">
-        <v>69165</v>
+        <v>52548</v>
       </c>
       <c r="AX41" s="13">
-        <v>72172</v>
+        <v>52024</v>
       </c>
       <c r="AY41" s="13">
-        <v>52548</v>
+        <v>68487</v>
       </c>
       <c r="AZ41" s="13">
-        <v>52024</v>
+        <v>64433</v>
       </c>
       <c r="BA41" s="13">
-        <v>68487</v>
+        <v>60936</v>
       </c>
       <c r="BB41" s="13">
-        <v>64433</v>
+        <v>36337</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5801,21 +5801,21 @@
       <c r="U42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W42" s="11" t="s">
-        <v>57</v>
+      <c r="V42" s="11">
+        <v>202</v>
+      </c>
+      <c r="W42" s="11">
+        <v>2206</v>
       </c>
       <c r="X42" s="11">
-        <v>202</v>
-      </c>
-      <c r="Y42" s="11">
-        <v>2206</v>
-      </c>
-      <c r="Z42" s="11">
         <v>4840</v>
       </c>
+      <c r="Y42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA42" s="11" t="s">
         <v>57</v>
       </c>
@@ -5873,32 +5873,32 @@
       <c r="AS42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU42" s="11" t="s">
-        <v>57</v>
+      <c r="AT42" s="11">
+        <v>741</v>
+      </c>
+      <c r="AU42" s="11">
+        <v>1244</v>
       </c>
       <c r="AV42" s="11">
-        <v>741</v>
+        <v>1001</v>
       </c>
       <c r="AW42" s="11">
-        <v>1244</v>
+        <v>1274</v>
       </c>
       <c r="AX42" s="11">
-        <v>1001</v>
+        <v>2879</v>
       </c>
       <c r="AY42" s="11">
-        <v>1274</v>
+        <v>12952</v>
       </c>
       <c r="AZ42" s="11">
-        <v>1272</v>
+        <v>16331</v>
       </c>
       <c r="BA42" s="11">
-        <v>1916</v>
+        <v>23413</v>
       </c>
       <c r="BB42" s="11">
-        <v>3079</v>
+        <v>23470</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5910,98 +5910,98 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>35509</v>
+        <v>43140</v>
       </c>
       <c r="F43" s="13">
-        <v>47290</v>
+        <v>36506</v>
       </c>
       <c r="G43" s="13">
-        <v>43140</v>
+        <v>29184</v>
       </c>
       <c r="H43" s="13">
-        <v>36506</v>
+        <v>26234</v>
       </c>
       <c r="I43" s="13">
-        <v>29184</v>
+        <v>44410</v>
       </c>
       <c r="J43" s="13">
-        <v>26234</v>
+        <v>23793</v>
       </c>
       <c r="K43" s="13">
-        <v>44410</v>
+        <v>49890</v>
       </c>
       <c r="L43" s="13">
-        <v>23793</v>
+        <v>53373</v>
       </c>
       <c r="M43" s="13">
-        <v>49890</v>
+        <v>51195</v>
       </c>
       <c r="N43" s="13">
-        <v>53373</v>
+        <v>41829</v>
       </c>
       <c r="O43" s="13">
-        <v>51195</v>
+        <v>44234</v>
       </c>
       <c r="P43" s="13">
-        <v>41829</v>
+        <v>53483</v>
       </c>
       <c r="Q43" s="13">
-        <v>44234</v>
+        <v>50110</v>
       </c>
       <c r="R43" s="13">
-        <v>53483</v>
+        <v>34355</v>
       </c>
       <c r="S43" s="13">
-        <v>50110</v>
+        <v>22660</v>
       </c>
       <c r="T43" s="13">
-        <v>34355</v>
+        <v>16902</v>
       </c>
       <c r="U43" s="13">
-        <v>22660</v>
+        <v>44758</v>
       </c>
       <c r="V43" s="13">
-        <v>16902</v>
+        <v>37060</v>
       </c>
       <c r="W43" s="13">
-        <v>44758</v>
+        <v>54341</v>
       </c>
       <c r="X43" s="13">
-        <v>37060</v>
+        <v>61345</v>
       </c>
       <c r="Y43" s="13">
-        <v>54341</v>
+        <v>76934</v>
       </c>
       <c r="Z43" s="13">
-        <v>61345</v>
+        <v>68812</v>
       </c>
       <c r="AA43" s="13">
-        <v>76934</v>
+        <v>60429</v>
       </c>
       <c r="AB43" s="13">
-        <v>68812</v>
+        <v>62463</v>
       </c>
       <c r="AC43" s="13">
-        <v>60429</v>
+        <v>36697</v>
       </c>
       <c r="AD43" s="13">
-        <v>62463</v>
+        <v>55673</v>
       </c>
       <c r="AE43" s="13">
-        <v>36697</v>
+        <v>31725</v>
       </c>
       <c r="AF43" s="13">
-        <v>55673</v>
+        <v>42014</v>
       </c>
       <c r="AG43" s="13">
-        <v>31725</v>
-      </c>
-      <c r="AH43" s="13">
-        <v>42014</v>
-      </c>
-      <c r="AI43" s="13">
         <v>73716</v>
       </c>
+      <c r="AH43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI43" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ43" s="13" t="s">
         <v>57</v>
       </c>
@@ -6032,32 +6032,32 @@
       <c r="AS43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU43" s="13" t="s">
-        <v>57</v>
+      <c r="AT43" s="13">
+        <v>48708</v>
+      </c>
+      <c r="AU43" s="13">
+        <v>60988</v>
       </c>
       <c r="AV43" s="13">
-        <v>48708</v>
+        <v>60989</v>
       </c>
       <c r="AW43" s="13">
-        <v>60988</v>
+        <v>49061</v>
       </c>
       <c r="AX43" s="13">
-        <v>60989</v>
+        <v>39038</v>
       </c>
       <c r="AY43" s="13">
-        <v>49061</v>
+        <v>40282</v>
       </c>
       <c r="AZ43" s="13">
-        <v>39040</v>
+        <v>34487</v>
       </c>
       <c r="BA43" s="13">
-        <v>40282</v>
+        <v>31150</v>
       </c>
       <c r="BB43" s="13">
-        <v>34487</v>
+        <v>31020</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6069,13 +6069,13 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>13692</v>
+        <v>1652</v>
       </c>
       <c r="F44" s="11">
-        <v>6787</v>
+        <v>0</v>
       </c>
       <c r="G44" s="11">
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
@@ -6096,70 +6096,70 @@
         <v>0</v>
       </c>
       <c r="N44" s="11">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="O44" s="11">
-        <v>0</v>
+        <v>5839</v>
       </c>
       <c r="P44" s="11">
-        <v>201</v>
+        <v>6678</v>
       </c>
       <c r="Q44" s="11">
-        <v>5839</v>
+        <v>5532</v>
       </c>
       <c r="R44" s="11">
-        <v>6678</v>
+        <v>4887</v>
       </c>
       <c r="S44" s="11">
-        <v>5532</v>
+        <v>3256</v>
       </c>
       <c r="T44" s="11">
-        <v>4887</v>
+        <v>3192</v>
       </c>
       <c r="U44" s="11">
-        <v>3256</v>
-      </c>
-      <c r="V44" s="11">
-        <v>3192</v>
-      </c>
-      <c r="W44" s="11">
         <v>2392</v>
       </c>
+      <c r="V44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z44" s="11" t="s">
-        <v>57</v>
+      <c r="Y44" s="11">
+        <v>8883</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>7526</v>
       </c>
       <c r="AA44" s="11">
-        <v>8883</v>
+        <v>10061</v>
       </c>
       <c r="AB44" s="11">
-        <v>7526</v>
+        <v>3726</v>
       </c>
       <c r="AC44" s="11">
-        <v>10061</v>
+        <v>2580</v>
       </c>
       <c r="AD44" s="11">
-        <v>3726</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="11">
-        <v>2580</v>
+        <v>2152</v>
       </c>
       <c r="AF44" s="11">
-        <v>0</v>
+        <v>5879</v>
       </c>
       <c r="AG44" s="11">
-        <v>2152</v>
-      </c>
-      <c r="AH44" s="11">
-        <v>5879</v>
-      </c>
-      <c r="AI44" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI44" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ44" s="11" t="s">
         <v>57</v>
@@ -6228,85 +6228,85 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>152</v>
+        <v>3660</v>
       </c>
       <c r="F45" s="13">
-        <v>94</v>
+        <v>1803</v>
       </c>
       <c r="G45" s="13">
-        <v>3660</v>
+        <v>1176</v>
       </c>
       <c r="H45" s="13">
-        <v>1803</v>
+        <v>3030</v>
       </c>
       <c r="I45" s="13">
-        <v>1176</v>
+        <v>4506</v>
       </c>
       <c r="J45" s="13">
-        <v>3030</v>
+        <v>11077</v>
       </c>
       <c r="K45" s="13">
-        <v>4506</v>
+        <v>10617</v>
       </c>
       <c r="L45" s="13">
-        <v>11077</v>
+        <v>6292</v>
       </c>
       <c r="M45" s="13">
-        <v>10617</v>
+        <v>2575</v>
       </c>
       <c r="N45" s="13">
-        <v>6292</v>
+        <v>44</v>
       </c>
       <c r="O45" s="13">
-        <v>2575</v>
+        <v>0</v>
       </c>
       <c r="P45" s="13">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R45" s="13">
+        <v>0</v>
+      </c>
+      <c r="S45" s="13">
         <v>20</v>
       </c>
-      <c r="S45" s="13">
+      <c r="T45" s="13">
         <v>10</v>
       </c>
-      <c r="T45" s="13">
-        <v>0</v>
-      </c>
       <c r="U45" s="13">
+        <v>0</v>
+      </c>
+      <c r="V45" s="13">
+        <v>0</v>
+      </c>
+      <c r="W45" s="13">
+        <v>10</v>
+      </c>
+      <c r="X45" s="13">
         <v>20</v>
       </c>
-      <c r="V45" s="13">
-        <v>10</v>
-      </c>
-      <c r="W45" s="13">
-        <v>0</v>
-      </c>
-      <c r="X45" s="13">
-        <v>0</v>
-      </c>
       <c r="Y45" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB45" s="13">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AC45" s="13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AD45" s="13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="13">
         <v>0</v>
@@ -6314,11 +6314,11 @@
       <c r="AG45" s="13">
         <v>0</v>
       </c>
-      <c r="AH45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="13">
-        <v>0</v>
+      <c r="AH45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI45" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ45" s="13" t="s">
         <v>57</v>
@@ -6368,14 +6368,14 @@
       <c r="AY45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ45" s="13">
-        <v>1607</v>
-      </c>
-      <c r="BA45" s="13">
-        <v>11036</v>
-      </c>
-      <c r="BB45" s="13">
-        <v>13252</v>
+      <c r="AZ45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB45" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6387,58 +6387,58 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>3221</v>
+        <v>1742</v>
       </c>
       <c r="F46" s="11">
-        <v>3103</v>
+        <v>2059</v>
       </c>
       <c r="G46" s="11">
-        <v>1742</v>
+        <v>1573</v>
       </c>
       <c r="H46" s="11">
-        <v>2059</v>
+        <v>653</v>
       </c>
       <c r="I46" s="11">
-        <v>1573</v>
+        <v>1756</v>
       </c>
       <c r="J46" s="11">
-        <v>653</v>
+        <v>1308</v>
       </c>
       <c r="K46" s="11">
-        <v>1756</v>
+        <v>2210</v>
       </c>
       <c r="L46" s="11">
-        <v>1308</v>
+        <v>2951</v>
       </c>
       <c r="M46" s="11">
-        <v>2210</v>
+        <v>233</v>
       </c>
       <c r="N46" s="11">
-        <v>2951</v>
+        <v>682</v>
       </c>
       <c r="O46" s="11">
-        <v>233</v>
+        <v>488</v>
       </c>
       <c r="P46" s="11">
-        <v>682</v>
+        <v>1046</v>
       </c>
       <c r="Q46" s="11">
-        <v>488</v>
+        <v>41</v>
       </c>
       <c r="R46" s="11">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="S46" s="11">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="T46" s="11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U46" s="11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V46" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W46" s="11">
         <v>0</v>
@@ -6456,29 +6456,29 @@
         <v>0</v>
       </c>
       <c r="AB46" s="11">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AC46" s="11">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="AD46" s="11">
-        <v>123</v>
+        <v>727</v>
       </c>
       <c r="AE46" s="11">
-        <v>483</v>
+        <v>934</v>
       </c>
       <c r="AF46" s="11">
-        <v>727</v>
+        <v>1073</v>
       </c>
       <c r="AG46" s="11">
-        <v>934</v>
-      </c>
-      <c r="AH46" s="11">
-        <v>1073</v>
-      </c>
-      <c r="AI46" s="11">
         <v>1330</v>
       </c>
+      <c r="AH46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI46" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ46" s="11" t="s">
         <v>57</v>
       </c>
@@ -6509,29 +6509,29 @@
       <c r="AS46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU46" s="11" t="s">
-        <v>57</v>
+      <c r="AT46" s="11">
+        <v>579</v>
+      </c>
+      <c r="AU46" s="11">
+        <v>119</v>
       </c>
       <c r="AV46" s="11">
-        <v>579</v>
+        <v>823</v>
       </c>
       <c r="AW46" s="11">
-        <v>119</v>
+        <v>1229</v>
       </c>
       <c r="AX46" s="11">
-        <v>823</v>
+        <v>616</v>
       </c>
       <c r="AY46" s="11">
-        <v>1229</v>
+        <v>306</v>
       </c>
       <c r="AZ46" s="11">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="11">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="BB46" s="11">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G47" s="13">
         <v>0</v>
@@ -6576,67 +6576,67 @@
         <v>0</v>
       </c>
       <c r="O47" s="13">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="P47" s="13">
-        <v>0</v>
+        <v>1691</v>
       </c>
       <c r="Q47" s="13">
-        <v>424</v>
+        <v>1967</v>
       </c>
       <c r="R47" s="13">
-        <v>1691</v>
+        <v>2834</v>
       </c>
       <c r="S47" s="13">
-        <v>1967</v>
+        <v>1345</v>
       </c>
       <c r="T47" s="13">
-        <v>2834</v>
+        <v>2304</v>
       </c>
       <c r="U47" s="13">
-        <v>1345</v>
-      </c>
-      <c r="V47" s="13">
-        <v>2304</v>
-      </c>
-      <c r="W47" s="13">
         <v>1028</v>
       </c>
+      <c r="V47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z47" s="13" t="s">
-        <v>57</v>
+      <c r="Y47" s="13">
+        <v>2805</v>
+      </c>
+      <c r="Z47" s="13">
+        <v>1772</v>
       </c>
       <c r="AA47" s="13">
-        <v>2805</v>
+        <v>479</v>
       </c>
       <c r="AB47" s="13">
-        <v>1772</v>
+        <v>76</v>
       </c>
       <c r="AC47" s="13">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="AD47" s="13">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="13">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AF47" s="13">
-        <v>0</v>
+        <v>2122</v>
       </c>
       <c r="AG47" s="13">
-        <v>176</v>
-      </c>
-      <c r="AH47" s="13">
-        <v>2122</v>
-      </c>
-      <c r="AI47" s="13">
         <v>1548</v>
+      </c>
+      <c r="AH47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI47" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ47" s="13" t="s">
         <v>57</v>
@@ -6755,11 +6755,11 @@
       <c r="U48" s="11">
         <v>0</v>
       </c>
-      <c r="V48" s="11">
-        <v>0</v>
-      </c>
-      <c r="W48" s="11">
-        <v>0</v>
+      <c r="V48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W48" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X48" s="11" t="s">
         <v>57</v>
@@ -6864,97 +6864,97 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>2193</v>
+        <v>7409</v>
       </c>
       <c r="F49" s="13">
-        <v>3810</v>
+        <v>11280</v>
       </c>
       <c r="G49" s="13">
-        <v>7409</v>
+        <v>7725</v>
       </c>
       <c r="H49" s="13">
-        <v>11280</v>
+        <v>7398</v>
       </c>
       <c r="I49" s="13">
-        <v>7725</v>
+        <v>9246</v>
       </c>
       <c r="J49" s="13">
-        <v>7398</v>
+        <v>6541</v>
       </c>
       <c r="K49" s="13">
-        <v>9246</v>
+        <v>10325</v>
       </c>
       <c r="L49" s="13">
-        <v>6541</v>
+        <v>10563</v>
       </c>
       <c r="M49" s="13">
-        <v>10325</v>
+        <v>5926</v>
       </c>
       <c r="N49" s="13">
-        <v>10563</v>
+        <v>4821</v>
       </c>
       <c r="O49" s="13">
-        <v>5926</v>
+        <v>5258</v>
       </c>
       <c r="P49" s="13">
-        <v>4821</v>
+        <v>5109</v>
       </c>
       <c r="Q49" s="13">
-        <v>5258</v>
+        <v>4170</v>
       </c>
       <c r="R49" s="13">
-        <v>5109</v>
+        <v>3313</v>
       </c>
       <c r="S49" s="13">
-        <v>4170</v>
+        <v>1696</v>
       </c>
       <c r="T49" s="13">
-        <v>3313</v>
+        <v>1018</v>
       </c>
       <c r="U49" s="13">
-        <v>1696</v>
+        <v>4833</v>
       </c>
       <c r="V49" s="13">
-        <v>1018</v>
+        <v>14245</v>
       </c>
       <c r="W49" s="13">
-        <v>4833</v>
+        <v>17192</v>
       </c>
       <c r="X49" s="13">
-        <v>14245</v>
+        <v>12134</v>
       </c>
       <c r="Y49" s="13">
-        <v>17192</v>
+        <v>18658</v>
       </c>
       <c r="Z49" s="13">
-        <v>12134</v>
+        <v>16528</v>
       </c>
       <c r="AA49" s="13">
-        <v>18658</v>
+        <v>18890</v>
       </c>
       <c r="AB49" s="13">
-        <v>16528</v>
+        <v>17373</v>
       </c>
       <c r="AC49" s="13">
-        <v>18890</v>
+        <v>6568</v>
       </c>
       <c r="AD49" s="13">
-        <v>17373</v>
+        <v>4223</v>
       </c>
       <c r="AE49" s="13">
-        <v>6568</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="13">
-        <v>4223</v>
+        <v>1298</v>
       </c>
       <c r="AG49" s="13">
         <v>0</v>
       </c>
-      <c r="AH49" s="13">
-        <v>1298</v>
-      </c>
-      <c r="AI49" s="13">
-        <v>0</v>
+      <c r="AH49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ49" s="13" t="s">
         <v>57</v>
@@ -6986,32 +6986,32 @@
       <c r="AS49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT49" s="13" t="s">
-        <v>57</v>
+      <c r="AT49" s="13">
+        <v>472</v>
       </c>
       <c r="AU49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV49" s="13">
-        <v>472</v>
-      </c>
-      <c r="AW49" s="13">
-        <v>11025</v>
-      </c>
-      <c r="AX49" s="13">
-        <v>16247</v>
-      </c>
-      <c r="AY49" s="13">
-        <v>18357</v>
-      </c>
-      <c r="AZ49" s="13">
-        <v>17407</v>
-      </c>
-      <c r="BA49" s="13">
-        <v>33793</v>
-      </c>
-      <c r="BB49" s="13">
-        <v>32024</v>
+      <c r="AV49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB49" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7023,97 +7023,97 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>2876</v>
+        <v>8232</v>
       </c>
       <c r="F50" s="11">
-        <v>2512</v>
+        <v>1497</v>
       </c>
       <c r="G50" s="11">
-        <v>8232</v>
+        <v>1852</v>
       </c>
       <c r="H50" s="11">
-        <v>1497</v>
+        <v>979</v>
       </c>
       <c r="I50" s="11">
-        <v>1852</v>
+        <v>620</v>
       </c>
       <c r="J50" s="11">
-        <v>979</v>
+        <v>355</v>
       </c>
       <c r="K50" s="11">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="L50" s="11">
-        <v>355</v>
+        <v>679</v>
       </c>
       <c r="M50" s="11">
-        <v>633</v>
+        <v>242</v>
       </c>
       <c r="N50" s="11">
-        <v>679</v>
+        <v>497</v>
       </c>
       <c r="O50" s="11">
-        <v>242</v>
+        <v>149</v>
       </c>
       <c r="P50" s="11">
-        <v>497</v>
+        <v>227</v>
       </c>
       <c r="Q50" s="11">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="R50" s="11">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="S50" s="11">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="T50" s="11">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U50" s="11">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="V50" s="11">
-        <v>10</v>
+        <v>829</v>
       </c>
       <c r="W50" s="11">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c r="X50" s="11">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="11">
         <v>0</v>
       </c>
       <c r="AA50" s="11">
-        <v>0</v>
+        <v>4741</v>
       </c>
       <c r="AB50" s="11">
         <v>0</v>
       </c>
       <c r="AC50" s="11">
-        <v>4741</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="11">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AE50" s="11">
         <v>0</v>
       </c>
       <c r="AF50" s="11">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="11">
         <v>0</v>
       </c>
-      <c r="AH50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="11">
-        <v>0</v>
+      <c r="AH50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ50" s="11" t="s">
         <v>57</v>
@@ -7145,11 +7145,11 @@
       <c r="AS50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU50" s="11" t="s">
-        <v>57</v>
+      <c r="AT50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="11">
+        <v>0</v>
       </c>
       <c r="AV50" s="11">
         <v>0</v>
@@ -7182,10 +7182,10 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="F51" s="13">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="G51" s="13">
         <v>0</v>
@@ -7212,31 +7212,31 @@
         <v>0</v>
       </c>
       <c r="O51" s="13">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P51" s="13">
         <v>0</v>
       </c>
       <c r="Q51" s="13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R51" s="13">
         <v>0</v>
       </c>
       <c r="S51" s="13">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T51" s="13">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="U51" s="13">
-        <v>139</v>
-      </c>
-      <c r="V51" s="13">
-        <v>69</v>
-      </c>
-      <c r="W51" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X51" s="13" t="s">
         <v>57</v>
@@ -7244,35 +7244,35 @@
       <c r="Y51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z51" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA51" s="13" t="s">
-        <v>57</v>
+      <c r="Z51" s="13">
+        <v>910</v>
+      </c>
+      <c r="AA51" s="13">
+        <v>2238</v>
       </c>
       <c r="AB51" s="13">
-        <v>910</v>
+        <v>1240</v>
       </c>
       <c r="AC51" s="13">
-        <v>2238</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="13">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="13">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AF51" s="13">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AG51" s="13">
-        <v>349</v>
-      </c>
-      <c r="AH51" s="13">
-        <v>103</v>
-      </c>
-      <c r="AI51" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ51" s="13" t="s">
         <v>57</v>
@@ -7341,98 +7341,98 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>19868</v>
+        <v>12463</v>
       </c>
       <c r="F52" s="11">
-        <v>28031</v>
+        <v>9204</v>
       </c>
       <c r="G52" s="11">
-        <v>12463</v>
+        <v>7601</v>
       </c>
       <c r="H52" s="11">
-        <v>9204</v>
+        <v>5348</v>
       </c>
       <c r="I52" s="11">
-        <v>7601</v>
+        <v>9414</v>
       </c>
       <c r="J52" s="11">
-        <v>5348</v>
+        <v>5885</v>
       </c>
       <c r="K52" s="11">
-        <v>9414</v>
+        <v>11379</v>
       </c>
       <c r="L52" s="11">
-        <v>5885</v>
+        <v>10590</v>
       </c>
       <c r="M52" s="11">
-        <v>11379</v>
+        <v>7421</v>
       </c>
       <c r="N52" s="11">
-        <v>10590</v>
+        <v>8033</v>
       </c>
       <c r="O52" s="11">
-        <v>7421</v>
+        <v>7633</v>
       </c>
       <c r="P52" s="11">
-        <v>8033</v>
+        <v>6458</v>
       </c>
       <c r="Q52" s="11">
-        <v>7633</v>
+        <v>6879</v>
       </c>
       <c r="R52" s="11">
-        <v>6458</v>
+        <v>3236</v>
       </c>
       <c r="S52" s="11">
-        <v>6879</v>
+        <v>2383</v>
       </c>
       <c r="T52" s="11">
-        <v>3236</v>
+        <v>2559</v>
       </c>
       <c r="U52" s="11">
-        <v>2383</v>
+        <v>10659</v>
       </c>
       <c r="V52" s="11">
-        <v>2559</v>
+        <v>14248</v>
       </c>
       <c r="W52" s="11">
-        <v>10659</v>
+        <v>15637</v>
       </c>
       <c r="X52" s="11">
-        <v>14248</v>
+        <v>4639</v>
       </c>
       <c r="Y52" s="11">
-        <v>15637</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="11">
-        <v>4639</v>
+        <v>7401</v>
       </c>
       <c r="AA52" s="11">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="AB52" s="11">
-        <v>7401</v>
+        <v>14817</v>
       </c>
       <c r="AC52" s="11">
-        <v>10002</v>
+        <v>13300</v>
       </c>
       <c r="AD52" s="11">
-        <v>14817</v>
+        <v>11525</v>
       </c>
       <c r="AE52" s="11">
-        <v>13300</v>
+        <v>11620</v>
       </c>
       <c r="AF52" s="11">
-        <v>11525</v>
+        <v>7712</v>
       </c>
       <c r="AG52" s="11">
-        <v>11620</v>
-      </c>
-      <c r="AH52" s="11">
-        <v>7712</v>
-      </c>
-      <c r="AI52" s="11">
         <v>30065</v>
       </c>
+      <c r="AH52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI52" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ52" s="11" t="s">
         <v>57</v>
       </c>
@@ -7463,32 +7463,32 @@
       <c r="AS52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU52" s="11" t="s">
-        <v>57</v>
+      <c r="AT52" s="11">
+        <v>14005</v>
+      </c>
+      <c r="AU52" s="11">
+        <v>17689</v>
       </c>
       <c r="AV52" s="11">
-        <v>14005</v>
+        <v>17671</v>
       </c>
       <c r="AW52" s="11">
-        <v>17689</v>
+        <v>14449</v>
       </c>
       <c r="AX52" s="11">
-        <v>17671</v>
+        <v>14540</v>
       </c>
       <c r="AY52" s="11">
-        <v>14449</v>
+        <v>19316</v>
       </c>
       <c r="AZ52" s="11">
-        <v>14539</v>
+        <v>23960</v>
       </c>
       <c r="BA52" s="11">
-        <v>19316</v>
+        <v>25454</v>
       </c>
       <c r="BB52" s="11">
-        <v>23960</v>
+        <v>14823</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7500,67 +7500,67 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>354</v>
+        <v>220</v>
       </c>
       <c r="F53" s="13">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="G53" s="13">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="H53" s="13">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="I53" s="13">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="J53" s="13">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K53" s="13">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="L53" s="13">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="M53" s="13">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="N53" s="13">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="O53" s="13">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P53" s="13">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="Q53" s="13">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="R53" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S53" s="13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T53" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U53" s="13">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="V53" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W53" s="13">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="X53" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="13">
         <v>0</v>
@@ -7586,11 +7586,11 @@
       <c r="AG53" s="13">
         <v>0</v>
       </c>
-      <c r="AH53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="13">
-        <v>0</v>
+      <c r="AH53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ53" s="13" t="s">
         <v>57</v>
@@ -7622,14 +7622,14 @@
       <c r="AS53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU53" s="13" t="s">
-        <v>57</v>
+      <c r="AT53" s="13">
+        <v>23</v>
+      </c>
+      <c r="AU53" s="13">
+        <v>0</v>
       </c>
       <c r="AV53" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="13">
         <v>0</v>
@@ -7709,21 +7709,21 @@
       <c r="U54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W54" s="11" t="s">
-        <v>57</v>
+      <c r="V54" s="11">
+        <v>379</v>
+      </c>
+      <c r="W54" s="11">
+        <v>1023</v>
       </c>
       <c r="X54" s="11">
-        <v>379</v>
-      </c>
-      <c r="Y54" s="11">
-        <v>1023</v>
-      </c>
-      <c r="Z54" s="11">
         <v>3135</v>
       </c>
+      <c r="Y54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z54" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA54" s="11" t="s">
         <v>57</v>
       </c>
@@ -7784,29 +7784,29 @@
       <c r="AT54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV54" s="11" t="s">
-        <v>57</v>
+      <c r="AU54" s="11">
+        <v>11124</v>
+      </c>
+      <c r="AV54" s="11">
+        <v>16471</v>
       </c>
       <c r="AW54" s="11">
-        <v>99</v>
+        <v>18554</v>
       </c>
       <c r="AX54" s="11">
-        <v>224</v>
+        <v>63509</v>
       </c>
       <c r="AY54" s="11">
-        <v>197</v>
+        <v>33793</v>
       </c>
       <c r="AZ54" s="11">
-        <v>0</v>
+        <v>32371</v>
       </c>
       <c r="BA54" s="11">
-        <v>0</v>
+        <v>43346</v>
       </c>
       <c r="BB54" s="11">
-        <v>347</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7940,32 +7940,32 @@
       <c r="AS55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU55" s="13" t="s">
-        <v>57</v>
+      <c r="AT55" s="13">
+        <v>5647</v>
+      </c>
+      <c r="AU55" s="13">
+        <v>11031</v>
       </c>
       <c r="AV55" s="13">
-        <v>5647</v>
+        <v>14635</v>
       </c>
       <c r="AW55" s="13">
-        <v>11031</v>
+        <v>11323</v>
       </c>
       <c r="AX55" s="13">
-        <v>14635</v>
+        <v>7485</v>
       </c>
       <c r="AY55" s="13">
-        <v>11323</v>
+        <v>5478</v>
       </c>
       <c r="AZ55" s="13">
-        <v>7483</v>
+        <v>2532</v>
       </c>
       <c r="BA55" s="13">
-        <v>5478</v>
+        <v>1587</v>
       </c>
       <c r="BB55" s="13">
-        <v>2532</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -8091,11 +8091,11 @@
       <c r="X57" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y57" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z57" s="17" t="s">
-        <v>57</v>
+      <c r="Y57" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="17">
+        <v>0</v>
       </c>
       <c r="AA57" s="17">
         <v>0</v>
@@ -8305,11 +8305,11 @@
       <c r="X59" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y59" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z59" s="17" t="s">
-        <v>57</v>
+      <c r="Y59" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="17">
+        <v>0</v>
       </c>
       <c r="AA59" s="17">
         <v>0</v>
@@ -8403,154 +8403,154 @@
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19">
-        <v>130015</v>
+        <v>136865</v>
       </c>
       <c r="F60" s="19">
-        <v>153793</v>
+        <v>93924</v>
       </c>
       <c r="G60" s="19">
-        <v>136865</v>
+        <v>74418</v>
       </c>
       <c r="H60" s="19">
-        <v>93924</v>
+        <v>66879</v>
       </c>
       <c r="I60" s="19">
-        <v>74418</v>
+        <v>124070</v>
       </c>
       <c r="J60" s="19">
-        <v>66879</v>
+        <v>99206</v>
       </c>
       <c r="K60" s="19">
-        <v>124070</v>
+        <v>168540</v>
       </c>
       <c r="L60" s="19">
-        <v>99206</v>
+        <v>165480</v>
       </c>
       <c r="M60" s="19">
-        <v>168540</v>
+        <v>144516</v>
       </c>
       <c r="N60" s="19">
-        <v>165480</v>
+        <v>129689</v>
       </c>
       <c r="O60" s="19">
-        <v>144516</v>
+        <v>148946</v>
       </c>
       <c r="P60" s="19">
-        <v>129689</v>
+        <v>167772</v>
       </c>
       <c r="Q60" s="19">
-        <v>148946</v>
+        <v>154854</v>
       </c>
       <c r="R60" s="19">
-        <v>167772</v>
+        <v>97302</v>
       </c>
       <c r="S60" s="19">
-        <v>154854</v>
+        <v>66965</v>
       </c>
       <c r="T60" s="19">
-        <v>97302</v>
+        <v>55921</v>
       </c>
       <c r="U60" s="19">
-        <v>66965</v>
+        <v>143485</v>
       </c>
       <c r="V60" s="19">
-        <v>55921</v>
+        <v>150720</v>
       </c>
       <c r="W60" s="19">
-        <v>143485</v>
+        <v>194925</v>
       </c>
       <c r="X60" s="19">
-        <v>150720</v>
+        <v>184914</v>
       </c>
       <c r="Y60" s="19">
-        <v>194925</v>
+        <v>211649</v>
       </c>
       <c r="Z60" s="19">
-        <v>184914</v>
+        <v>177209</v>
       </c>
       <c r="AA60" s="19">
-        <v>211649</v>
+        <v>183472</v>
       </c>
       <c r="AB60" s="19">
-        <v>177209</v>
+        <v>168555</v>
       </c>
       <c r="AC60" s="19">
-        <v>183472</v>
+        <v>117053</v>
       </c>
       <c r="AD60" s="19">
-        <v>168555</v>
+        <v>136847</v>
       </c>
       <c r="AE60" s="19">
-        <v>117053</v>
+        <v>84810</v>
       </c>
       <c r="AF60" s="19">
-        <v>136847</v>
+        <v>105047</v>
       </c>
       <c r="AG60" s="19">
-        <v>84810</v>
+        <v>167841</v>
       </c>
       <c r="AH60" s="19">
-        <v>105047</v>
+        <v>142691</v>
       </c>
       <c r="AI60" s="19">
-        <v>167841</v>
+        <v>159869</v>
       </c>
       <c r="AJ60" s="19">
-        <v>142691</v>
+        <v>172744</v>
       </c>
       <c r="AK60" s="19">
-        <v>159869</v>
+        <v>131116</v>
       </c>
       <c r="AL60" s="19">
-        <v>172744</v>
+        <v>112650</v>
       </c>
       <c r="AM60" s="19">
-        <v>131116</v>
+        <v>182807</v>
       </c>
       <c r="AN60" s="19">
-        <v>112650</v>
+        <v>185165</v>
       </c>
       <c r="AO60" s="19">
-        <v>182807</v>
+        <v>172278</v>
       </c>
       <c r="AP60" s="19">
-        <v>185165</v>
+        <v>161849</v>
       </c>
       <c r="AQ60" s="19">
-        <v>172278</v>
+        <v>72890</v>
       </c>
       <c r="AR60" s="19">
-        <v>161849</v>
+        <v>95205</v>
       </c>
       <c r="AS60" s="19">
-        <v>72890</v>
+        <v>163311</v>
       </c>
       <c r="AT60" s="19">
-        <v>95205</v>
+        <v>131433</v>
       </c>
       <c r="AU60" s="19">
-        <v>163311</v>
+        <v>171360</v>
       </c>
       <c r="AV60" s="19">
-        <v>131433</v>
+        <v>183762</v>
       </c>
       <c r="AW60" s="19">
-        <v>171360</v>
+        <v>148438</v>
       </c>
       <c r="AX60" s="19">
-        <v>183762</v>
+        <v>180091</v>
       </c>
       <c r="AY60" s="19">
-        <v>148438</v>
+        <v>180614</v>
       </c>
       <c r="AZ60" s="19">
-        <v>133988</v>
+        <v>177735</v>
       </c>
       <c r="BA60" s="19">
-        <v>180614</v>
+        <v>185986</v>
       </c>
       <c r="BB60" s="19">
-        <v>177735</v>
+        <v>150877</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -9001,65 +9001,65 @@
       <c r="F67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>57</v>
+      <c r="G67" s="11">
+        <v>2517</v>
+      </c>
+      <c r="H67" s="11">
+        <v>555</v>
       </c>
       <c r="I67" s="11">
-        <v>2517</v>
+        <v>6394</v>
       </c>
       <c r="J67" s="11">
-        <v>555</v>
+        <v>10300</v>
       </c>
       <c r="K67" s="11">
-        <v>6394</v>
+        <v>11806</v>
       </c>
       <c r="L67" s="11">
-        <v>10300</v>
+        <v>10853</v>
       </c>
       <c r="M67" s="11">
-        <v>11806</v>
+        <v>3445</v>
       </c>
       <c r="N67" s="11">
-        <v>10853</v>
+        <v>1514</v>
       </c>
       <c r="O67" s="11">
-        <v>3445</v>
+        <v>1937</v>
       </c>
       <c r="P67" s="11">
-        <v>1514</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="11">
-        <v>1937</v>
+        <v>0</v>
       </c>
       <c r="R67" s="11">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="S67" s="11">
-        <v>0</v>
+        <v>3181</v>
       </c>
       <c r="T67" s="11">
-        <v>112</v>
+        <v>2127</v>
       </c>
       <c r="U67" s="11">
-        <v>3181</v>
+        <v>0</v>
       </c>
       <c r="V67" s="11">
-        <v>2127</v>
+        <v>3226</v>
       </c>
       <c r="W67" s="11">
-        <v>0</v>
+        <v>12410</v>
       </c>
       <c r="X67" s="11">
-        <v>3226</v>
+        <v>10566</v>
       </c>
       <c r="Y67" s="11">
-        <v>12410</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="11">
-        <v>10566</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="11">
         <v>0</v>
@@ -9083,16 +9083,16 @@
         <v>0</v>
       </c>
       <c r="AH67" s="11">
-        <v>0</v>
+        <v>16897</v>
       </c>
       <c r="AI67" s="11">
-        <v>0</v>
+        <v>4226</v>
       </c>
       <c r="AJ67" s="11">
-        <v>16897</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="11">
-        <v>4226</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="11">
         <v>0</v>
@@ -9107,16 +9107,16 @@
         <v>0</v>
       </c>
       <c r="AP67" s="11">
-        <v>0</v>
+        <v>6071</v>
       </c>
       <c r="AQ67" s="11">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AR67" s="11">
-        <v>6071</v>
+        <v>0</v>
       </c>
       <c r="AS67" s="11">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="11">
         <v>0</v>
@@ -9137,13 +9137,13 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="11">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="BA67" s="11">
         <v>0</v>
       </c>
       <c r="BB67" s="11">
-        <v>1620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9241,53 +9241,53 @@
       <c r="AG68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI68" s="13" t="s">
-        <v>57</v>
+      <c r="AH68" s="13">
+        <v>402139</v>
+      </c>
+      <c r="AI68" s="13">
+        <v>593166</v>
       </c>
       <c r="AJ68" s="13">
-        <v>402139</v>
+        <v>656975</v>
       </c>
       <c r="AK68" s="13">
-        <v>593166</v>
+        <v>663330</v>
       </c>
       <c r="AL68" s="13">
-        <v>656975</v>
+        <v>678947</v>
       </c>
       <c r="AM68" s="13">
-        <v>663330</v>
+        <v>1132444</v>
       </c>
       <c r="AN68" s="13">
-        <v>678947</v>
+        <v>854807</v>
       </c>
       <c r="AO68" s="13">
-        <v>1132444</v>
+        <v>791515</v>
       </c>
       <c r="AP68" s="13">
-        <v>854807</v>
+        <v>699052</v>
       </c>
       <c r="AQ68" s="13">
-        <v>791515</v>
+        <v>329720</v>
       </c>
       <c r="AR68" s="13">
-        <v>699052</v>
+        <v>467821</v>
       </c>
       <c r="AS68" s="13">
-        <v>329720</v>
-      </c>
-      <c r="AT68" s="13">
-        <v>467821</v>
+        <v>859346</v>
+      </c>
+      <c r="AT68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU68" s="13">
-        <v>859346</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW68" s="13">
-        <v>0</v>
+      <c r="AW68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX68" s="13" t="s">
         <v>57</v>
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>0</v>
+        <v>2687</v>
       </c>
       <c r="F69" s="11">
-        <v>3592</v>
+        <v>3473</v>
       </c>
       <c r="G69" s="11">
-        <v>2687</v>
+        <v>0</v>
       </c>
       <c r="H69" s="11">
-        <v>3473</v>
+        <v>0</v>
       </c>
       <c r="I69" s="11">
         <v>0</v>
@@ -9338,73 +9338,73 @@
         <v>0</v>
       </c>
       <c r="M69" s="11">
-        <v>0</v>
+        <v>9738</v>
       </c>
       <c r="N69" s="11">
-        <v>0</v>
+        <v>8966</v>
       </c>
       <c r="O69" s="11">
-        <v>9738</v>
+        <v>15781</v>
       </c>
       <c r="P69" s="11">
-        <v>8966</v>
+        <v>7354</v>
       </c>
       <c r="Q69" s="11">
-        <v>15781</v>
+        <v>13686</v>
       </c>
       <c r="R69" s="11">
-        <v>7354</v>
+        <v>10895</v>
       </c>
       <c r="S69" s="11">
-        <v>13686</v>
+        <v>7234</v>
       </c>
       <c r="T69" s="11">
-        <v>10895</v>
+        <v>11613</v>
       </c>
       <c r="U69" s="11">
-        <v>7234</v>
-      </c>
-      <c r="V69" s="11">
-        <v>11613</v>
-      </c>
-      <c r="W69" s="11">
         <v>1929</v>
       </c>
+      <c r="V69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W69" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z69" s="11" t="s">
-        <v>57</v>
+      <c r="Y69" s="11">
+        <v>11365</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>12937</v>
       </c>
       <c r="AA69" s="11">
-        <v>11365</v>
+        <v>16696</v>
       </c>
       <c r="AB69" s="11">
-        <v>12937</v>
+        <v>9837</v>
       </c>
       <c r="AC69" s="11">
-        <v>16696</v>
+        <v>5173</v>
       </c>
       <c r="AD69" s="11">
-        <v>9837</v>
+        <v>6837</v>
       </c>
       <c r="AE69" s="11">
-        <v>5173</v>
+        <v>7164</v>
       </c>
       <c r="AF69" s="11">
-        <v>6837</v>
+        <v>7520</v>
       </c>
       <c r="AG69" s="11">
-        <v>7164</v>
-      </c>
-      <c r="AH69" s="11">
-        <v>7520</v>
-      </c>
-      <c r="AI69" s="11">
         <v>14182</v>
+      </c>
+      <c r="AH69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ69" s="11" t="s">
         <v>57</v>
@@ -9473,98 +9473,98 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>66339</v>
+        <v>80021</v>
       </c>
       <c r="F70" s="13">
-        <v>81703</v>
+        <v>43918</v>
       </c>
       <c r="G70" s="13">
-        <v>80021</v>
+        <v>33869</v>
       </c>
       <c r="H70" s="13">
-        <v>43918</v>
+        <v>34014</v>
       </c>
       <c r="I70" s="13">
-        <v>33869</v>
+        <v>71970</v>
       </c>
       <c r="J70" s="13">
-        <v>34014</v>
+        <v>63270</v>
       </c>
       <c r="K70" s="13">
-        <v>71970</v>
+        <v>115757</v>
       </c>
       <c r="L70" s="13">
-        <v>63270</v>
+        <v>113932</v>
       </c>
       <c r="M70" s="13">
-        <v>115757</v>
+        <v>133508</v>
       </c>
       <c r="N70" s="13">
-        <v>113932</v>
+        <v>127899</v>
       </c>
       <c r="O70" s="13">
-        <v>133508</v>
+        <v>149956</v>
       </c>
       <c r="P70" s="13">
-        <v>127899</v>
+        <v>183368</v>
       </c>
       <c r="Q70" s="13">
-        <v>149956</v>
+        <v>160048</v>
       </c>
       <c r="R70" s="13">
-        <v>183368</v>
+        <v>85814</v>
       </c>
       <c r="S70" s="13">
-        <v>160048</v>
+        <v>56833</v>
       </c>
       <c r="T70" s="13">
-        <v>85814</v>
+        <v>43015</v>
       </c>
       <c r="U70" s="13">
-        <v>56833</v>
+        <v>165855</v>
       </c>
       <c r="V70" s="13">
-        <v>43015</v>
+        <v>172905</v>
       </c>
       <c r="W70" s="13">
-        <v>165855</v>
+        <v>204431</v>
       </c>
       <c r="X70" s="13">
-        <v>172905</v>
+        <v>197272</v>
       </c>
       <c r="Y70" s="13">
-        <v>204431</v>
+        <v>240050</v>
       </c>
       <c r="Z70" s="13">
-        <v>197272</v>
+        <v>175882</v>
       </c>
       <c r="AA70" s="13">
-        <v>240050</v>
+        <v>183844</v>
       </c>
       <c r="AB70" s="13">
-        <v>175882</v>
+        <v>178487</v>
       </c>
       <c r="AC70" s="13">
-        <v>183844</v>
+        <v>167448</v>
       </c>
       <c r="AD70" s="13">
-        <v>178487</v>
+        <v>190559</v>
       </c>
       <c r="AE70" s="13">
-        <v>167448</v>
+        <v>109119</v>
       </c>
       <c r="AF70" s="13">
-        <v>190559</v>
+        <v>130400</v>
       </c>
       <c r="AG70" s="13">
-        <v>109119</v>
-      </c>
-      <c r="AH70" s="13">
-        <v>130400</v>
-      </c>
-      <c r="AI70" s="13">
         <v>174094</v>
       </c>
+      <c r="AH70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI70" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ70" s="13" t="s">
         <v>57</v>
       </c>
@@ -9595,32 +9595,32 @@
       <c r="AS70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU70" s="13" t="s">
-        <v>57</v>
+      <c r="AT70" s="13">
+        <v>412214</v>
+      </c>
+      <c r="AU70" s="13">
+        <v>465818</v>
       </c>
       <c r="AV70" s="13">
-        <v>412214</v>
+        <v>555529</v>
       </c>
       <c r="AW70" s="13">
-        <v>465818</v>
+        <v>438161</v>
       </c>
       <c r="AX70" s="13">
-        <v>555529</v>
+        <v>408675</v>
       </c>
       <c r="AY70" s="13">
-        <v>438161</v>
+        <v>509975</v>
       </c>
       <c r="AZ70" s="13">
-        <v>408674</v>
+        <v>469885</v>
       </c>
       <c r="BA70" s="13">
-        <v>509975</v>
+        <v>443554</v>
       </c>
       <c r="BB70" s="13">
-        <v>469885</v>
+        <v>262130</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9682,21 +9682,21 @@
       <c r="U71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W71" s="11" t="s">
-        <v>57</v>
+      <c r="V71" s="11">
+        <v>517</v>
+      </c>
+      <c r="W71" s="11">
+        <v>6287</v>
       </c>
       <c r="X71" s="11">
-        <v>517</v>
-      </c>
-      <c r="Y71" s="11">
-        <v>6287</v>
-      </c>
-      <c r="Z71" s="11">
         <v>15133</v>
       </c>
+      <c r="Y71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z71" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA71" s="11" t="s">
         <v>57</v>
       </c>
@@ -9754,32 +9754,32 @@
       <c r="AS71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU71" s="11" t="s">
-        <v>57</v>
+      <c r="AT71" s="11">
+        <v>6879</v>
+      </c>
+      <c r="AU71" s="11">
+        <v>11616</v>
       </c>
       <c r="AV71" s="11">
-        <v>6879</v>
+        <v>9606</v>
       </c>
       <c r="AW71" s="11">
-        <v>11616</v>
+        <v>12682</v>
       </c>
       <c r="AX71" s="11">
-        <v>9606</v>
+        <v>23347</v>
       </c>
       <c r="AY71" s="11">
-        <v>12682</v>
+        <v>90068</v>
       </c>
       <c r="AZ71" s="11">
-        <v>12228</v>
+        <v>111790</v>
       </c>
       <c r="BA71" s="11">
-        <v>18284</v>
+        <v>158801</v>
       </c>
       <c r="BB71" s="11">
-        <v>26018</v>
+        <v>144716</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9791,98 +9791,98 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>42340</v>
+        <v>54852</v>
       </c>
       <c r="F72" s="13">
-        <v>58403</v>
+        <v>44521</v>
       </c>
       <c r="G72" s="13">
-        <v>54852</v>
+        <v>34184</v>
       </c>
       <c r="H72" s="13">
-        <v>44521</v>
+        <v>31258</v>
       </c>
       <c r="I72" s="13">
-        <v>34184</v>
+        <v>53425</v>
       </c>
       <c r="J72" s="13">
-        <v>31258</v>
+        <v>30291</v>
       </c>
       <c r="K72" s="13">
-        <v>53425</v>
+        <v>63136</v>
       </c>
       <c r="L72" s="13">
-        <v>30291</v>
+        <v>68199</v>
       </c>
       <c r="M72" s="13">
-        <v>63136</v>
+        <v>83640</v>
       </c>
       <c r="N72" s="13">
-        <v>68199</v>
+        <v>71760</v>
       </c>
       <c r="O72" s="13">
-        <v>83640</v>
+        <v>78056</v>
       </c>
       <c r="P72" s="13">
-        <v>71760</v>
+        <v>92869</v>
       </c>
       <c r="Q72" s="13">
-        <v>78056</v>
+        <v>88461</v>
       </c>
       <c r="R72" s="13">
-        <v>92869</v>
+        <v>61364</v>
       </c>
       <c r="S72" s="13">
-        <v>88461</v>
+        <v>40642</v>
       </c>
       <c r="T72" s="13">
-        <v>61364</v>
+        <v>30290</v>
       </c>
       <c r="U72" s="13">
-        <v>40642</v>
+        <v>80513</v>
       </c>
       <c r="V72" s="13">
-        <v>30290</v>
+        <v>66449</v>
       </c>
       <c r="W72" s="13">
-        <v>80513</v>
+        <v>97107</v>
       </c>
       <c r="X72" s="13">
-        <v>66449</v>
+        <v>109265</v>
       </c>
       <c r="Y72" s="13">
-        <v>97107</v>
+        <v>161027</v>
       </c>
       <c r="Z72" s="13">
-        <v>109265</v>
+        <v>151856</v>
       </c>
       <c r="AA72" s="13">
-        <v>161027</v>
+        <v>133004</v>
       </c>
       <c r="AB72" s="13">
-        <v>151856</v>
+        <v>137472</v>
       </c>
       <c r="AC72" s="13">
-        <v>133004</v>
+        <v>80737</v>
       </c>
       <c r="AD72" s="13">
-        <v>137472</v>
+        <v>122525</v>
       </c>
       <c r="AE72" s="13">
-        <v>80737</v>
+        <v>69816</v>
       </c>
       <c r="AF72" s="13">
-        <v>122525</v>
+        <v>92435</v>
       </c>
       <c r="AG72" s="13">
-        <v>69816</v>
-      </c>
-      <c r="AH72" s="13">
-        <v>92435</v>
-      </c>
-      <c r="AI72" s="13">
         <v>162174</v>
       </c>
+      <c r="AH72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI72" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ72" s="13" t="s">
         <v>57</v>
       </c>
@@ -9913,32 +9913,32 @@
       <c r="AS72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT72" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU72" s="13" t="s">
-        <v>57</v>
+      <c r="AT72" s="13">
+        <v>255681</v>
+      </c>
+      <c r="AU72" s="13">
+        <v>333582</v>
       </c>
       <c r="AV72" s="13">
-        <v>255681</v>
+        <v>376193</v>
       </c>
       <c r="AW72" s="13">
-        <v>333582</v>
+        <v>355744</v>
       </c>
       <c r="AX72" s="13">
-        <v>376193</v>
+        <v>281876</v>
       </c>
       <c r="AY72" s="13">
-        <v>355744</v>
+        <v>285493</v>
       </c>
       <c r="AZ72" s="13">
-        <v>281873</v>
+        <v>234304</v>
       </c>
       <c r="BA72" s="13">
-        <v>285493</v>
+        <v>211020</v>
       </c>
       <c r="BB72" s="13">
-        <v>234304</v>
+        <v>208868</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9950,13 +9950,13 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>17523</v>
+        <v>2414</v>
       </c>
       <c r="F73" s="11">
-        <v>8481</v>
+        <v>0</v>
       </c>
       <c r="G73" s="11">
-        <v>2414</v>
+        <v>0</v>
       </c>
       <c r="H73" s="11">
         <v>0</v>
@@ -9977,70 +9977,70 @@
         <v>0</v>
       </c>
       <c r="N73" s="11">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="O73" s="11">
-        <v>0</v>
+        <v>12350</v>
       </c>
       <c r="P73" s="11">
-        <v>460</v>
+        <v>13975</v>
       </c>
       <c r="Q73" s="11">
-        <v>12350</v>
+        <v>11396</v>
       </c>
       <c r="R73" s="11">
-        <v>13975</v>
+        <v>10216</v>
       </c>
       <c r="S73" s="11">
-        <v>11396</v>
+        <v>7157</v>
       </c>
       <c r="T73" s="11">
-        <v>10216</v>
+        <v>7442</v>
       </c>
       <c r="U73" s="11">
-        <v>7157</v>
-      </c>
-      <c r="V73" s="11">
-        <v>7442</v>
-      </c>
-      <c r="W73" s="11">
         <v>6445</v>
       </c>
+      <c r="V73" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W73" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z73" s="11" t="s">
-        <v>57</v>
+      <c r="Y73" s="11">
+        <v>28850</v>
+      </c>
+      <c r="Z73" s="11">
+        <v>25871</v>
       </c>
       <c r="AA73" s="11">
-        <v>28850</v>
+        <v>39219</v>
       </c>
       <c r="AB73" s="11">
-        <v>25871</v>
+        <v>15653</v>
       </c>
       <c r="AC73" s="11">
-        <v>39219</v>
+        <v>12823</v>
       </c>
       <c r="AD73" s="11">
-        <v>15653</v>
+        <v>0</v>
       </c>
       <c r="AE73" s="11">
-        <v>12823</v>
+        <v>10356</v>
       </c>
       <c r="AF73" s="11">
-        <v>0</v>
+        <v>27725</v>
       </c>
       <c r="AG73" s="11">
-        <v>10356</v>
-      </c>
-      <c r="AH73" s="11">
-        <v>27725</v>
-      </c>
-      <c r="AI73" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH73" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI73" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ73" s="11" t="s">
         <v>57</v>
@@ -10109,85 +10109,85 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>202</v>
+        <v>5658</v>
       </c>
       <c r="F74" s="13">
-        <v>116</v>
+        <v>2533</v>
       </c>
       <c r="G74" s="13">
-        <v>5658</v>
+        <v>1562</v>
       </c>
       <c r="H74" s="13">
-        <v>2533</v>
+        <v>3926</v>
       </c>
       <c r="I74" s="13">
-        <v>1562</v>
+        <v>5962</v>
       </c>
       <c r="J74" s="13">
-        <v>3926</v>
+        <v>16695</v>
       </c>
       <c r="K74" s="13">
-        <v>5962</v>
+        <v>16315</v>
       </c>
       <c r="L74" s="13">
-        <v>16695</v>
+        <v>9703</v>
       </c>
       <c r="M74" s="13">
-        <v>16315</v>
+        <v>3977</v>
       </c>
       <c r="N74" s="13">
-        <v>9703</v>
+        <v>95</v>
       </c>
       <c r="O74" s="13">
-        <v>3977</v>
+        <v>0</v>
       </c>
       <c r="P74" s="13">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="Q74" s="13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R74" s="13">
+        <v>0</v>
+      </c>
+      <c r="S74" s="13">
+        <v>42</v>
+      </c>
+      <c r="T74" s="13">
+        <v>21</v>
+      </c>
+      <c r="U74" s="13">
+        <v>0</v>
+      </c>
+      <c r="V74" s="13">
+        <v>0</v>
+      </c>
+      <c r="W74" s="13">
+        <v>21</v>
+      </c>
+      <c r="X74" s="13">
         <v>41</v>
       </c>
-      <c r="S74" s="13">
-        <v>21</v>
-      </c>
-      <c r="T74" s="13">
-        <v>0</v>
-      </c>
-      <c r="U74" s="13">
-        <v>42</v>
-      </c>
-      <c r="V74" s="13">
-        <v>21</v>
-      </c>
-      <c r="W74" s="13">
-        <v>0</v>
-      </c>
-      <c r="X74" s="13">
-        <v>0</v>
-      </c>
       <c r="Y74" s="13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z74" s="13">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AA74" s="13">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB74" s="13">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="AC74" s="13">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AD74" s="13">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="AE74" s="13">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF74" s="13">
         <v>0</v>
@@ -10195,11 +10195,11 @@
       <c r="AG74" s="13">
         <v>0</v>
       </c>
-      <c r="AH74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI74" s="13">
-        <v>0</v>
+      <c r="AH74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI74" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ74" s="13" t="s">
         <v>57</v>
@@ -10249,14 +10249,14 @@
       <c r="AY74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ74" s="13">
-        <v>11090</v>
-      </c>
-      <c r="BA74" s="13">
-        <v>71784</v>
-      </c>
-      <c r="BB74" s="13">
-        <v>85772</v>
+      <c r="AZ74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB74" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10268,58 +10268,58 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>3492</v>
+        <v>1789</v>
       </c>
       <c r="F75" s="11">
-        <v>3245</v>
+        <v>2159</v>
       </c>
       <c r="G75" s="11">
-        <v>1789</v>
+        <v>1650</v>
       </c>
       <c r="H75" s="11">
-        <v>2159</v>
+        <v>663</v>
       </c>
       <c r="I75" s="11">
-        <v>1650</v>
+        <v>1840</v>
       </c>
       <c r="J75" s="11">
-        <v>663</v>
+        <v>1408</v>
       </c>
       <c r="K75" s="11">
-        <v>1840</v>
+        <v>2396</v>
       </c>
       <c r="L75" s="11">
-        <v>1408</v>
+        <v>3208</v>
       </c>
       <c r="M75" s="11">
-        <v>2396</v>
+        <v>289</v>
       </c>
       <c r="N75" s="11">
-        <v>3208</v>
+        <v>1089</v>
       </c>
       <c r="O75" s="11">
-        <v>289</v>
+        <v>804</v>
       </c>
       <c r="P75" s="11">
-        <v>1089</v>
+        <v>1725</v>
       </c>
       <c r="Q75" s="11">
-        <v>804</v>
+        <v>72</v>
       </c>
       <c r="R75" s="11">
-        <v>1725</v>
+        <v>0</v>
       </c>
       <c r="S75" s="11">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="T75" s="11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U75" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="V75" s="11">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="W75" s="11">
         <v>0</v>
@@ -10337,29 +10337,29 @@
         <v>0</v>
       </c>
       <c r="AB75" s="11">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="AC75" s="11">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="AD75" s="11">
-        <v>264</v>
+        <v>1557</v>
       </c>
       <c r="AE75" s="11">
-        <v>1034</v>
+        <v>2002</v>
       </c>
       <c r="AF75" s="11">
-        <v>1557</v>
+        <v>2301</v>
       </c>
       <c r="AG75" s="11">
-        <v>2002</v>
-      </c>
-      <c r="AH75" s="11">
-        <v>2301</v>
-      </c>
-      <c r="AI75" s="11">
         <v>2851</v>
       </c>
+      <c r="AH75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI75" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ75" s="11" t="s">
         <v>57</v>
       </c>
@@ -10390,29 +10390,29 @@
       <c r="AS75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU75" s="11" t="s">
-        <v>57</v>
+      <c r="AT75" s="11">
+        <v>1997</v>
+      </c>
+      <c r="AU75" s="11">
+        <v>412</v>
       </c>
       <c r="AV75" s="11">
-        <v>1997</v>
+        <v>2838</v>
       </c>
       <c r="AW75" s="11">
-        <v>412</v>
+        <v>4241</v>
       </c>
       <c r="AX75" s="11">
-        <v>2838</v>
+        <v>2125</v>
       </c>
       <c r="AY75" s="11">
-        <v>4241</v>
+        <v>1057</v>
       </c>
       <c r="AZ75" s="11">
-        <v>2126</v>
+        <v>0</v>
       </c>
       <c r="BA75" s="11">
-        <v>1057</v>
+        <v>800</v>
       </c>
       <c r="BB75" s="11">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G76" s="13">
         <v>0</v>
@@ -10457,67 +10457,67 @@
         <v>0</v>
       </c>
       <c r="O76" s="13">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="P76" s="13">
-        <v>0</v>
+        <v>2934</v>
       </c>
       <c r="Q76" s="13">
-        <v>806</v>
+        <v>3532</v>
       </c>
       <c r="R76" s="13">
-        <v>2934</v>
+        <v>5159</v>
       </c>
       <c r="S76" s="13">
-        <v>3532</v>
+        <v>2616</v>
       </c>
       <c r="T76" s="13">
-        <v>5159</v>
+        <v>4538</v>
       </c>
       <c r="U76" s="13">
-        <v>2616</v>
-      </c>
-      <c r="V76" s="13">
-        <v>4538</v>
-      </c>
-      <c r="W76" s="13">
         <v>2285</v>
       </c>
+      <c r="V76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W76" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y76" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z76" s="13" t="s">
-        <v>57</v>
+      <c r="Y76" s="13">
+        <v>8190</v>
+      </c>
+      <c r="Z76" s="13">
+        <v>5724</v>
       </c>
       <c r="AA76" s="13">
-        <v>8190</v>
+        <v>1524</v>
       </c>
       <c r="AB76" s="13">
-        <v>5724</v>
+        <v>215</v>
       </c>
       <c r="AC76" s="13">
-        <v>1524</v>
+        <v>420</v>
       </c>
       <c r="AD76" s="13">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="13">
-        <v>420</v>
+        <v>687</v>
       </c>
       <c r="AF76" s="13">
-        <v>0</v>
+        <v>10147</v>
       </c>
       <c r="AG76" s="13">
-        <v>687</v>
-      </c>
-      <c r="AH76" s="13">
-        <v>10147</v>
-      </c>
-      <c r="AI76" s="13">
         <v>7706</v>
+      </c>
+      <c r="AH76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI76" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ76" s="13" t="s">
         <v>57</v>
@@ -10636,11 +10636,11 @@
       <c r="U77" s="11">
         <v>0</v>
       </c>
-      <c r="V77" s="11">
-        <v>0</v>
-      </c>
-      <c r="W77" s="11">
-        <v>0</v>
+      <c r="V77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X77" s="11" t="s">
         <v>57</v>
@@ -10745,97 +10745,97 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>2693</v>
+        <v>9301</v>
       </c>
       <c r="F78" s="13">
-        <v>4747</v>
+        <v>14096</v>
       </c>
       <c r="G78" s="13">
-        <v>9301</v>
+        <v>9488</v>
       </c>
       <c r="H78" s="13">
-        <v>14096</v>
+        <v>8900</v>
       </c>
       <c r="I78" s="13">
-        <v>9488</v>
+        <v>11060</v>
       </c>
       <c r="J78" s="13">
-        <v>8900</v>
+        <v>8221</v>
       </c>
       <c r="K78" s="13">
-        <v>11060</v>
+        <v>13406</v>
       </c>
       <c r="L78" s="13">
-        <v>8221</v>
+        <v>13888</v>
       </c>
       <c r="M78" s="13">
-        <v>13406</v>
+        <v>9939</v>
       </c>
       <c r="N78" s="13">
-        <v>13888</v>
+        <v>8553</v>
       </c>
       <c r="O78" s="13">
-        <v>9939</v>
+        <v>9561</v>
       </c>
       <c r="P78" s="13">
-        <v>8553</v>
+        <v>9246</v>
       </c>
       <c r="Q78" s="13">
-        <v>9561</v>
+        <v>7599</v>
       </c>
       <c r="R78" s="13">
-        <v>9246</v>
+        <v>6023</v>
       </c>
       <c r="S78" s="13">
-        <v>7599</v>
+        <v>3051</v>
       </c>
       <c r="T78" s="13">
-        <v>6023</v>
+        <v>1834</v>
       </c>
       <c r="U78" s="13">
-        <v>3051</v>
+        <v>8743</v>
       </c>
       <c r="V78" s="13">
-        <v>1834</v>
+        <v>26045</v>
       </c>
       <c r="W78" s="13">
-        <v>8743</v>
+        <v>31090</v>
       </c>
       <c r="X78" s="13">
-        <v>26045</v>
+        <v>22037</v>
       </c>
       <c r="Y78" s="13">
-        <v>31090</v>
+        <v>39502</v>
       </c>
       <c r="Z78" s="13">
-        <v>22037</v>
+        <v>36885</v>
       </c>
       <c r="AA78" s="13">
-        <v>39502</v>
+        <v>42156</v>
       </c>
       <c r="AB78" s="13">
-        <v>36885</v>
+        <v>38769</v>
       </c>
       <c r="AC78" s="13">
-        <v>42156</v>
+        <v>14657</v>
       </c>
       <c r="AD78" s="13">
-        <v>38769</v>
+        <v>9425</v>
       </c>
       <c r="AE78" s="13">
-        <v>14657</v>
+        <v>0</v>
       </c>
       <c r="AF78" s="13">
-        <v>9425</v>
+        <v>2896</v>
       </c>
       <c r="AG78" s="13">
         <v>0</v>
       </c>
-      <c r="AH78" s="13">
-        <v>2896</v>
-      </c>
-      <c r="AI78" s="13">
-        <v>0</v>
+      <c r="AH78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ78" s="13" t="s">
         <v>57</v>
@@ -10867,32 +10867,32 @@
       <c r="AS78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT78" s="13" t="s">
-        <v>57</v>
+      <c r="AT78" s="13">
+        <v>2494</v>
       </c>
       <c r="AU78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV78" s="13">
-        <v>2494</v>
-      </c>
-      <c r="AW78" s="13">
-        <v>52599</v>
-      </c>
-      <c r="AX78" s="13">
-        <v>91845</v>
-      </c>
-      <c r="AY78" s="13">
-        <v>106025</v>
-      </c>
-      <c r="AZ78" s="13">
-        <v>102196</v>
-      </c>
-      <c r="BA78" s="13">
-        <v>198279</v>
-      </c>
-      <c r="BB78" s="13">
-        <v>182959</v>
+      <c r="AV78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB78" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10904,97 +10904,97 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>3691</v>
+        <v>11054</v>
       </c>
       <c r="F79" s="11">
-        <v>3428</v>
+        <v>2036</v>
       </c>
       <c r="G79" s="11">
-        <v>11054</v>
+        <v>2493</v>
       </c>
       <c r="H79" s="11">
-        <v>2036</v>
+        <v>1357</v>
       </c>
       <c r="I79" s="11">
-        <v>2493</v>
+        <v>912</v>
       </c>
       <c r="J79" s="11">
-        <v>1357</v>
+        <v>548</v>
       </c>
       <c r="K79" s="11">
-        <v>912</v>
+        <v>967</v>
       </c>
       <c r="L79" s="11">
-        <v>548</v>
+        <v>1061</v>
       </c>
       <c r="M79" s="11">
-        <v>967</v>
+        <v>484</v>
       </c>
       <c r="N79" s="11">
-        <v>1061</v>
+        <v>975</v>
       </c>
       <c r="O79" s="11">
-        <v>484</v>
+        <v>306</v>
       </c>
       <c r="P79" s="11">
-        <v>975</v>
+        <v>445</v>
       </c>
       <c r="Q79" s="11">
-        <v>306</v>
+        <v>376</v>
       </c>
       <c r="R79" s="11">
-        <v>445</v>
+        <v>73</v>
       </c>
       <c r="S79" s="11">
-        <v>376</v>
+        <v>138</v>
       </c>
       <c r="T79" s="11">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="U79" s="11">
-        <v>138</v>
+        <v>641</v>
       </c>
       <c r="V79" s="11">
-        <v>21</v>
+        <v>1709</v>
       </c>
       <c r="W79" s="11">
-        <v>641</v>
+        <v>32</v>
       </c>
       <c r="X79" s="11">
-        <v>1709</v>
+        <v>0</v>
       </c>
       <c r="Y79" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="11">
         <v>0</v>
       </c>
       <c r="AA79" s="11">
-        <v>0</v>
+        <v>12801</v>
       </c>
       <c r="AB79" s="11">
         <v>0</v>
       </c>
       <c r="AC79" s="11">
-        <v>12801</v>
+        <v>0</v>
       </c>
       <c r="AD79" s="11">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="AE79" s="11">
         <v>0</v>
       </c>
       <c r="AF79" s="11">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="AG79" s="11">
         <v>0</v>
       </c>
-      <c r="AH79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="11">
-        <v>0</v>
+      <c r="AH79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ79" s="11" t="s">
         <v>57</v>
@@ -11026,11 +11026,11 @@
       <c r="AS79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU79" s="11" t="s">
-        <v>57</v>
+      <c r="AT79" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU79" s="11">
+        <v>0</v>
       </c>
       <c r="AV79" s="11">
         <v>0</v>
@@ -11063,10 +11063,10 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>2808</v>
+        <v>0</v>
       </c>
       <c r="F80" s="13">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="G80" s="13">
         <v>0</v>
@@ -11093,31 +11093,31 @@
         <v>0</v>
       </c>
       <c r="O80" s="13">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="P80" s="13">
         <v>0</v>
       </c>
       <c r="Q80" s="13">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R80" s="13">
         <v>0</v>
       </c>
       <c r="S80" s="13">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="T80" s="13">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="U80" s="13">
-        <v>274</v>
-      </c>
-      <c r="V80" s="13">
-        <v>137</v>
-      </c>
-      <c r="W80" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X80" s="13" t="s">
         <v>57</v>
@@ -11125,35 +11125,35 @@
       <c r="Y80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA80" s="13" t="s">
-        <v>57</v>
+      <c r="Z80" s="13">
+        <v>2955</v>
+      </c>
+      <c r="AA80" s="13">
+        <v>7948</v>
       </c>
       <c r="AB80" s="13">
-        <v>2955</v>
+        <v>4860</v>
       </c>
       <c r="AC80" s="13">
-        <v>7948</v>
+        <v>0</v>
       </c>
       <c r="AD80" s="13">
-        <v>4860</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="13">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="AF80" s="13">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AG80" s="13">
-        <v>1460</v>
-      </c>
-      <c r="AH80" s="13">
-        <v>430</v>
-      </c>
-      <c r="AI80" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ80" s="13" t="s">
         <v>57</v>
@@ -11222,98 +11222,98 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>25277</v>
+        <v>16621</v>
       </c>
       <c r="F81" s="11">
-        <v>36658</v>
+        <v>13051</v>
       </c>
       <c r="G81" s="11">
-        <v>16621</v>
+        <v>10628</v>
       </c>
       <c r="H81" s="11">
-        <v>13051</v>
+        <v>7603</v>
       </c>
       <c r="I81" s="11">
-        <v>10628</v>
+        <v>13619</v>
       </c>
       <c r="J81" s="11">
-        <v>7603</v>
+        <v>9077</v>
       </c>
       <c r="K81" s="11">
-        <v>13619</v>
+        <v>17516</v>
       </c>
       <c r="L81" s="11">
-        <v>9077</v>
+        <v>16380</v>
       </c>
       <c r="M81" s="11">
-        <v>17516</v>
+        <v>14111</v>
       </c>
       <c r="N81" s="11">
-        <v>16380</v>
+        <v>15145</v>
       </c>
       <c r="O81" s="11">
-        <v>14111</v>
+        <v>14757</v>
       </c>
       <c r="P81" s="11">
-        <v>15145</v>
+        <v>12886</v>
       </c>
       <c r="Q81" s="11">
-        <v>14757</v>
+        <v>14066</v>
       </c>
       <c r="R81" s="11">
-        <v>12886</v>
+        <v>6696</v>
       </c>
       <c r="S81" s="11">
-        <v>14066</v>
+        <v>4922</v>
       </c>
       <c r="T81" s="11">
-        <v>6696</v>
+        <v>5231</v>
       </c>
       <c r="U81" s="11">
-        <v>4922</v>
+        <v>21983</v>
       </c>
       <c r="V81" s="11">
-        <v>5231</v>
+        <v>29556</v>
       </c>
       <c r="W81" s="11">
-        <v>21983</v>
+        <v>32546</v>
       </c>
       <c r="X81" s="11">
-        <v>29556</v>
+        <v>9692</v>
       </c>
       <c r="Y81" s="11">
-        <v>32546</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="11">
-        <v>9692</v>
+        <v>19486</v>
       </c>
       <c r="AA81" s="11">
-        <v>0</v>
+        <v>26484</v>
       </c>
       <c r="AB81" s="11">
-        <v>19486</v>
+        <v>40582</v>
       </c>
       <c r="AC81" s="11">
-        <v>26484</v>
+        <v>39657</v>
       </c>
       <c r="AD81" s="11">
-        <v>40582</v>
+        <v>35062</v>
       </c>
       <c r="AE81" s="11">
-        <v>39657</v>
+        <v>35419</v>
       </c>
       <c r="AF81" s="11">
-        <v>35062</v>
+        <v>23506</v>
       </c>
       <c r="AG81" s="11">
-        <v>35419</v>
-      </c>
-      <c r="AH81" s="11">
-        <v>23506</v>
-      </c>
-      <c r="AI81" s="11">
         <v>91656</v>
       </c>
+      <c r="AH81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ81" s="11" t="s">
         <v>57</v>
       </c>
@@ -11344,32 +11344,32 @@
       <c r="AS81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU81" s="11" t="s">
-        <v>57</v>
+      <c r="AT81" s="11">
+        <v>87217</v>
+      </c>
+      <c r="AU81" s="11">
+        <v>106612</v>
       </c>
       <c r="AV81" s="11">
-        <v>87217</v>
+        <v>125424</v>
       </c>
       <c r="AW81" s="11">
-        <v>106612</v>
+        <v>103923</v>
       </c>
       <c r="AX81" s="11">
-        <v>125424</v>
+        <v>98349</v>
       </c>
       <c r="AY81" s="11">
-        <v>103923</v>
+        <v>123271</v>
       </c>
       <c r="AZ81" s="11">
-        <v>98349</v>
+        <v>144167</v>
       </c>
       <c r="BA81" s="11">
-        <v>123271</v>
+        <v>147494</v>
       </c>
       <c r="BB81" s="11">
-        <v>144167</v>
+        <v>86312</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11381,67 +11381,67 @@
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13">
-        <v>402</v>
+        <v>247</v>
       </c>
       <c r="F82" s="13">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="G82" s="13">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="H82" s="13">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="I82" s="13">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="J82" s="13">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="K82" s="13">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="L82" s="13">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="M82" s="13">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N82" s="13">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O82" s="13">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="P82" s="13">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="Q82" s="13">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="R82" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S82" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="T82" s="13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U82" s="13">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="V82" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W82" s="13">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="X82" s="13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="13">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="Z82" s="13">
         <v>0</v>
@@ -11467,11 +11467,11 @@
       <c r="AG82" s="13">
         <v>0</v>
       </c>
-      <c r="AH82" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI82" s="13">
-        <v>0</v>
+      <c r="AH82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ82" s="13" t="s">
         <v>57</v>
@@ -11503,14 +11503,14 @@
       <c r="AS82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU82" s="13" t="s">
-        <v>57</v>
+      <c r="AT82" s="13">
+        <v>78</v>
+      </c>
+      <c r="AU82" s="13">
+        <v>0</v>
       </c>
       <c r="AV82" s="13">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AW82" s="13">
         <v>0</v>
@@ -11590,21 +11590,21 @@
       <c r="U83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W83" s="11" t="s">
-        <v>57</v>
+      <c r="V83" s="11">
+        <v>840</v>
+      </c>
+      <c r="W83" s="11">
+        <v>2470</v>
       </c>
       <c r="X83" s="11">
-        <v>840</v>
-      </c>
-      <c r="Y83" s="11">
-        <v>2470</v>
-      </c>
-      <c r="Z83" s="11">
         <v>8618</v>
       </c>
+      <c r="Y83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA83" s="11" t="s">
         <v>57</v>
       </c>
@@ -11665,29 +11665,29 @@
       <c r="AT83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV83" s="11" t="s">
-        <v>57</v>
+      <c r="AU83" s="11">
+        <v>53524</v>
+      </c>
+      <c r="AV83" s="11">
+        <v>93867</v>
       </c>
       <c r="AW83" s="11">
-        <v>925</v>
+        <v>107820</v>
       </c>
       <c r="AX83" s="11">
-        <v>2022</v>
+        <v>355129</v>
       </c>
       <c r="AY83" s="11">
-        <v>1795</v>
+        <v>198279</v>
       </c>
       <c r="AZ83" s="11">
-        <v>0</v>
+        <v>185445</v>
       </c>
       <c r="BA83" s="11">
-        <v>0</v>
+        <v>239249</v>
       </c>
       <c r="BB83" s="11">
-        <v>2486</v>
+        <v>239735</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11821,32 +11821,32 @@
       <c r="AS84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU84" s="13" t="s">
-        <v>57</v>
+      <c r="AT84" s="13">
+        <v>30264</v>
+      </c>
+      <c r="AU84" s="13">
+        <v>59181</v>
       </c>
       <c r="AV84" s="13">
-        <v>30264</v>
+        <v>93919</v>
       </c>
       <c r="AW84" s="13">
-        <v>59181</v>
+        <v>76657</v>
       </c>
       <c r="AX84" s="13">
-        <v>93919</v>
+        <v>48771</v>
       </c>
       <c r="AY84" s="13">
-        <v>76657</v>
+        <v>34894</v>
       </c>
       <c r="AZ84" s="13">
-        <v>48772</v>
+        <v>15611</v>
       </c>
       <c r="BA84" s="13">
-        <v>34894</v>
+        <v>9195</v>
       </c>
       <c r="BB84" s="13">
-        <v>15611</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11974,11 +11974,11 @@
       <c r="X86" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y86" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z86" s="17" t="s">
-        <v>57</v>
+      <c r="Y86" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="17">
+        <v>0</v>
       </c>
       <c r="AA86" s="17">
         <v>0</v>
@@ -12190,11 +12190,11 @@
       <c r="X88" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y88" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z88" s="17" t="s">
-        <v>57</v>
+      <c r="Y88" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="17">
+        <v>0</v>
       </c>
       <c r="AA88" s="17">
         <v>0</v>
@@ -12406,11 +12406,11 @@
       <c r="X90" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y90" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z90" s="11" t="s">
-        <v>57</v>
+      <c r="Y90" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="11">
+        <v>0</v>
       </c>
       <c r="AA90" s="11">
         <v>0</v>
@@ -12504,154 +12504,154 @@
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19">
-        <v>164767</v>
+        <v>184644</v>
       </c>
       <c r="F91" s="19">
-        <v>201142</v>
+        <v>125839</v>
       </c>
       <c r="G91" s="19">
-        <v>184644</v>
+        <v>96508</v>
       </c>
       <c r="H91" s="19">
-        <v>125839</v>
+        <v>88462</v>
       </c>
       <c r="I91" s="19">
-        <v>96508</v>
+        <v>165431</v>
       </c>
       <c r="J91" s="19">
-        <v>88462</v>
+        <v>140011</v>
       </c>
       <c r="K91" s="19">
-        <v>165431</v>
+        <v>241374</v>
       </c>
       <c r="L91" s="19">
-        <v>140011</v>
+        <v>237326</v>
       </c>
       <c r="M91" s="19">
-        <v>241374</v>
+        <v>259131</v>
       </c>
       <c r="N91" s="19">
-        <v>237326</v>
+        <v>236574</v>
       </c>
       <c r="O91" s="19">
-        <v>259131</v>
+        <v>284514</v>
       </c>
       <c r="P91" s="19">
-        <v>236574</v>
+        <v>324871</v>
       </c>
       <c r="Q91" s="19">
-        <v>284514</v>
+        <v>299310</v>
       </c>
       <c r="R91" s="19">
-        <v>324871</v>
+        <v>186382</v>
       </c>
       <c r="S91" s="19">
-        <v>299310</v>
+        <v>126118</v>
       </c>
       <c r="T91" s="19">
-        <v>186382</v>
+        <v>106296</v>
       </c>
       <c r="U91" s="19">
-        <v>126118</v>
+        <v>288501</v>
       </c>
       <c r="V91" s="19">
-        <v>106296</v>
+        <v>301273</v>
       </c>
       <c r="W91" s="19">
-        <v>288501</v>
+        <v>386476</v>
       </c>
       <c r="X91" s="19">
-        <v>301273</v>
+        <v>372624</v>
       </c>
       <c r="Y91" s="19">
-        <v>386476</v>
+        <v>488984</v>
       </c>
       <c r="Z91" s="19">
-        <v>372624</v>
+        <v>431596</v>
       </c>
       <c r="AA91" s="19">
-        <v>488984</v>
+        <v>463741</v>
       </c>
       <c r="AB91" s="19">
-        <v>431596</v>
+        <v>426377</v>
       </c>
       <c r="AC91" s="19">
-        <v>463741</v>
+        <v>321995</v>
       </c>
       <c r="AD91" s="19">
-        <v>426377</v>
+        <v>367265</v>
       </c>
       <c r="AE91" s="19">
-        <v>321995</v>
+        <v>236023</v>
       </c>
       <c r="AF91" s="19">
-        <v>367265</v>
+        <v>297360</v>
       </c>
       <c r="AG91" s="19">
-        <v>236023</v>
+        <v>452663</v>
       </c>
       <c r="AH91" s="19">
-        <v>297360</v>
+        <v>419036</v>
       </c>
       <c r="AI91" s="19">
-        <v>452663</v>
+        <v>597392</v>
       </c>
       <c r="AJ91" s="19">
-        <v>419036</v>
+        <v>656975</v>
       </c>
       <c r="AK91" s="19">
-        <v>597392</v>
+        <v>663330</v>
       </c>
       <c r="AL91" s="19">
-        <v>656975</v>
+        <v>678947</v>
       </c>
       <c r="AM91" s="19">
-        <v>663330</v>
+        <v>1132444</v>
       </c>
       <c r="AN91" s="19">
-        <v>678947</v>
+        <v>854807</v>
       </c>
       <c r="AO91" s="19">
-        <v>1132444</v>
+        <v>791515</v>
       </c>
       <c r="AP91" s="19">
-        <v>854807</v>
+        <v>705123</v>
       </c>
       <c r="AQ91" s="19">
-        <v>791515</v>
+        <v>329782</v>
       </c>
       <c r="AR91" s="19">
-        <v>705123</v>
+        <v>467821</v>
       </c>
       <c r="AS91" s="19">
-        <v>329782</v>
+        <v>859346</v>
       </c>
       <c r="AT91" s="19">
-        <v>467821</v>
+        <v>796824</v>
       </c>
       <c r="AU91" s="19">
-        <v>859346</v>
+        <v>1030745</v>
       </c>
       <c r="AV91" s="19">
-        <v>796824</v>
+        <v>1257376</v>
       </c>
       <c r="AW91" s="19">
-        <v>1030745</v>
+        <v>1099228</v>
       </c>
       <c r="AX91" s="19">
-        <v>1257376</v>
+        <v>1218272</v>
       </c>
       <c r="AY91" s="19">
-        <v>1099228</v>
+        <v>1243037</v>
       </c>
       <c r="AZ91" s="19">
-        <v>965308</v>
+        <v>1162822</v>
       </c>
       <c r="BA91" s="19">
-        <v>1243037</v>
+        <v>1210113</v>
       </c>
       <c r="BB91" s="19">
-        <v>1162822</v>
+        <v>945195</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -13102,66 +13102,66 @@
       <c r="F98" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G98" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>57</v>
+      <c r="G98" s="11">
+        <v>873655</v>
+      </c>
+      <c r="H98" s="11">
+        <v>871272</v>
       </c>
       <c r="I98" s="11">
-        <v>873655</v>
+        <v>858947</v>
       </c>
       <c r="J98" s="11">
-        <v>871272</v>
+        <v>944261</v>
       </c>
       <c r="K98" s="11">
-        <v>858947</v>
+        <v>997550</v>
       </c>
       <c r="L98" s="11">
-        <v>944261</v>
+        <v>1017151</v>
       </c>
       <c r="M98" s="11">
-        <v>997550</v>
+        <v>986823</v>
       </c>
       <c r="N98" s="11">
-        <v>1017151</v>
+        <v>1033447</v>
       </c>
       <c r="O98" s="11">
-        <v>986823</v>
+        <v>1031416</v>
       </c>
       <c r="P98" s="11">
-        <v>1033447</v>
+        <v>0</v>
       </c>
       <c r="Q98" s="11">
-        <v>1031416</v>
+        <v>0</v>
       </c>
       <c r="R98" s="11">
-        <v>0</v>
+        <v>949153</v>
       </c>
       <c r="S98" s="11">
-        <v>0</v>
+        <v>948703</v>
       </c>
       <c r="T98" s="11">
-        <v>949153</v>
+        <v>948707</v>
       </c>
       <c r="U98" s="11">
-        <v>948703</v>
+        <v>0</v>
       </c>
       <c r="V98" s="11">
-        <v>948707</v>
+        <v>1385144</v>
       </c>
       <c r="W98" s="11">
-        <v>0</v>
+        <v>1463098</v>
       </c>
       <c r="X98" s="11">
-        <v>1385144</v>
-      </c>
-      <c r="Y98" s="11">
-        <v>1463098</v>
-      </c>
-      <c r="Z98" s="11">
         <v>1539560</v>
       </c>
+      <c r="Y98" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z98" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA98" s="11" t="s">
         <v>57</v>
       </c>
@@ -13183,18 +13183,18 @@
       <c r="AG98" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH98" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI98" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ98" s="11">
+      <c r="AH98" s="11">
         <v>3980448</v>
       </c>
-      <c r="AK98" s="11">
+      <c r="AI98" s="11">
         <v>4063462</v>
       </c>
+      <c r="AJ98" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK98" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AL98" s="11" t="s">
         <v>57</v>
       </c>
@@ -13207,18 +13207,18 @@
       <c r="AO98" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP98" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ98" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR98" s="11">
+      <c r="AP98" s="11">
         <v>6132323</v>
       </c>
-      <c r="AS98" s="11">
+      <c r="AQ98" s="11">
         <v>6200000</v>
       </c>
+      <c r="AR98" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS98" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT98" s="11" t="s">
         <v>57</v>
       </c>
@@ -13237,14 +13237,14 @@
       <c r="AY98" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AZ98" s="11" t="s">
-        <v>57</v>
+      <c r="AZ98" s="11">
+        <v>447390</v>
       </c>
       <c r="BA98" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB98" s="11">
-        <v>447390</v>
+      <c r="BB98" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13342,47 +13342,47 @@
       <c r="AG99" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH99" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI99" s="13" t="s">
-        <v>57</v>
+      <c r="AH99" s="13">
+        <v>2904663</v>
+      </c>
+      <c r="AI99" s="13">
+        <v>3734620</v>
       </c>
       <c r="AJ99" s="13">
-        <v>2904663</v>
+        <v>3803171</v>
       </c>
       <c r="AK99" s="13">
-        <v>3734620</v>
+        <v>5059108</v>
       </c>
       <c r="AL99" s="13">
-        <v>3803171</v>
+        <v>6027048</v>
       </c>
       <c r="AM99" s="13">
-        <v>5059108</v>
+        <v>6194752</v>
       </c>
       <c r="AN99" s="13">
-        <v>6027048</v>
+        <v>4616461</v>
       </c>
       <c r="AO99" s="13">
-        <v>6194752</v>
+        <v>4594406</v>
       </c>
       <c r="AP99" s="13">
-        <v>4616461</v>
+        <v>4345744</v>
       </c>
       <c r="AQ99" s="13">
-        <v>4594406</v>
+        <v>4524149</v>
       </c>
       <c r="AR99" s="13">
-        <v>4345744</v>
+        <v>4913828</v>
       </c>
       <c r="AS99" s="13">
-        <v>4524149</v>
-      </c>
-      <c r="AT99" s="13">
-        <v>4913828</v>
-      </c>
-      <c r="AU99" s="13">
         <v>5262022</v>
+      </c>
+      <c r="AT99" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU99" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV99" s="13" t="s">
         <v>57</v>
@@ -13415,16 +13415,16 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>0</v>
+        <v>936563</v>
       </c>
       <c r="F100" s="11">
-        <v>932261</v>
+        <v>1061755</v>
       </c>
       <c r="G100" s="11">
-        <v>936563</v>
+        <v>0</v>
       </c>
       <c r="H100" s="11">
-        <v>1061755</v>
+        <v>0</v>
       </c>
       <c r="I100" s="11">
         <v>0</v>
@@ -13439,73 +13439,73 @@
         <v>0</v>
       </c>
       <c r="M100" s="11">
-        <v>0</v>
+        <v>1692094</v>
       </c>
       <c r="N100" s="11">
-        <v>0</v>
+        <v>1688830</v>
       </c>
       <c r="O100" s="11">
-        <v>1692094</v>
+        <v>1577154</v>
       </c>
       <c r="P100" s="11">
-        <v>1688830</v>
+        <v>1502656</v>
       </c>
       <c r="Q100" s="11">
-        <v>1577154</v>
+        <v>1317862</v>
       </c>
       <c r="R100" s="11">
-        <v>1502656</v>
+        <v>1310598</v>
       </c>
       <c r="S100" s="11">
-        <v>1317862</v>
+        <v>1349375</v>
       </c>
       <c r="T100" s="11">
-        <v>1310598</v>
+        <v>1626471</v>
       </c>
       <c r="U100" s="11">
-        <v>1349375</v>
-      </c>
-      <c r="V100" s="11">
-        <v>1626471</v>
-      </c>
-      <c r="W100" s="11">
         <v>1766484</v>
       </c>
+      <c r="V100" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W100" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X100" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y100" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z100" s="11" t="s">
-        <v>57</v>
+      <c r="Y100" s="11">
+        <v>1749269</v>
+      </c>
+      <c r="Z100" s="11">
+        <v>1803569</v>
       </c>
       <c r="AA100" s="11">
-        <v>1749269</v>
+        <v>2036843</v>
       </c>
       <c r="AB100" s="11">
-        <v>1803569</v>
+        <v>2232131</v>
       </c>
       <c r="AC100" s="11">
-        <v>2036843</v>
+        <v>2665121</v>
       </c>
       <c r="AD100" s="11">
-        <v>2232131</v>
+        <v>2669660</v>
       </c>
       <c r="AE100" s="11">
-        <v>2665121</v>
+        <v>2739579</v>
       </c>
       <c r="AF100" s="11">
-        <v>2669660</v>
+        <v>2717745</v>
       </c>
       <c r="AG100" s="11">
-        <v>2739579</v>
-      </c>
-      <c r="AH100" s="11">
-        <v>2717745</v>
-      </c>
-      <c r="AI100" s="11">
         <v>2859274</v>
+      </c>
+      <c r="AH100" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI100" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ100" s="11" t="s">
         <v>57</v>
@@ -13574,98 +13574,98 @@
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>1351155</v>
+        <v>1442392</v>
       </c>
       <c r="F101" s="13">
-        <v>1420304</v>
+        <v>1554344</v>
       </c>
       <c r="G101" s="13">
-        <v>1442392</v>
+        <v>1517428</v>
       </c>
       <c r="H101" s="13">
-        <v>1554344</v>
+        <v>1516586</v>
       </c>
       <c r="I101" s="13">
-        <v>1517428</v>
+        <v>1549341</v>
       </c>
       <c r="J101" s="13">
-        <v>1516586</v>
+        <v>1615473</v>
       </c>
       <c r="K101" s="13">
-        <v>1549341</v>
+        <v>1617011</v>
       </c>
       <c r="L101" s="13">
-        <v>1615473</v>
+        <v>1621277</v>
       </c>
       <c r="M101" s="13">
-        <v>1617011</v>
+        <v>1972694</v>
       </c>
       <c r="N101" s="13">
-        <v>1621277</v>
+        <v>1916578</v>
       </c>
       <c r="O101" s="13">
-        <v>1972694</v>
+        <v>2056445</v>
       </c>
       <c r="P101" s="13">
-        <v>1916578</v>
+        <v>2080182</v>
       </c>
       <c r="Q101" s="13">
-        <v>2056445</v>
+        <v>2118410</v>
       </c>
       <c r="R101" s="13">
-        <v>2080182</v>
+        <v>2134995</v>
       </c>
       <c r="S101" s="13">
-        <v>2118410</v>
+        <v>2130811</v>
       </c>
       <c r="T101" s="13">
-        <v>2134995</v>
+        <v>2102395</v>
       </c>
       <c r="U101" s="13">
-        <v>2130811</v>
+        <v>2116956</v>
       </c>
       <c r="V101" s="13">
-        <v>2102395</v>
+        <v>2123801</v>
       </c>
       <c r="W101" s="13">
-        <v>2116956</v>
+        <v>2130111</v>
       </c>
       <c r="X101" s="13">
-        <v>2123801</v>
+        <v>2145707</v>
       </c>
       <c r="Y101" s="13">
-        <v>2130111</v>
+        <v>2452693</v>
       </c>
       <c r="Z101" s="13">
-        <v>2145707</v>
+        <v>2621700</v>
       </c>
       <c r="AA101" s="13">
-        <v>2452693</v>
+        <v>2687346</v>
       </c>
       <c r="AB101" s="13">
-        <v>2621700</v>
+        <v>2778224</v>
       </c>
       <c r="AC101" s="13">
-        <v>2687346</v>
+        <v>3026898</v>
       </c>
       <c r="AD101" s="13">
-        <v>2778224</v>
+        <v>3090480</v>
       </c>
       <c r="AE101" s="13">
-        <v>3026898</v>
+        <v>3096541</v>
       </c>
       <c r="AF101" s="13">
-        <v>3090480</v>
+        <v>3098933</v>
       </c>
       <c r="AG101" s="13">
-        <v>3096541</v>
-      </c>
-      <c r="AH101" s="13">
-        <v>3098933</v>
-      </c>
-      <c r="AI101" s="13">
         <v>3096546</v>
       </c>
+      <c r="AH101" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI101" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ101" s="13" t="s">
         <v>57</v>
       </c>
@@ -13696,32 +13696,32 @@
       <c r="AS101" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT101" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU101" s="13" t="s">
-        <v>57</v>
+      <c r="AT101" s="13">
+        <v>6729146</v>
+      </c>
+      <c r="AU101" s="13">
+        <v>6734880</v>
       </c>
       <c r="AV101" s="13">
-        <v>6729146</v>
+        <v>7697293</v>
       </c>
       <c r="AW101" s="13">
-        <v>6734880</v>
+        <v>8338300</v>
       </c>
       <c r="AX101" s="13">
-        <v>7697293</v>
+        <v>7855493</v>
       </c>
       <c r="AY101" s="13">
-        <v>8338300</v>
+        <v>7446304</v>
       </c>
       <c r="AZ101" s="13">
-        <v>7855490</v>
+        <v>7292614</v>
       </c>
       <c r="BA101" s="13">
-        <v>7446304</v>
+        <v>7279014</v>
       </c>
       <c r="BB101" s="13">
-        <v>7292614</v>
+        <v>7213859</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -13783,21 +13783,21 @@
       <c r="U102" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V102" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W102" s="11" t="s">
-        <v>57</v>
+      <c r="V102" s="11">
+        <v>2559406</v>
+      </c>
+      <c r="W102" s="11">
+        <v>2849955</v>
       </c>
       <c r="X102" s="11">
-        <v>2559406</v>
-      </c>
-      <c r="Y102" s="11">
-        <v>2849955</v>
-      </c>
-      <c r="Z102" s="11">
         <v>3126653</v>
       </c>
+      <c r="Y102" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z102" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA102" s="11" t="s">
         <v>57</v>
       </c>
@@ -13855,32 +13855,32 @@
       <c r="AS102" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT102" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU102" s="11" t="s">
-        <v>57</v>
+      <c r="AT102" s="11">
+        <v>9283401</v>
+      </c>
+      <c r="AU102" s="11">
+        <v>9337621</v>
       </c>
       <c r="AV102" s="11">
-        <v>9283401</v>
+        <v>9596404</v>
       </c>
       <c r="AW102" s="11">
-        <v>9337621</v>
+        <v>9954474</v>
       </c>
       <c r="AX102" s="11">
-        <v>9596404</v>
+        <v>9013648</v>
       </c>
       <c r="AY102" s="11">
-        <v>9954474</v>
+        <v>6953984</v>
       </c>
       <c r="AZ102" s="11">
-        <v>9613208</v>
+        <v>6845264</v>
       </c>
       <c r="BA102" s="11">
-        <v>9542797</v>
+        <v>6782599</v>
       </c>
       <c r="BB102" s="11">
-        <v>8450146</v>
+        <v>6165999</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -13892,98 +13892,98 @@
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13">
-        <v>1192374</v>
+        <v>1271488</v>
       </c>
       <c r="F103" s="13">
-        <v>1234997</v>
+        <v>1219553</v>
       </c>
       <c r="G103" s="13">
-        <v>1271488</v>
+        <v>1171327</v>
       </c>
       <c r="H103" s="13">
-        <v>1219553</v>
+        <v>1191507</v>
       </c>
       <c r="I103" s="13">
-        <v>1171327</v>
+        <v>1202995</v>
       </c>
       <c r="J103" s="13">
-        <v>1191507</v>
+        <v>1273106</v>
       </c>
       <c r="K103" s="13">
-        <v>1202995</v>
+        <v>1265504</v>
       </c>
       <c r="L103" s="13">
-        <v>1273106</v>
+        <v>1277781</v>
       </c>
       <c r="M103" s="13">
-        <v>1265504</v>
+        <v>1633753</v>
       </c>
       <c r="N103" s="13">
-        <v>1277781</v>
+        <v>1715556</v>
       </c>
       <c r="O103" s="13">
-        <v>1633753</v>
+        <v>1764615</v>
       </c>
       <c r="P103" s="13">
-        <v>1715556</v>
+        <v>1736421</v>
       </c>
       <c r="Q103" s="13">
-        <v>1764615</v>
+        <v>1765336</v>
       </c>
       <c r="R103" s="13">
-        <v>1736421</v>
+        <v>1786174</v>
       </c>
       <c r="S103" s="13">
-        <v>1765336</v>
+        <v>1793557</v>
       </c>
       <c r="T103" s="13">
-        <v>1786174</v>
+        <v>1792096</v>
       </c>
       <c r="U103" s="13">
-        <v>1793557</v>
+        <v>1798852</v>
       </c>
       <c r="V103" s="13">
-        <v>1792096</v>
+        <v>1793011</v>
       </c>
       <c r="W103" s="13">
-        <v>1798852</v>
+        <v>1786993</v>
       </c>
       <c r="X103" s="13">
-        <v>1793011</v>
+        <v>1781156</v>
       </c>
       <c r="Y103" s="13">
-        <v>1786993</v>
+        <v>2093054</v>
       </c>
       <c r="Z103" s="13">
-        <v>1781156</v>
+        <v>2206824</v>
       </c>
       <c r="AA103" s="13">
-        <v>2093054</v>
+        <v>2200996</v>
       </c>
       <c r="AB103" s="13">
-        <v>2206824</v>
+        <v>2200855</v>
       </c>
       <c r="AC103" s="13">
-        <v>2200996</v>
+        <v>2200098</v>
       </c>
       <c r="AD103" s="13">
-        <v>2200855</v>
+        <v>2200798</v>
       </c>
       <c r="AE103" s="13">
-        <v>2200098</v>
+        <v>2200662</v>
       </c>
       <c r="AF103" s="13">
-        <v>2200798</v>
+        <v>2200100</v>
       </c>
       <c r="AG103" s="13">
-        <v>2200662</v>
-      </c>
-      <c r="AH103" s="13">
-        <v>2200100</v>
-      </c>
-      <c r="AI103" s="13">
         <v>2199984</v>
       </c>
+      <c r="AH103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI103" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ103" s="13" t="s">
         <v>57</v>
       </c>
@@ -14014,32 +14014,32 @@
       <c r="AS103" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT103" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU103" s="13" t="s">
-        <v>57</v>
+      <c r="AT103" s="13">
+        <v>5249261</v>
+      </c>
+      <c r="AU103" s="13">
+        <v>5469633</v>
       </c>
       <c r="AV103" s="13">
-        <v>5249261</v>
+        <v>6168211</v>
       </c>
       <c r="AW103" s="13">
-        <v>5469633</v>
+        <v>7251055</v>
       </c>
       <c r="AX103" s="13">
-        <v>6168211</v>
+        <v>7220167</v>
       </c>
       <c r="AY103" s="13">
-        <v>7251055</v>
+        <v>7087359</v>
       </c>
       <c r="AZ103" s="13">
-        <v>7220108</v>
+        <v>6793980</v>
       </c>
       <c r="BA103" s="13">
-        <v>7087359</v>
+        <v>6774318</v>
       </c>
       <c r="BB103" s="13">
-        <v>6793980</v>
+        <v>6733333</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -14051,13 +14051,13 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>1279798</v>
+        <v>1461259</v>
       </c>
       <c r="F104" s="11">
-        <v>1249595</v>
+        <v>0</v>
       </c>
       <c r="G104" s="11">
-        <v>1461259</v>
+        <v>0</v>
       </c>
       <c r="H104" s="11">
         <v>0</v>
@@ -14078,67 +14078,67 @@
         <v>0</v>
       </c>
       <c r="N104" s="11">
-        <v>0</v>
+        <v>2288557</v>
       </c>
       <c r="O104" s="11">
-        <v>0</v>
+        <v>2115088</v>
       </c>
       <c r="P104" s="11">
-        <v>2288557</v>
+        <v>2092692</v>
       </c>
       <c r="Q104" s="11">
-        <v>2115088</v>
+        <v>2060014</v>
       </c>
       <c r="R104" s="11">
-        <v>2092692</v>
+        <v>2090444</v>
       </c>
       <c r="S104" s="11">
-        <v>2060014</v>
+        <v>2198096</v>
       </c>
       <c r="T104" s="11">
-        <v>2090444</v>
+        <v>2331454</v>
       </c>
       <c r="U104" s="11">
-        <v>2198096</v>
-      </c>
-      <c r="V104" s="11">
-        <v>2331454</v>
-      </c>
-      <c r="W104" s="11">
         <v>2694398</v>
       </c>
+      <c r="V104" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W104" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X104" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y104" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z104" s="11" t="s">
-        <v>57</v>
+      <c r="Y104" s="11">
+        <v>3247777</v>
+      </c>
+      <c r="Z104" s="11">
+        <v>3437550</v>
       </c>
       <c r="AA104" s="11">
-        <v>3247777</v>
+        <v>3898121</v>
       </c>
       <c r="AB104" s="11">
-        <v>3437550</v>
+        <v>4201020</v>
       </c>
       <c r="AC104" s="11">
-        <v>3898121</v>
-      </c>
-      <c r="AD104" s="11">
-        <v>4201020</v>
+        <v>4970155</v>
+      </c>
+      <c r="AD104" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE104" s="11">
-        <v>4970155</v>
-      </c>
-      <c r="AF104" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG104" s="11">
         <v>4812268</v>
       </c>
-      <c r="AH104" s="11">
+      <c r="AF104" s="11">
         <v>4715938</v>
+      </c>
+      <c r="AG104" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH104" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI104" s="11" t="s">
         <v>57</v>
@@ -14210,86 +14210,86 @@
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13">
-        <v>1328947</v>
+        <v>1545902</v>
       </c>
       <c r="F105" s="13">
-        <v>1234043</v>
+        <v>1404881</v>
       </c>
       <c r="G105" s="13">
-        <v>1545902</v>
+        <v>1328231</v>
       </c>
       <c r="H105" s="13">
-        <v>1404881</v>
+        <v>1295710</v>
       </c>
       <c r="I105" s="13">
-        <v>1328231</v>
+        <v>1323125</v>
       </c>
       <c r="J105" s="13">
-        <v>1295710</v>
+        <v>1507177</v>
       </c>
       <c r="K105" s="13">
-        <v>1323125</v>
+        <v>1536686</v>
       </c>
       <c r="L105" s="13">
-        <v>1507177</v>
+        <v>1542117</v>
       </c>
       <c r="M105" s="13">
-        <v>1536686</v>
+        <v>1544466</v>
       </c>
       <c r="N105" s="13">
-        <v>1542117</v>
+        <v>2159091</v>
       </c>
       <c r="O105" s="13">
-        <v>1544466</v>
+        <v>0</v>
       </c>
       <c r="P105" s="13">
-        <v>2159091</v>
+        <v>2050000</v>
       </c>
       <c r="Q105" s="13">
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="R105" s="13">
-        <v>2050000</v>
+        <v>0</v>
       </c>
       <c r="S105" s="13">
         <v>2100000</v>
       </c>
       <c r="T105" s="13">
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="U105" s="13">
+        <v>0</v>
+      </c>
+      <c r="V105" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W105" s="13">
         <v>2100000</v>
       </c>
-      <c r="V105" s="13">
-        <v>2100000</v>
-      </c>
-      <c r="W105" s="13">
-        <v>0</v>
-      </c>
-      <c r="X105" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y105" s="13">
-        <v>2100000</v>
-      </c>
-      <c r="Z105" s="13">
+      <c r="X105" s="13">
         <v>2050000</v>
       </c>
-      <c r="AA105" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB105" s="13" t="s">
-        <v>57</v>
+      <c r="Y105" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z105" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA105" s="13">
+        <v>2708333</v>
+      </c>
+      <c r="AB105" s="13">
+        <v>2800000</v>
       </c>
       <c r="AC105" s="13">
-        <v>2708333</v>
-      </c>
-      <c r="AD105" s="13">
-        <v>2800000</v>
-      </c>
-      <c r="AE105" s="13">
         <v>3066667</v>
       </c>
+      <c r="AD105" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE105" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AF105" s="13" t="s">
         <v>57</v>
       </c>
@@ -14350,14 +14350,14 @@
       <c r="AY105" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ105" s="13">
-        <v>6901058</v>
-      </c>
-      <c r="BA105" s="13">
-        <v>6504531</v>
-      </c>
-      <c r="BB105" s="13">
-        <v>6472382</v>
+      <c r="AZ105" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA105" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB105" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14369,61 +14369,61 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>1084135</v>
+        <v>1026980</v>
       </c>
       <c r="F106" s="11">
-        <v>1045762</v>
+        <v>1048567</v>
       </c>
       <c r="G106" s="11">
-        <v>1026980</v>
+        <v>1048951</v>
       </c>
       <c r="H106" s="11">
-        <v>1048567</v>
+        <v>1015314</v>
       </c>
       <c r="I106" s="11">
-        <v>1048951</v>
+        <v>1047836</v>
       </c>
       <c r="J106" s="11">
-        <v>1015314</v>
+        <v>1076453</v>
       </c>
       <c r="K106" s="11">
-        <v>1047836</v>
+        <v>1084163</v>
       </c>
       <c r="L106" s="11">
-        <v>1076453</v>
+        <v>1087089</v>
       </c>
       <c r="M106" s="11">
-        <v>1084163</v>
+        <v>1240343</v>
       </c>
       <c r="N106" s="11">
-        <v>1087089</v>
+        <v>1596774</v>
       </c>
       <c r="O106" s="11">
-        <v>1240343</v>
+        <v>1647541</v>
       </c>
       <c r="P106" s="11">
-        <v>1596774</v>
+        <v>1649140</v>
       </c>
       <c r="Q106" s="11">
-        <v>1647541</v>
+        <v>1756098</v>
       </c>
       <c r="R106" s="11">
-        <v>1649140</v>
+        <v>0</v>
       </c>
       <c r="S106" s="11">
-        <v>1756098</v>
+        <v>1750000</v>
       </c>
       <c r="T106" s="11">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="U106" s="11">
-        <v>1750000</v>
-      </c>
-      <c r="V106" s="11">
-        <v>1800000</v>
-      </c>
-      <c r="W106" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V106" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W106" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X106" s="11" t="s">
         <v>57</v>
@@ -14437,30 +14437,30 @@
       <c r="AA106" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB106" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC106" s="11" t="s">
-        <v>57</v>
+      <c r="AB106" s="11">
+        <v>2146341</v>
+      </c>
+      <c r="AC106" s="11">
+        <v>2140787</v>
       </c>
       <c r="AD106" s="11">
-        <v>2146341</v>
+        <v>2141678</v>
       </c>
       <c r="AE106" s="11">
-        <v>2140787</v>
+        <v>2143469</v>
       </c>
       <c r="AF106" s="11">
-        <v>2141678</v>
+        <v>2144455</v>
       </c>
       <c r="AG106" s="11">
-        <v>2143469</v>
-      </c>
-      <c r="AH106" s="11">
-        <v>2144455</v>
-      </c>
-      <c r="AI106" s="11">
         <v>2143609</v>
       </c>
+      <c r="AH106" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI106" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ106" s="11" t="s">
         <v>57</v>
       </c>
@@ -14491,29 +14491,29 @@
       <c r="AS106" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT106" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU106" s="11" t="s">
-        <v>57</v>
+      <c r="AT106" s="11">
+        <v>3449050</v>
+      </c>
+      <c r="AU106" s="11">
+        <v>3462185</v>
       </c>
       <c r="AV106" s="11">
-        <v>3449050</v>
+        <v>3448360</v>
       </c>
       <c r="AW106" s="11">
-        <v>3462185</v>
+        <v>3450773</v>
       </c>
       <c r="AX106" s="11">
-        <v>3448360</v>
+        <v>3451002</v>
       </c>
       <c r="AY106" s="11">
-        <v>3450773</v>
-      </c>
-      <c r="AZ106" s="11">
-        <v>3451299</v>
+        <v>3454248</v>
+      </c>
+      <c r="AZ106" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BA106" s="11">
-        <v>3454248</v>
+        <v>8000000</v>
       </c>
       <c r="BB106" s="11" t="s">
         <v>57</v>
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="13">
-        <v>909091</v>
+        <v>0</v>
       </c>
       <c r="G107" s="13">
         <v>0</v>
@@ -14558,67 +14558,67 @@
         <v>0</v>
       </c>
       <c r="O107" s="13">
-        <v>0</v>
+        <v>1900943</v>
       </c>
       <c r="P107" s="13">
-        <v>0</v>
+        <v>1735068</v>
       </c>
       <c r="Q107" s="13">
-        <v>1900943</v>
+        <v>1795628</v>
       </c>
       <c r="R107" s="13">
-        <v>1735068</v>
+        <v>1820395</v>
       </c>
       <c r="S107" s="13">
-        <v>1795628</v>
+        <v>1944981</v>
       </c>
       <c r="T107" s="13">
-        <v>1820395</v>
+        <v>1969618</v>
       </c>
       <c r="U107" s="13">
-        <v>1944981</v>
-      </c>
-      <c r="V107" s="13">
-        <v>1969618</v>
-      </c>
-      <c r="W107" s="13">
         <v>2222763</v>
       </c>
+      <c r="V107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W107" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z107" s="13" t="s">
-        <v>57</v>
+      <c r="Y107" s="13">
+        <v>2919786</v>
+      </c>
+      <c r="Z107" s="13">
+        <v>3230248</v>
       </c>
       <c r="AA107" s="13">
-        <v>2919786</v>
+        <v>3181628</v>
       </c>
       <c r="AB107" s="13">
-        <v>3230248</v>
+        <v>2828947</v>
       </c>
       <c r="AC107" s="13">
-        <v>3181628</v>
-      </c>
-      <c r="AD107" s="13">
-        <v>2828947</v>
+        <v>2818792</v>
+      </c>
+      <c r="AD107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE107" s="13">
-        <v>2818792</v>
-      </c>
-      <c r="AF107" s="13" t="s">
-        <v>57</v>
+        <v>3903409</v>
+      </c>
+      <c r="AF107" s="13">
+        <v>4781810</v>
       </c>
       <c r="AG107" s="13">
-        <v>3903409</v>
-      </c>
-      <c r="AH107" s="13">
-        <v>4781810</v>
-      </c>
-      <c r="AI107" s="13">
         <v>4978036</v>
+      </c>
+      <c r="AH107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ107" s="13" t="s">
         <v>57</v>
@@ -14737,11 +14737,11 @@
       <c r="U108" s="11">
         <v>0</v>
       </c>
-      <c r="V108" s="11">
-        <v>0</v>
-      </c>
-      <c r="W108" s="11">
-        <v>0</v>
+      <c r="V108" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W108" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X108" s="11" t="s">
         <v>57</v>
@@ -14846,94 +14846,94 @@
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13">
-        <v>1227998</v>
+        <v>1255365</v>
       </c>
       <c r="F109" s="13">
-        <v>1245932</v>
+        <v>1249645</v>
       </c>
       <c r="G109" s="13">
-        <v>1255365</v>
+        <v>1228220</v>
       </c>
       <c r="H109" s="13">
-        <v>1249645</v>
+        <v>1203028</v>
       </c>
       <c r="I109" s="13">
-        <v>1228220</v>
+        <v>1196193</v>
       </c>
       <c r="J109" s="13">
-        <v>1203028</v>
+        <v>1256841</v>
       </c>
       <c r="K109" s="13">
-        <v>1196193</v>
+        <v>1298402</v>
       </c>
       <c r="L109" s="13">
-        <v>1256841</v>
+        <v>1314778</v>
       </c>
       <c r="M109" s="13">
-        <v>1298402</v>
+        <v>1677185</v>
       </c>
       <c r="N109" s="13">
-        <v>1314778</v>
+        <v>1774113</v>
       </c>
       <c r="O109" s="13">
-        <v>1677185</v>
+        <v>1818372</v>
       </c>
       <c r="P109" s="13">
-        <v>1774113</v>
+        <v>1809748</v>
       </c>
       <c r="Q109" s="13">
-        <v>1818372</v>
+        <v>1822302</v>
       </c>
       <c r="R109" s="13">
-        <v>1809748</v>
+        <v>1817990</v>
       </c>
       <c r="S109" s="13">
-        <v>1822302</v>
+        <v>1798939</v>
       </c>
       <c r="T109" s="13">
-        <v>1817990</v>
+        <v>1801572</v>
       </c>
       <c r="U109" s="13">
-        <v>1798939</v>
+        <v>1809021</v>
       </c>
       <c r="V109" s="13">
-        <v>1801572</v>
+        <v>1828361</v>
       </c>
       <c r="W109" s="13">
-        <v>1809021</v>
+        <v>1808399</v>
       </c>
       <c r="X109" s="13">
-        <v>1828361</v>
+        <v>1816137</v>
       </c>
       <c r="Y109" s="13">
-        <v>1808399</v>
+        <v>2117162</v>
       </c>
       <c r="Z109" s="13">
-        <v>1816137</v>
+        <v>2231667</v>
       </c>
       <c r="AA109" s="13">
-        <v>2117162</v>
+        <v>2231657</v>
       </c>
       <c r="AB109" s="13">
-        <v>2231667</v>
+        <v>2231566</v>
       </c>
       <c r="AC109" s="13">
-        <v>2231657</v>
+        <v>2231577</v>
       </c>
       <c r="AD109" s="13">
-        <v>2231566</v>
-      </c>
-      <c r="AE109" s="13">
-        <v>2231577</v>
+        <v>2231826</v>
+      </c>
+      <c r="AE109" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF109" s="13">
-        <v>2231826</v>
+        <v>2231125</v>
       </c>
       <c r="AG109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH109" s="13">
-        <v>2231125</v>
+      <c r="AH109" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI109" s="13" t="s">
         <v>57</v>
@@ -14968,32 +14968,32 @@
       <c r="AS109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT109" s="13" t="s">
-        <v>57</v>
+      <c r="AT109" s="13">
+        <v>5283898</v>
       </c>
       <c r="AU109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV109" s="13">
-        <v>5283898</v>
-      </c>
-      <c r="AW109" s="13">
-        <v>4770884</v>
-      </c>
-      <c r="AX109" s="13">
-        <v>5653044</v>
-      </c>
-      <c r="AY109" s="13">
-        <v>5775726</v>
-      </c>
-      <c r="AZ109" s="13">
-        <v>5870971</v>
-      </c>
-      <c r="BA109" s="13">
-        <v>5867458</v>
-      </c>
-      <c r="BB109" s="13">
-        <v>5713184</v>
+      <c r="AV109" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW109" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX109" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY109" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ109" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA109" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB109" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.3">
@@ -15005,88 +15005,88 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>1283380</v>
+        <v>1342809</v>
       </c>
       <c r="F110" s="11">
-        <v>1364650</v>
+        <v>1360053</v>
       </c>
       <c r="G110" s="11">
-        <v>1342809</v>
+        <v>1346112</v>
       </c>
       <c r="H110" s="11">
-        <v>1360053</v>
+        <v>1386108</v>
       </c>
       <c r="I110" s="11">
-        <v>1346112</v>
+        <v>1470968</v>
       </c>
       <c r="J110" s="11">
-        <v>1386108</v>
+        <v>1543662</v>
       </c>
       <c r="K110" s="11">
-        <v>1470968</v>
+        <v>1527646</v>
       </c>
       <c r="L110" s="11">
-        <v>1543662</v>
+        <v>1562592</v>
       </c>
       <c r="M110" s="11">
-        <v>1527646</v>
+        <v>2000000</v>
       </c>
       <c r="N110" s="11">
-        <v>1562592</v>
+        <v>1961771</v>
       </c>
       <c r="O110" s="11">
-        <v>2000000</v>
+        <v>2053691</v>
       </c>
       <c r="P110" s="11">
-        <v>1961771</v>
+        <v>1960352</v>
       </c>
       <c r="Q110" s="11">
-        <v>2053691</v>
+        <v>2112360</v>
       </c>
       <c r="R110" s="11">
-        <v>1960352</v>
+        <v>2085714</v>
       </c>
       <c r="S110" s="11">
-        <v>2112360</v>
+        <v>2156250</v>
       </c>
       <c r="T110" s="11">
-        <v>2085714</v>
+        <v>2100000</v>
       </c>
       <c r="U110" s="11">
-        <v>2156250</v>
+        <v>2061093</v>
       </c>
       <c r="V110" s="11">
-        <v>2100000</v>
+        <v>2061520</v>
       </c>
       <c r="W110" s="11">
-        <v>2061093</v>
-      </c>
-      <c r="X110" s="11">
-        <v>2061520</v>
-      </c>
-      <c r="Y110" s="11">
         <v>2133333</v>
       </c>
+      <c r="X110" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y110" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Z110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA110" s="11" t="s">
-        <v>57</v>
+      <c r="AA110" s="11">
+        <v>2700063</v>
       </c>
       <c r="AB110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC110" s="11">
-        <v>2700063</v>
-      </c>
-      <c r="AD110" s="11" t="s">
-        <v>57</v>
+      <c r="AC110" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD110" s="11">
+        <v>2719665</v>
       </c>
       <c r="AE110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF110" s="11">
-        <v>2719665</v>
+      <c r="AF110" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG110" s="11" t="s">
         <v>57</v>
@@ -15164,10 +15164,10 @@
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>920052</v>
+        <v>0</v>
       </c>
       <c r="F111" s="13">
-        <v>919499</v>
+        <v>0</v>
       </c>
       <c r="G111" s="13">
         <v>0</v>
@@ -15194,31 +15194,31 @@
         <v>0</v>
       </c>
       <c r="O111" s="13">
-        <v>0</v>
+        <v>1888889</v>
       </c>
       <c r="P111" s="13">
         <v>0</v>
       </c>
       <c r="Q111" s="13">
-        <v>1888889</v>
+        <v>0</v>
       </c>
       <c r="R111" s="13">
         <v>0</v>
       </c>
       <c r="S111" s="13">
-        <v>0</v>
+        <v>1971223</v>
       </c>
       <c r="T111" s="13">
-        <v>0</v>
+        <v>1985507</v>
       </c>
       <c r="U111" s="13">
-        <v>1971223</v>
-      </c>
-      <c r="V111" s="13">
-        <v>1985507</v>
-      </c>
-      <c r="W111" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W111" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X111" s="13" t="s">
         <v>57</v>
@@ -15226,32 +15226,32 @@
       <c r="Y111" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z111" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA111" s="13" t="s">
-        <v>57</v>
+      <c r="Z111" s="13">
+        <v>3247253</v>
+      </c>
+      <c r="AA111" s="13">
+        <v>3551385</v>
       </c>
       <c r="AB111" s="13">
-        <v>3247253</v>
-      </c>
-      <c r="AC111" s="13">
-        <v>3551385</v>
-      </c>
-      <c r="AD111" s="13">
         <v>3919355</v>
       </c>
-      <c r="AE111" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF111" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG111" s="13">
+      <c r="AC111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE111" s="13">
         <v>4183381</v>
       </c>
-      <c r="AH111" s="13">
+      <c r="AF111" s="13">
         <v>4174757</v>
+      </c>
+      <c r="AG111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH111" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI111" s="13" t="s">
         <v>57</v>
@@ -15323,98 +15323,98 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>1272247</v>
+        <v>1333628</v>
       </c>
       <c r="F112" s="11">
-        <v>1307766</v>
+        <v>1417970</v>
       </c>
       <c r="G112" s="11">
-        <v>1333628</v>
+        <v>1398237</v>
       </c>
       <c r="H112" s="11">
-        <v>1417970</v>
+        <v>1421653</v>
       </c>
       <c r="I112" s="11">
-        <v>1398237</v>
+        <v>1446675</v>
       </c>
       <c r="J112" s="11">
-        <v>1421653</v>
+        <v>1542396</v>
       </c>
       <c r="K112" s="11">
-        <v>1446675</v>
+        <v>1539327</v>
       </c>
       <c r="L112" s="11">
-        <v>1542396</v>
+        <v>1546742</v>
       </c>
       <c r="M112" s="11">
-        <v>1539327</v>
+        <v>1901496</v>
       </c>
       <c r="N112" s="11">
-        <v>1546742</v>
+        <v>1885348</v>
       </c>
       <c r="O112" s="11">
-        <v>1901496</v>
+        <v>1933316</v>
       </c>
       <c r="P112" s="11">
-        <v>1885348</v>
+        <v>1995355</v>
       </c>
       <c r="Q112" s="11">
-        <v>1933316</v>
+        <v>2044774</v>
       </c>
       <c r="R112" s="11">
-        <v>1995355</v>
+        <v>2069221</v>
       </c>
       <c r="S112" s="11">
-        <v>2044774</v>
+        <v>2065464</v>
       </c>
       <c r="T112" s="11">
-        <v>2069221</v>
+        <v>2044158</v>
       </c>
       <c r="U112" s="11">
-        <v>2065464</v>
+        <v>2062389</v>
       </c>
       <c r="V112" s="11">
-        <v>2044158</v>
+        <v>2074396</v>
       </c>
       <c r="W112" s="11">
-        <v>2062389</v>
+        <v>2081346</v>
       </c>
       <c r="X112" s="11">
-        <v>2074396</v>
-      </c>
-      <c r="Y112" s="11">
-        <v>2081346</v>
+        <v>2089243</v>
+      </c>
+      <c r="Y112" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Z112" s="11">
-        <v>2089243</v>
-      </c>
-      <c r="AA112" s="11" t="s">
-        <v>57</v>
+        <v>2632887</v>
+      </c>
+      <c r="AA112" s="11">
+        <v>2647870</v>
       </c>
       <c r="AB112" s="11">
-        <v>2632887</v>
+        <v>2738881</v>
       </c>
       <c r="AC112" s="11">
-        <v>2647870</v>
+        <v>2981729</v>
       </c>
       <c r="AD112" s="11">
-        <v>2738881</v>
+        <v>3042256</v>
       </c>
       <c r="AE112" s="11">
-        <v>2981729</v>
+        <v>3048107</v>
       </c>
       <c r="AF112" s="11">
-        <v>3042256</v>
+        <v>3047977</v>
       </c>
       <c r="AG112" s="11">
-        <v>3048107</v>
-      </c>
-      <c r="AH112" s="11">
-        <v>3047977</v>
-      </c>
-      <c r="AI112" s="11">
         <v>3048595</v>
       </c>
+      <c r="AH112" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI112" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ112" s="11" t="s">
         <v>57</v>
       </c>
@@ -15445,32 +15445,32 @@
       <c r="AS112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT112" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU112" s="11" t="s">
-        <v>57</v>
+      <c r="AT112" s="11">
+        <v>6227562</v>
+      </c>
+      <c r="AU112" s="11">
+        <v>6027022</v>
       </c>
       <c r="AV112" s="11">
-        <v>6227562</v>
+        <v>7097731</v>
       </c>
       <c r="AW112" s="11">
-        <v>6027022</v>
+        <v>7192401</v>
       </c>
       <c r="AX112" s="11">
-        <v>7097731</v>
+        <v>6764411</v>
       </c>
       <c r="AY112" s="11">
-        <v>7192401</v>
+        <v>6381808</v>
       </c>
       <c r="AZ112" s="11">
-        <v>6764495</v>
+        <v>6016987</v>
       </c>
       <c r="BA112" s="11">
-        <v>6381808</v>
+        <v>5794531</v>
       </c>
       <c r="BB112" s="11">
-        <v>6016987</v>
+        <v>5822843</v>
       </c>
     </row>
     <row r="113" spans="2:54" x14ac:dyDescent="0.3">
@@ -15482,68 +15482,68 @@
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13">
-        <v>1135593</v>
+        <v>1122727</v>
       </c>
       <c r="F113" s="13">
-        <v>1135266</v>
+        <v>1061224</v>
       </c>
       <c r="G113" s="13">
-        <v>1122727</v>
+        <v>1103774</v>
       </c>
       <c r="H113" s="13">
-        <v>1061224</v>
+        <v>1081395</v>
       </c>
       <c r="I113" s="13">
-        <v>1103774</v>
+        <v>1121622</v>
       </c>
       <c r="J113" s="13">
-        <v>1081395</v>
+        <v>1155172</v>
       </c>
       <c r="K113" s="13">
-        <v>1121622</v>
+        <v>1171875</v>
       </c>
       <c r="L113" s="13">
-        <v>1155172</v>
+        <v>1146067</v>
       </c>
       <c r="M113" s="13">
-        <v>1171875</v>
+        <v>0</v>
       </c>
       <c r="N113" s="13">
-        <v>1146067</v>
+        <v>1573333</v>
       </c>
       <c r="O113" s="13">
-        <v>0</v>
+        <v>1655556</v>
       </c>
       <c r="P113" s="13">
-        <v>1573333</v>
+        <v>1750000</v>
       </c>
       <c r="Q113" s="13">
-        <v>1655556</v>
+        <v>1709677</v>
       </c>
       <c r="R113" s="13">
-        <v>1750000</v>
+        <v>1764706</v>
       </c>
       <c r="S113" s="13">
-        <v>1709677</v>
+        <v>0</v>
       </c>
       <c r="T113" s="13">
-        <v>1764706</v>
+        <v>0</v>
       </c>
       <c r="U113" s="13">
-        <v>0</v>
+        <v>1621212</v>
       </c>
       <c r="V113" s="13">
-        <v>0</v>
+        <v>1733333</v>
       </c>
       <c r="W113" s="13">
-        <v>1621212</v>
-      </c>
-      <c r="X113" s="13">
-        <v>1733333</v>
-      </c>
-      <c r="Y113" s="13">
         <v>1744681</v>
       </c>
+      <c r="X113" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y113" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Z113" s="13" t="s">
         <v>57</v>
       </c>
@@ -15604,20 +15604,20 @@
       <c r="AS113" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT113" s="13" t="s">
-        <v>57</v>
+      <c r="AT113" s="13">
+        <v>3391304</v>
       </c>
       <c r="AU113" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV113" s="13">
-        <v>3391304</v>
+      <c r="AV113" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AW113" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX113" s="13" t="s">
-        <v>57</v>
+      <c r="AX113" s="13">
+        <v>0</v>
       </c>
       <c r="AY113" s="13" t="s">
         <v>57</v>
@@ -15691,21 +15691,21 @@
       <c r="U114" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V114" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W114" s="11" t="s">
-        <v>57</v>
+      <c r="V114" s="11">
+        <v>2216359</v>
+      </c>
+      <c r="W114" s="11">
+        <v>2414467</v>
       </c>
       <c r="X114" s="11">
-        <v>2216359</v>
-      </c>
-      <c r="Y114" s="11">
-        <v>2414467</v>
-      </c>
-      <c r="Z114" s="11">
         <v>2748963</v>
       </c>
+      <c r="Y114" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z114" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA114" s="11" t="s">
         <v>57</v>
       </c>
@@ -15766,29 +15766,29 @@
       <c r="AT114" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU114" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV114" s="11" t="s">
-        <v>57</v>
+      <c r="AU114" s="11">
+        <v>4811579</v>
+      </c>
+      <c r="AV114" s="11">
+        <v>5698925</v>
       </c>
       <c r="AW114" s="11">
-        <v>9343434</v>
+        <v>5811146</v>
       </c>
       <c r="AX114" s="11">
-        <v>9026786</v>
+        <v>-3498793</v>
       </c>
       <c r="AY114" s="11">
-        <v>9111675</v>
-      </c>
-      <c r="AZ114" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA114" s="11" t="s">
-        <v>57</v>
+        <v>5867458</v>
+      </c>
+      <c r="AZ114" s="11">
+        <v>5728739</v>
+      </c>
+      <c r="BA114" s="11">
+        <v>5519517</v>
       </c>
       <c r="BB114" s="11">
-        <v>7164265</v>
+        <v>5373056</v>
       </c>
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.3">
@@ -15922,32 +15922,32 @@
       <c r="AS115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT115" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU115" s="13" t="s">
-        <v>57</v>
+      <c r="AT115" s="13">
+        <v>5359306</v>
+      </c>
+      <c r="AU115" s="13">
+        <v>5364971</v>
       </c>
       <c r="AV115" s="13">
-        <v>5359306</v>
+        <v>6417424</v>
       </c>
       <c r="AW115" s="13">
-        <v>5364971</v>
+        <v>6770026</v>
       </c>
       <c r="AX115" s="13">
-        <v>6417424</v>
+        <v>6517441</v>
       </c>
       <c r="AY115" s="13">
-        <v>6770026</v>
+        <v>6369843</v>
       </c>
       <c r="AZ115" s="13">
-        <v>6517707</v>
+        <v>6165482</v>
       </c>
       <c r="BA115" s="13">
-        <v>6369843</v>
+        <v>5793951</v>
       </c>
       <c r="BB115" s="13">
-        <v>6165482</v>
+        <v>5638752</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/sesoufi/product/monthly.xlsx
+++ b/database/industries/siman/sesoufi/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="90">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3525,55 +3525,55 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>637</v>
+        <v>7444</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>7444</v>
+        <v>10908</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>10908</v>
+        <v>11835</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>11835</v>
+        <v>10670</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>10670</v>
+        <v>3491</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>3491</v>
+        <v>1465</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>1465</v>
+        <v>1878</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>1878</v>
+        <v>0</v>
       </c>
       <c r="M11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>118</v>
+        <v>3353</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>3353</v>
+        <v>2242</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>2242</v>
+        <v>1092</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>1092</v>
+        <v>2329</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>2329</v>
+        <v>8482</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>8482</v>
+        <v>6863</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>6863</v>
+        <v>0</v>
       </c>
       <c r="V11" s="12" t="n">
         <v>0</v>
@@ -3600,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>4245</v>
+        <v>1040</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="12" t="n">
         <v>0</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="12" t="n">
         <v>0</v>
@@ -3654,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>0</v>
+        <v>3621</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>3621</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="12" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>222</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,50 +3758,50 @@
       <c r="AC12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" s="15" t="s">
-        <v>58</v>
+      <c r="AD12" s="15" t="n">
+        <v>131262</v>
       </c>
       <c r="AE12" s="15" t="n">
-        <v>131262</v>
+        <v>160367</v>
       </c>
       <c r="AF12" s="15" t="n">
-        <v>160367</v>
+        <v>175578</v>
       </c>
       <c r="AG12" s="15" t="n">
-        <v>175578</v>
+        <v>125023</v>
       </c>
       <c r="AH12" s="15" t="n">
-        <v>125023</v>
+        <v>132647</v>
       </c>
       <c r="AI12" s="15" t="n">
-        <v>132647</v>
+        <v>166769</v>
       </c>
       <c r="AJ12" s="15" t="n">
-        <v>166769</v>
+        <v>193019</v>
       </c>
       <c r="AK12" s="15" t="n">
-        <v>193019</v>
+        <v>171107</v>
       </c>
       <c r="AL12" s="15" t="n">
-        <v>171107</v>
+        <v>163290</v>
       </c>
       <c r="AM12" s="15" t="n">
-        <v>163290</v>
+        <v>74712</v>
       </c>
       <c r="AN12" s="15" t="n">
-        <v>74712</v>
+        <v>95056</v>
       </c>
       <c r="AO12" s="15" t="n">
-        <v>95056</v>
-      </c>
-      <c r="AP12" s="15" t="n">
         <v>166455</v>
       </c>
-      <c r="AQ12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR12" s="15" t="n">
-        <v>0</v>
+      <c r="AP12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AS12" s="15" t="s">
         <v>58</v>
@@ -3855,34 +3855,34 @@
         <v>0</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0</v>
+        <v>5755</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>5755</v>
+        <v>5309</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>5309</v>
+        <v>10006</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>10006</v>
+        <v>4894</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>4894</v>
+        <v>10385</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>10385</v>
+        <v>8313</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>8313</v>
+        <v>5361</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>5361</v>
+        <v>7140</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>7140</v>
-      </c>
-      <c r="R13" s="12" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S13" s="16" t="s">
         <v>58</v>
@@ -3890,35 +3890,35 @@
       <c r="T13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="16" t="s">
-        <v>58</v>
+      <c r="U13" s="16" t="n">
+        <v>6497</v>
       </c>
       <c r="V13" s="16" t="n">
-        <v>6497</v>
+        <v>7173</v>
       </c>
       <c r="W13" s="16" t="n">
-        <v>7173</v>
+        <v>8197</v>
       </c>
       <c r="X13" s="16" t="n">
-        <v>8197</v>
+        <v>4407</v>
       </c>
       <c r="Y13" s="16" t="n">
-        <v>4407</v>
+        <v>1941</v>
       </c>
       <c r="Z13" s="16" t="n">
-        <v>1941</v>
+        <v>2561</v>
       </c>
       <c r="AA13" s="16" t="n">
-        <v>2561</v>
+        <v>2615</v>
       </c>
       <c r="AB13" s="16" t="n">
-        <v>2615</v>
+        <v>2767</v>
       </c>
       <c r="AC13" s="16" t="n">
-        <v>2767</v>
-      </c>
-      <c r="AD13" s="16" t="n">
         <v>4960</v>
+      </c>
+      <c r="AD13" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE13" s="16" t="s">
         <v>58</v>
@@ -4002,83 +4002,83 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="n">
-        <v>22428</v>
+        <v>46452</v>
       </c>
       <c r="F14" s="15" t="n">
-        <v>46452</v>
+        <v>39165</v>
       </c>
       <c r="G14" s="15" t="n">
-        <v>39165</v>
+        <v>71587</v>
       </c>
       <c r="H14" s="15" t="n">
-        <v>71587</v>
+        <v>70273</v>
       </c>
       <c r="I14" s="15" t="n">
-        <v>70273</v>
+        <v>67678</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>67678</v>
+        <v>66733</v>
       </c>
       <c r="K14" s="15" t="n">
-        <v>66733</v>
+        <v>72920</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>72920</v>
+        <v>88150</v>
       </c>
       <c r="M14" s="15" t="n">
-        <v>88150</v>
+        <v>75551</v>
       </c>
       <c r="N14" s="15" t="n">
-        <v>75551</v>
+        <v>40194</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>40194</v>
+        <v>26672</v>
       </c>
       <c r="P14" s="15" t="n">
-        <v>26672</v>
+        <v>20460</v>
       </c>
       <c r="Q14" s="15" t="n">
-        <v>20460</v>
+        <v>78346</v>
       </c>
       <c r="R14" s="15" t="n">
-        <v>78346</v>
+        <v>81413</v>
       </c>
       <c r="S14" s="15" t="n">
-        <v>81413</v>
+        <v>95972</v>
       </c>
       <c r="T14" s="15" t="n">
-        <v>95972</v>
+        <v>91938</v>
       </c>
       <c r="U14" s="15" t="n">
-        <v>91938</v>
+        <v>97872</v>
       </c>
       <c r="V14" s="15" t="n">
-        <v>97872</v>
+        <v>67087</v>
       </c>
       <c r="W14" s="15" t="n">
-        <v>67087</v>
+        <v>68411</v>
       </c>
       <c r="X14" s="15" t="n">
-        <v>68411</v>
+        <v>64245</v>
       </c>
       <c r="Y14" s="15" t="n">
-        <v>64245</v>
+        <v>55320</v>
       </c>
       <c r="Z14" s="15" t="n">
-        <v>55320</v>
+        <v>61660</v>
       </c>
       <c r="AA14" s="15" t="n">
-        <v>61660</v>
+        <v>35239</v>
       </c>
       <c r="AB14" s="15" t="n">
-        <v>35239</v>
+        <v>42079</v>
       </c>
       <c r="AC14" s="15" t="n">
-        <v>42079</v>
-      </c>
-      <c r="AD14" s="15" t="n">
         <v>56222</v>
       </c>
+      <c r="AD14" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE14" s="15" t="s">
         <v>58</v>
       </c>
@@ -4112,44 +4112,44 @@
       <c r="AO14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP14" s="15" t="s">
-        <v>58</v>
+      <c r="AP14" s="15" t="n">
+        <v>61258</v>
       </c>
       <c r="AQ14" s="15" t="n">
-        <v>61258</v>
+        <v>69165</v>
       </c>
       <c r="AR14" s="15" t="n">
-        <v>69165</v>
+        <v>72172</v>
       </c>
       <c r="AS14" s="15" t="n">
-        <v>72172</v>
+        <v>52548</v>
       </c>
       <c r="AT14" s="15" t="n">
-        <v>52548</v>
+        <v>52024</v>
       </c>
       <c r="AU14" s="15" t="n">
-        <v>52024</v>
+        <v>68487</v>
       </c>
       <c r="AV14" s="15" t="n">
-        <v>68487</v>
+        <v>64433</v>
       </c>
       <c r="AW14" s="15" t="n">
-        <v>64433</v>
+        <v>60936</v>
       </c>
       <c r="AX14" s="15" t="n">
-        <v>60936</v>
+        <v>36337</v>
       </c>
       <c r="AY14" s="15" t="n">
-        <v>36337</v>
+        <v>22004</v>
       </c>
       <c r="AZ14" s="15" t="n">
-        <v>22004</v>
+        <v>28423</v>
       </c>
       <c r="BA14" s="15" t="n">
-        <v>28423</v>
+        <v>55880</v>
       </c>
       <c r="BB14" s="15" t="n">
-        <v>55880</v>
+        <v>46226</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4199,18 +4199,18 @@
       <c r="Q15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R15" s="16" t="s">
-        <v>58</v>
+      <c r="R15" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S15" s="16" t="n">
-        <v>0</v>
+        <v>2206</v>
       </c>
       <c r="T15" s="16" t="n">
-        <v>2206</v>
-      </c>
-      <c r="U15" s="16" t="n">
         <v>4840</v>
       </c>
+      <c r="U15" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V15" s="16" t="s">
         <v>58</v>
       </c>
@@ -4271,44 +4271,44 @@
       <c r="AO15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP15" s="16" t="s">
-        <v>58</v>
+      <c r="AP15" s="16" t="n">
+        <v>741</v>
       </c>
       <c r="AQ15" s="16" t="n">
-        <v>741</v>
+        <v>1244</v>
       </c>
       <c r="AR15" s="16" t="n">
-        <v>1244</v>
+        <v>1001</v>
       </c>
       <c r="AS15" s="16" t="n">
-        <v>1001</v>
+        <v>1274</v>
       </c>
       <c r="AT15" s="16" t="n">
-        <v>1274</v>
+        <v>2879</v>
       </c>
       <c r="AU15" s="16" t="n">
-        <v>2879</v>
+        <v>12952</v>
       </c>
       <c r="AV15" s="16" t="n">
-        <v>12952</v>
+        <v>16331</v>
       </c>
       <c r="AW15" s="16" t="n">
-        <v>16331</v>
+        <v>23413</v>
       </c>
       <c r="AX15" s="16" t="n">
-        <v>23413</v>
+        <v>23470</v>
       </c>
       <c r="AY15" s="16" t="n">
-        <v>23470</v>
+        <v>19866</v>
       </c>
       <c r="AZ15" s="16" t="n">
-        <v>19866</v>
+        <v>24024</v>
       </c>
       <c r="BA15" s="16" t="n">
-        <v>24024</v>
+        <v>32234</v>
       </c>
       <c r="BB15" s="16" t="n">
-        <v>32234</v>
+        <v>26004</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,83 +4320,83 @@
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="n">
-        <v>16326</v>
+        <v>44669</v>
       </c>
       <c r="F16" s="15" t="n">
-        <v>44669</v>
+        <v>30080</v>
       </c>
       <c r="G16" s="15" t="n">
-        <v>30080</v>
+        <v>43467</v>
       </c>
       <c r="H16" s="15" t="n">
-        <v>43467</v>
+        <v>56847</v>
       </c>
       <c r="I16" s="15" t="n">
-        <v>56847</v>
+        <v>52616</v>
       </c>
       <c r="J16" s="15" t="n">
-        <v>52616</v>
+        <v>43182</v>
       </c>
       <c r="K16" s="15" t="n">
-        <v>43182</v>
+        <v>38631</v>
       </c>
       <c r="L16" s="15" t="n">
-        <v>38631</v>
+        <v>52127</v>
       </c>
       <c r="M16" s="15" t="n">
-        <v>52127</v>
+        <v>49760</v>
       </c>
       <c r="N16" s="15" t="n">
-        <v>49760</v>
+        <v>39676</v>
       </c>
       <c r="O16" s="15" t="n">
-        <v>39676</v>
+        <v>26064</v>
       </c>
       <c r="P16" s="15" t="n">
-        <v>26064</v>
+        <v>9302</v>
       </c>
       <c r="Q16" s="15" t="n">
-        <v>9302</v>
+        <v>43471</v>
       </c>
       <c r="R16" s="15" t="n">
-        <v>43471</v>
+        <v>39638</v>
       </c>
       <c r="S16" s="15" t="n">
-        <v>39638</v>
+        <v>46410</v>
       </c>
       <c r="T16" s="15" t="n">
-        <v>46410</v>
+        <v>66130</v>
       </c>
       <c r="U16" s="15" t="n">
-        <v>66130</v>
+        <v>73497</v>
       </c>
       <c r="V16" s="15" t="n">
-        <v>73497</v>
+        <v>67338</v>
       </c>
       <c r="W16" s="15" t="n">
-        <v>67338</v>
+        <v>58923</v>
       </c>
       <c r="X16" s="15" t="n">
-        <v>58923</v>
+        <v>65087</v>
       </c>
       <c r="Y16" s="15" t="n">
-        <v>65087</v>
+        <v>40103</v>
       </c>
       <c r="Z16" s="15" t="n">
-        <v>40103</v>
+        <v>44607</v>
       </c>
       <c r="AA16" s="15" t="n">
-        <v>44607</v>
+        <v>35055</v>
       </c>
       <c r="AB16" s="15" t="n">
-        <v>35055</v>
+        <v>46944</v>
       </c>
       <c r="AC16" s="15" t="n">
-        <v>46944</v>
-      </c>
-      <c r="AD16" s="15" t="n">
         <v>79229</v>
       </c>
+      <c r="AD16" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE16" s="15" t="s">
         <v>58</v>
       </c>
@@ -4430,44 +4430,44 @@
       <c r="AO16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP16" s="15" t="s">
-        <v>58</v>
+      <c r="AP16" s="15" t="n">
+        <v>30189</v>
       </c>
       <c r="AQ16" s="15" t="n">
-        <v>30189</v>
+        <v>69431</v>
       </c>
       <c r="AR16" s="15" t="n">
-        <v>69431</v>
+        <v>57757</v>
       </c>
       <c r="AS16" s="15" t="n">
-        <v>57757</v>
+        <v>64337</v>
       </c>
       <c r="AT16" s="15" t="n">
-        <v>64337</v>
+        <v>35806</v>
       </c>
       <c r="AU16" s="15" t="n">
-        <v>35806</v>
+        <v>29273</v>
       </c>
       <c r="AV16" s="15" t="n">
-        <v>29273</v>
+        <v>33780</v>
       </c>
       <c r="AW16" s="15" t="n">
-        <v>33780</v>
+        <v>28009</v>
       </c>
       <c r="AX16" s="15" t="n">
-        <v>28009</v>
+        <v>29623</v>
       </c>
       <c r="AY16" s="15" t="n">
-        <v>29623</v>
+        <v>36526</v>
       </c>
       <c r="AZ16" s="15" t="n">
-        <v>36526</v>
+        <v>14527</v>
       </c>
       <c r="BA16" s="15" t="n">
-        <v>14527</v>
+        <v>26327</v>
       </c>
       <c r="BB16" s="15" t="n">
-        <v>26327</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,67 +4494,67 @@
         <v>0</v>
       </c>
       <c r="J17" s="16" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="K17" s="16" t="n">
-        <v>201</v>
+        <v>5839</v>
       </c>
       <c r="L17" s="16" t="n">
-        <v>5839</v>
+        <v>6678</v>
       </c>
       <c r="M17" s="16" t="n">
-        <v>6678</v>
+        <v>5532</v>
       </c>
       <c r="N17" s="16" t="n">
-        <v>5532</v>
+        <v>4887</v>
       </c>
       <c r="O17" s="16" t="n">
-        <v>4887</v>
+        <v>3256</v>
       </c>
       <c r="P17" s="16" t="n">
-        <v>3256</v>
+        <v>3192</v>
       </c>
       <c r="Q17" s="16" t="n">
-        <v>3192</v>
-      </c>
-      <c r="R17" s="16" t="n">
         <v>2392</v>
       </c>
+      <c r="R17" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="S17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="T17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="16" t="s">
-        <v>58</v>
+      <c r="U17" s="16" t="n">
+        <v>8883</v>
       </c>
       <c r="V17" s="16" t="n">
-        <v>8883</v>
+        <v>7526</v>
       </c>
       <c r="W17" s="16" t="n">
-        <v>7526</v>
+        <v>10061</v>
       </c>
       <c r="X17" s="16" t="n">
-        <v>10061</v>
+        <v>3726</v>
       </c>
       <c r="Y17" s="16" t="n">
-        <v>3726</v>
+        <v>2580</v>
       </c>
       <c r="Z17" s="16" t="n">
-        <v>2580</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="16" t="n">
-        <v>0</v>
+        <v>1574</v>
       </c>
       <c r="AB17" s="16" t="n">
-        <v>1574</v>
+        <v>5879</v>
       </c>
       <c r="AC17" s="16" t="n">
-        <v>5879</v>
-      </c>
-      <c r="AD17" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE17" s="16" t="s">
         <v>58</v>
@@ -4638,70 +4638,70 @@
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="n">
-        <v>3030</v>
+        <v>4506</v>
       </c>
       <c r="F18" s="15" t="n">
-        <v>4506</v>
+        <v>11077</v>
       </c>
       <c r="G18" s="15" t="n">
-        <v>11077</v>
+        <v>10617</v>
       </c>
       <c r="H18" s="15" t="n">
-        <v>10617</v>
+        <v>6292</v>
       </c>
       <c r="I18" s="15" t="n">
-        <v>6292</v>
+        <v>30</v>
       </c>
       <c r="J18" s="15" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K18" s="15" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M18" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="N18" s="15" t="n">
+      <c r="P18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="O18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="15" t="n">
+      <c r="T18" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="Q18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="15" t="n">
-        <v>10</v>
-      </c>
       <c r="U18" s="15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X18" s="15" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="Y18" s="15" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="Z18" s="15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="15" t="n">
         <v>0</v>
@@ -4712,8 +4712,8 @@
       <c r="AC18" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" s="15" t="n">
-        <v>0</v>
+      <c r="AD18" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE18" s="15" t="s">
         <v>58</v>
@@ -4797,31 +4797,31 @@
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16" t="n">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="F19" s="16" t="n">
-        <v>1845</v>
+        <v>2590</v>
       </c>
       <c r="G19" s="16" t="n">
-        <v>2590</v>
+        <v>1721</v>
       </c>
       <c r="H19" s="16" t="n">
-        <v>1721</v>
+        <v>2052</v>
       </c>
       <c r="I19" s="16" t="n">
-        <v>2052</v>
+        <v>248</v>
       </c>
       <c r="J19" s="16" t="n">
-        <v>248</v>
+        <v>1717</v>
       </c>
       <c r="K19" s="16" t="n">
-        <v>1717</v>
+        <v>0</v>
       </c>
       <c r="L19" s="16" t="n">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M19" s="16" t="n">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="N19" s="16" t="n">
         <v>0</v>
@@ -4845,88 +4845,88 @@
         <v>0</v>
       </c>
       <c r="U19" s="16" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="V19" s="16" t="n">
+        <v>546</v>
+      </c>
+      <c r="W19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y19" s="16" t="n">
+        <v>1637</v>
+      </c>
+      <c r="Z19" s="16" t="n">
+        <v>430</v>
+      </c>
+      <c r="AA19" s="16" t="n">
+        <v>748</v>
+      </c>
+      <c r="AB19" s="16" t="n">
+        <v>1362</v>
+      </c>
+      <c r="AC19" s="16" t="n">
+        <v>1097</v>
+      </c>
+      <c r="AD19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP19" s="16" t="n">
         <v>600</v>
       </c>
-      <c r="W19" s="16" t="n">
-        <v>546</v>
-      </c>
-      <c r="X19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="16" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z19" s="16" t="n">
-        <v>1637</v>
-      </c>
-      <c r="AA19" s="16" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB19" s="16" t="n">
-        <v>748</v>
-      </c>
-      <c r="AC19" s="16" t="n">
-        <v>1362</v>
-      </c>
-      <c r="AD19" s="16" t="n">
-        <v>1097</v>
-      </c>
-      <c r="AE19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP19" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="AQ19" s="16" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="AR19" s="16" t="n">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="16" t="n">
-        <v>0</v>
+        <v>2320</v>
       </c>
       <c r="AT19" s="16" t="n">
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="16" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="AV19" s="16" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="16" t="n">
         <v>0</v>
@@ -4974,64 +4974,64 @@
         <v>0</v>
       </c>
       <c r="K20" s="15" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="L20" s="15" t="n">
-        <v>424</v>
+        <v>1691</v>
       </c>
       <c r="M20" s="15" t="n">
-        <v>1691</v>
+        <v>1967</v>
       </c>
       <c r="N20" s="15" t="n">
-        <v>1967</v>
+        <v>2834</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>2834</v>
+        <v>1345</v>
       </c>
       <c r="P20" s="15" t="n">
-        <v>1345</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="15" t="n">
         <v>1028</v>
       </c>
+      <c r="R20" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="S20" s="15" t="s">
         <v>58</v>
       </c>
       <c r="T20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="15" t="s">
-        <v>58</v>
+      <c r="U20" s="15" t="n">
+        <v>2805</v>
       </c>
       <c r="V20" s="15" t="n">
-        <v>2805</v>
+        <v>1772</v>
       </c>
       <c r="W20" s="15" t="n">
-        <v>1772</v>
+        <v>479</v>
       </c>
       <c r="X20" s="15" t="n">
-        <v>479</v>
+        <v>76</v>
       </c>
       <c r="Y20" s="15" t="n">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="Z20" s="15" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="15" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="AB20" s="15" t="n">
-        <v>176</v>
+        <v>2122</v>
       </c>
       <c r="AC20" s="15" t="n">
-        <v>2122</v>
-      </c>
-      <c r="AD20" s="15" t="n">
         <v>1548</v>
+      </c>
+      <c r="AD20" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE20" s="15" t="s">
         <v>58</v>
@@ -5153,8 +5153,8 @@
       <c r="Q21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R21" s="16" t="n">
-        <v>0</v>
+      <c r="R21" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S21" s="16" t="s">
         <v>58</v>
@@ -5274,83 +5274,83 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="n">
-        <v>6468</v>
+        <v>9813</v>
       </c>
       <c r="F22" s="15" t="n">
-        <v>9813</v>
+        <v>4809</v>
       </c>
       <c r="G22" s="15" t="n">
-        <v>4809</v>
+        <v>13703</v>
       </c>
       <c r="H22" s="15" t="n">
-        <v>13703</v>
+        <v>7122</v>
       </c>
       <c r="I22" s="15" t="n">
-        <v>7122</v>
+        <v>9740</v>
       </c>
       <c r="J22" s="15" t="n">
-        <v>9740</v>
+        <v>4643</v>
       </c>
       <c r="K22" s="15" t="n">
-        <v>4643</v>
+        <v>4542</v>
       </c>
       <c r="L22" s="15" t="n">
-        <v>4542</v>
+        <v>5836</v>
       </c>
       <c r="M22" s="15" t="n">
-        <v>5836</v>
+        <v>7696</v>
       </c>
       <c r="N22" s="15" t="n">
-        <v>7696</v>
+        <v>1309</v>
       </c>
       <c r="O22" s="15" t="n">
-        <v>1309</v>
+        <v>2485</v>
       </c>
       <c r="P22" s="15" t="n">
-        <v>2485</v>
+        <v>1533</v>
       </c>
       <c r="Q22" s="15" t="n">
-        <v>1533</v>
+        <v>5895</v>
       </c>
       <c r="R22" s="15" t="n">
-        <v>5895</v>
+        <v>16102</v>
       </c>
       <c r="S22" s="15" t="n">
-        <v>16102</v>
+        <v>15697</v>
       </c>
       <c r="T22" s="15" t="n">
-        <v>15697</v>
+        <v>10911</v>
       </c>
       <c r="U22" s="15" t="n">
-        <v>10911</v>
+        <v>17688</v>
       </c>
       <c r="V22" s="15" t="n">
-        <v>17688</v>
+        <v>18992</v>
       </c>
       <c r="W22" s="15" t="n">
-        <v>18992</v>
+        <v>17827</v>
       </c>
       <c r="X22" s="15" t="n">
-        <v>17827</v>
+        <v>17643</v>
       </c>
       <c r="Y22" s="15" t="n">
-        <v>17643</v>
+        <v>6246</v>
       </c>
       <c r="Z22" s="15" t="n">
-        <v>6246</v>
+        <v>4915</v>
       </c>
       <c r="AA22" s="15" t="n">
-        <v>4915</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="15" t="n">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="AC22" s="15" t="n">
-        <v>1038</v>
-      </c>
-      <c r="AD22" s="15" t="n">
         <v>612</v>
       </c>
+      <c r="AD22" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE22" s="15" t="s">
         <v>58</v>
       </c>
@@ -5384,11 +5384,11 @@
       <c r="AO22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ22" s="15" t="n">
+      <c r="AP22" s="15" t="n">
         <v>559</v>
+      </c>
+      <c r="AQ22" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AR22" s="15" t="s">
         <v>58</v>
@@ -5433,31 +5433,31 @@
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="n">
-        <v>979</v>
+        <v>620</v>
       </c>
       <c r="F23" s="16" t="n">
-        <v>620</v>
+        <v>355</v>
       </c>
       <c r="G23" s="16" t="n">
-        <v>355</v>
+        <v>633</v>
       </c>
       <c r="H23" s="16" t="n">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="I23" s="16" t="n">
-        <v>679</v>
+        <v>242</v>
       </c>
       <c r="J23" s="16" t="n">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="K23" s="16" t="n">
-        <v>497</v>
+        <v>149</v>
       </c>
       <c r="L23" s="16" t="n">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="M23" s="16" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="N23" s="16" t="n">
         <v>0</v>
@@ -5487,19 +5487,19 @@
         <v>0</v>
       </c>
       <c r="W23" s="16" t="n">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="X23" s="16" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z23" s="16" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AA23" s="16" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="16" t="n">
         <v>0</v>
@@ -5507,8 +5507,8 @@
       <c r="AC23" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD23" s="16" t="n">
-        <v>0</v>
+      <c r="AD23" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE23" s="16" t="s">
         <v>58</v>
@@ -5543,8 +5543,8 @@
       <c r="AO23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP23" s="16" t="s">
-        <v>58</v>
+      <c r="AP23" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ23" s="16" t="n">
         <v>0</v>
@@ -5610,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L24" s="15" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M24" s="15" t="n">
         <v>0</v>
@@ -5622,16 +5622,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="15" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="P24" s="15" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="R24" s="15" t="n">
-        <v>0</v>
+      <c r="R24" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="S24" s="15" t="s">
         <v>58</v>
@@ -5642,32 +5642,32 @@
       <c r="U24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="V24" s="15" t="s">
-        <v>58</v>
+      <c r="V24" s="15" t="n">
+        <v>910</v>
       </c>
       <c r="W24" s="15" t="n">
-        <v>910</v>
+        <v>2238</v>
       </c>
       <c r="X24" s="15" t="n">
-        <v>2238</v>
+        <v>1240</v>
       </c>
       <c r="Y24" s="15" t="n">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AA24" s="15" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AB24" s="15" t="n">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="AC24" s="15" t="n">
-        <v>103</v>
-      </c>
-      <c r="AD24" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE24" s="15" t="s">
         <v>58</v>
@@ -5751,49 +5751,49 @@
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="n">
-        <v>5348</v>
+        <v>9414</v>
       </c>
       <c r="F25" s="16" t="n">
-        <v>9414</v>
+        <v>4491</v>
       </c>
       <c r="G25" s="16" t="n">
-        <v>4491</v>
+        <v>9457</v>
       </c>
       <c r="H25" s="16" t="n">
-        <v>9457</v>
+        <v>9954</v>
       </c>
       <c r="I25" s="16" t="n">
-        <v>9954</v>
+        <v>6824</v>
       </c>
       <c r="J25" s="16" t="n">
-        <v>6824</v>
+        <v>7545</v>
       </c>
       <c r="K25" s="16" t="n">
-        <v>7545</v>
+        <v>7629</v>
       </c>
       <c r="L25" s="16" t="n">
-        <v>7629</v>
+        <v>4527</v>
       </c>
       <c r="M25" s="16" t="n">
-        <v>4527</v>
+        <v>6530</v>
       </c>
       <c r="N25" s="16" t="n">
-        <v>6530</v>
+        <v>3236</v>
       </c>
       <c r="O25" s="16" t="n">
-        <v>3236</v>
+        <v>2030</v>
       </c>
       <c r="P25" s="16" t="n">
-        <v>2030</v>
+        <v>2559</v>
       </c>
       <c r="Q25" s="16" t="n">
-        <v>2559</v>
+        <v>10659</v>
       </c>
       <c r="R25" s="16" t="n">
-        <v>10659</v>
+        <v>14248</v>
       </c>
       <c r="S25" s="16" t="n">
-        <v>14248</v>
+        <v>0</v>
       </c>
       <c r="T25" s="16" t="n">
         <v>0</v>
@@ -5805,29 +5805,29 @@
         <v>0</v>
       </c>
       <c r="W25" s="16" t="n">
-        <v>0</v>
+        <v>2601</v>
       </c>
       <c r="X25" s="16" t="n">
-        <v>2601</v>
+        <v>14817</v>
       </c>
       <c r="Y25" s="16" t="n">
-        <v>14817</v>
+        <v>13223</v>
       </c>
       <c r="Z25" s="16" t="n">
-        <v>13223</v>
+        <v>10161</v>
       </c>
       <c r="AA25" s="16" t="n">
-        <v>10161</v>
+        <v>11620</v>
       </c>
       <c r="AB25" s="16" t="n">
-        <v>11620</v>
+        <v>7712</v>
       </c>
       <c r="AC25" s="16" t="n">
-        <v>7712</v>
-      </c>
-      <c r="AD25" s="16" t="n">
         <v>30065</v>
       </c>
+      <c r="AD25" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE25" s="16" t="s">
         <v>58</v>
       </c>
@@ -5861,44 +5861,44 @@
       <c r="AO25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP25" s="16" t="s">
-        <v>58</v>
+      <c r="AP25" s="16" t="n">
+        <v>10731</v>
       </c>
       <c r="AQ25" s="16" t="n">
-        <v>10731</v>
+        <v>17685</v>
       </c>
       <c r="AR25" s="16" t="n">
-        <v>17685</v>
+        <v>16794</v>
       </c>
       <c r="AS25" s="16" t="n">
-        <v>16794</v>
+        <v>14449</v>
       </c>
       <c r="AT25" s="16" t="n">
-        <v>14449</v>
+        <v>14539</v>
       </c>
       <c r="AU25" s="16" t="n">
-        <v>14539</v>
+        <v>19316</v>
       </c>
       <c r="AV25" s="16" t="n">
-        <v>19316</v>
+        <v>0</v>
       </c>
       <c r="AW25" s="16" t="n">
-        <v>0</v>
+        <v>24995</v>
       </c>
       <c r="AX25" s="16" t="n">
-        <v>24995</v>
+        <v>14823</v>
       </c>
       <c r="AY25" s="16" t="n">
-        <v>14823</v>
+        <v>7571</v>
       </c>
       <c r="AZ25" s="16" t="n">
-        <v>7571</v>
+        <v>7676</v>
       </c>
       <c r="BA25" s="16" t="n">
-        <v>7676</v>
+        <v>15062</v>
       </c>
       <c r="BB25" s="16" t="n">
-        <v>15062</v>
+        <v>11735</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5910,83 +5910,83 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="n">
-        <v>989</v>
+        <v>3016</v>
       </c>
       <c r="F26" s="15" t="n">
-        <v>3016</v>
+        <v>0</v>
       </c>
       <c r="G26" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="15" t="n">
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="I26" s="15" t="n">
-        <v>1306</v>
+        <v>0</v>
       </c>
       <c r="J26" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="15" t="n">
-        <v>0</v>
+        <v>2721</v>
       </c>
       <c r="L26" s="15" t="n">
-        <v>2721</v>
+        <v>0</v>
       </c>
       <c r="M26" s="15" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O26" s="15" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P26" s="15" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="15" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="R26" s="15" t="n">
-        <v>465</v>
+        <v>87</v>
       </c>
       <c r="S26" s="15" t="n">
-        <v>87</v>
+        <v>15043</v>
       </c>
       <c r="T26" s="15" t="n">
-        <v>15043</v>
+        <v>5030</v>
       </c>
       <c r="U26" s="15" t="n">
-        <v>5030</v>
+        <v>922</v>
       </c>
       <c r="V26" s="15" t="n">
-        <v>922</v>
+        <v>6849</v>
       </c>
       <c r="W26" s="15" t="n">
-        <v>6849</v>
+        <v>7143</v>
       </c>
       <c r="X26" s="15" t="n">
-        <v>7143</v>
+        <v>103</v>
       </c>
       <c r="Y26" s="15" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AA26" s="15" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AB26" s="15" t="n">
-        <v>260</v>
+        <v>636</v>
       </c>
       <c r="AC26" s="15" t="n">
-        <v>636</v>
-      </c>
-      <c r="AD26" s="15" t="n">
         <v>539</v>
       </c>
+      <c r="AD26" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE26" s="15" t="s">
         <v>58</v>
       </c>
@@ -6020,44 +6020,44 @@
       <c r="AO26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP26" s="15" t="s">
-        <v>58</v>
+      <c r="AP26" s="15" t="n">
+        <v>3279</v>
       </c>
       <c r="AQ26" s="15" t="n">
-        <v>3279</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AS26" s="15" t="n">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="AT26" s="15" t="n">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="AU26" s="15" t="n">
-        <v>446</v>
+        <v>1234</v>
       </c>
       <c r="AV26" s="15" t="n">
-        <v>1234</v>
+        <v>24420</v>
       </c>
       <c r="AW26" s="15" t="n">
-        <v>24420</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AY26" s="15" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AZ26" s="15" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="BA26" s="15" t="n">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="BB26" s="15" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6107,18 +6107,18 @@
       <c r="Q27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R27" s="16" t="s">
-        <v>58</v>
+      <c r="R27" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S27" s="16" t="n">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="T27" s="16" t="n">
-        <v>1023</v>
-      </c>
-      <c r="U27" s="16" t="n">
         <v>3135</v>
       </c>
+      <c r="U27" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V27" s="16" t="s">
         <v>58</v>
       </c>
@@ -6182,41 +6182,41 @@
       <c r="AP27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ27" s="16" t="s">
-        <v>58</v>
+      <c r="AQ27" s="16" t="n">
+        <v>11856</v>
       </c>
       <c r="AR27" s="16" t="n">
-        <v>11856</v>
+        <v>16909</v>
       </c>
       <c r="AS27" s="16" t="n">
-        <v>16909</v>
+        <v>18336</v>
       </c>
       <c r="AT27" s="16" t="n">
-        <v>18336</v>
+        <v>17221</v>
       </c>
       <c r="AU27" s="16" t="n">
-        <v>17221</v>
+        <v>32488</v>
       </c>
       <c r="AV27" s="16" t="n">
-        <v>32488</v>
+        <v>31400</v>
       </c>
       <c r="AW27" s="16" t="n">
-        <v>31400</v>
+        <v>43892</v>
       </c>
       <c r="AX27" s="16" t="n">
-        <v>43892</v>
+        <v>45094</v>
       </c>
       <c r="AY27" s="16" t="n">
-        <v>45094</v>
+        <v>24684</v>
       </c>
       <c r="AZ27" s="16" t="n">
-        <v>24684</v>
+        <v>18501</v>
       </c>
       <c r="BA27" s="16" t="n">
-        <v>18501</v>
+        <v>35172</v>
       </c>
       <c r="BB27" s="16" t="n">
-        <v>35172</v>
+        <v>31751</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6338,44 +6338,44 @@
       <c r="AO28" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP28" s="15" t="s">
-        <v>58</v>
+      <c r="AP28" s="15" t="n">
+        <v>5670</v>
       </c>
       <c r="AQ28" s="15" t="n">
-        <v>5670</v>
+        <v>12036</v>
       </c>
       <c r="AR28" s="15" t="n">
-        <v>12036</v>
+        <v>14465</v>
       </c>
       <c r="AS28" s="15" t="n">
-        <v>14465</v>
+        <v>12460</v>
       </c>
       <c r="AT28" s="15" t="n">
-        <v>12460</v>
+        <v>7220</v>
       </c>
       <c r="AU28" s="15" t="n">
-        <v>7220</v>
+        <v>3800</v>
       </c>
       <c r="AV28" s="15" t="n">
-        <v>3800</v>
+        <v>2970</v>
       </c>
       <c r="AW28" s="15" t="n">
-        <v>2970</v>
+        <v>1100</v>
       </c>
       <c r="AX28" s="15" t="n">
-        <v>1100</v>
+        <v>685</v>
       </c>
       <c r="AY28" s="15" t="n">
-        <v>685</v>
+        <v>100</v>
       </c>
       <c r="AZ28" s="15" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="BA28" s="15" t="n">
-        <v>270</v>
+        <v>1178</v>
       </c>
       <c r="BB28" s="15" t="n">
-        <v>1178</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,8 +6489,8 @@
       <c r="T30" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="20" t="s">
-        <v>58</v>
+      <c r="U30" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V30" s="20" t="n">
         <v>0</v>
@@ -6599,154 +6599,154 @@
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="n">
-        <v>58047</v>
+        <v>127779</v>
       </c>
       <c r="F31" s="22" t="n">
-        <v>127779</v>
+        <v>103475</v>
       </c>
       <c r="G31" s="22" t="n">
-        <v>103475</v>
+        <v>163020</v>
       </c>
       <c r="H31" s="22" t="n">
-        <v>163020</v>
+        <v>165195</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>165195</v>
+        <v>146624</v>
       </c>
       <c r="J31" s="22" t="n">
-        <v>146624</v>
+        <v>131336</v>
       </c>
       <c r="K31" s="22" t="n">
-        <v>131336</v>
+        <v>144766</v>
       </c>
       <c r="L31" s="22" t="n">
-        <v>144766</v>
+        <v>165036</v>
       </c>
       <c r="M31" s="22" t="n">
-        <v>165036</v>
+        <v>157431</v>
       </c>
       <c r="N31" s="22" t="n">
-        <v>157431</v>
+        <v>100586</v>
       </c>
       <c r="O31" s="22" t="n">
-        <v>100586</v>
+        <v>70725</v>
       </c>
       <c r="P31" s="22" t="n">
-        <v>70725</v>
+        <v>46428</v>
       </c>
       <c r="Q31" s="22" t="n">
-        <v>46428</v>
+        <v>143348</v>
       </c>
       <c r="R31" s="22" t="n">
-        <v>143348</v>
+        <v>153817</v>
       </c>
       <c r="S31" s="22" t="n">
-        <v>153817</v>
+        <v>184843</v>
       </c>
       <c r="T31" s="22" t="n">
-        <v>184843</v>
+        <v>188867</v>
       </c>
       <c r="U31" s="22" t="n">
-        <v>188867</v>
+        <v>208764</v>
       </c>
       <c r="V31" s="22" t="n">
-        <v>208764</v>
+        <v>178193</v>
       </c>
       <c r="W31" s="22" t="n">
-        <v>178193</v>
+        <v>179526</v>
       </c>
       <c r="X31" s="22" t="n">
-        <v>179526</v>
+        <v>171629</v>
       </c>
       <c r="Y31" s="22" t="n">
-        <v>171629</v>
+        <v>121214</v>
       </c>
       <c r="Z31" s="22" t="n">
-        <v>121214</v>
+        <v>124812</v>
       </c>
       <c r="AA31" s="22" t="n">
-        <v>124812</v>
+        <v>87636</v>
       </c>
       <c r="AB31" s="22" t="n">
-        <v>87636</v>
+        <v>110642</v>
       </c>
       <c r="AC31" s="22" t="n">
-        <v>110642</v>
+        <v>174272</v>
       </c>
       <c r="AD31" s="22" t="n">
-        <v>174272</v>
+        <v>135507</v>
       </c>
       <c r="AE31" s="22" t="n">
-        <v>135507</v>
+        <v>161407</v>
       </c>
       <c r="AF31" s="22" t="n">
-        <v>161407</v>
+        <v>175578</v>
       </c>
       <c r="AG31" s="22" t="n">
-        <v>175578</v>
+        <v>125023</v>
       </c>
       <c r="AH31" s="22" t="n">
-        <v>125023</v>
+        <v>132647</v>
       </c>
       <c r="AI31" s="22" t="n">
-        <v>132647</v>
+        <v>166769</v>
       </c>
       <c r="AJ31" s="22" t="n">
-        <v>166769</v>
+        <v>193019</v>
       </c>
       <c r="AK31" s="22" t="n">
-        <v>193019</v>
+        <v>171107</v>
       </c>
       <c r="AL31" s="22" t="n">
-        <v>171107</v>
+        <v>164280</v>
       </c>
       <c r="AM31" s="22" t="n">
-        <v>164280</v>
+        <v>74722</v>
       </c>
       <c r="AN31" s="22" t="n">
-        <v>74722</v>
+        <v>95056</v>
       </c>
       <c r="AO31" s="22" t="n">
-        <v>95056</v>
+        <v>166455</v>
       </c>
       <c r="AP31" s="22" t="n">
-        <v>166455</v>
+        <v>113027</v>
       </c>
       <c r="AQ31" s="22" t="n">
-        <v>113027</v>
+        <v>182027</v>
       </c>
       <c r="AR31" s="22" t="n">
-        <v>182027</v>
+        <v>179098</v>
       </c>
       <c r="AS31" s="22" t="n">
-        <v>179098</v>
+        <v>166155</v>
       </c>
       <c r="AT31" s="22" t="n">
-        <v>166155</v>
+        <v>130135</v>
       </c>
       <c r="AU31" s="22" t="n">
-        <v>130135</v>
+        <v>168120</v>
       </c>
       <c r="AV31" s="22" t="n">
-        <v>168120</v>
+        <v>176955</v>
       </c>
       <c r="AW31" s="22" t="n">
-        <v>176955</v>
+        <v>182345</v>
       </c>
       <c r="AX31" s="22" t="n">
-        <v>182345</v>
+        <v>150032</v>
       </c>
       <c r="AY31" s="22" t="n">
-        <v>150032</v>
+        <v>110790</v>
       </c>
       <c r="AZ31" s="22" t="n">
-        <v>110790</v>
+        <v>93531</v>
       </c>
       <c r="BA31" s="22" t="n">
-        <v>93531</v>
+        <v>166333</v>
       </c>
       <c r="BB31" s="22" t="n">
-        <v>166333</v>
+        <v>132602</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,55 +7192,55 @@
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16" t="n">
-        <v>637</v>
+        <v>7444</v>
       </c>
       <c r="F38" s="16" t="n">
-        <v>7444</v>
+        <v>10908</v>
       </c>
       <c r="G38" s="16" t="n">
-        <v>10908</v>
+        <v>11835</v>
       </c>
       <c r="H38" s="16" t="n">
-        <v>11835</v>
+        <v>10670</v>
       </c>
       <c r="I38" s="16" t="n">
-        <v>10670</v>
+        <v>3491</v>
       </c>
       <c r="J38" s="16" t="n">
-        <v>3491</v>
+        <v>1465</v>
       </c>
       <c r="K38" s="16" t="n">
-        <v>1465</v>
+        <v>1878</v>
       </c>
       <c r="L38" s="16" t="n">
-        <v>1878</v>
+        <v>0</v>
       </c>
       <c r="M38" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N38" s="16" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="O38" s="16" t="n">
-        <v>118</v>
+        <v>3353</v>
       </c>
       <c r="P38" s="16" t="n">
-        <v>3353</v>
+        <v>2242</v>
       </c>
       <c r="Q38" s="16" t="n">
-        <v>2242</v>
+        <v>0</v>
       </c>
       <c r="R38" s="16" t="n">
-        <v>0</v>
+        <v>2329</v>
       </c>
       <c r="S38" s="16" t="n">
-        <v>2329</v>
+        <v>8482</v>
       </c>
       <c r="T38" s="16" t="n">
-        <v>8482</v>
+        <v>6863</v>
       </c>
       <c r="U38" s="16" t="n">
-        <v>6863</v>
+        <v>0</v>
       </c>
       <c r="V38" s="16" t="n">
         <v>0</v>
@@ -7267,13 +7267,13 @@
         <v>0</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>4245</v>
+        <v>1040</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="16" t="n">
         <v>0</v>
@@ -7291,13 +7291,13 @@
         <v>0</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="16" t="n">
         <v>0</v>
@@ -7321,10 +7321,10 @@
         <v>0</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>0</v>
+        <v>3621</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>3621</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="16" t="n">
         <v>0</v>
@@ -7333,13 +7333,13 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>222</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7425,50 +7425,50 @@
       <c r="AC39" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD39" s="15" t="s">
-        <v>58</v>
+      <c r="AD39" s="15" t="n">
+        <v>138446</v>
       </c>
       <c r="AE39" s="15" t="n">
-        <v>138446</v>
+        <v>158829</v>
       </c>
       <c r="AF39" s="15" t="n">
-        <v>158829</v>
+        <v>172744</v>
       </c>
       <c r="AG39" s="15" t="n">
-        <v>172744</v>
+        <v>131116</v>
       </c>
       <c r="AH39" s="15" t="n">
-        <v>131116</v>
+        <v>112650</v>
       </c>
       <c r="AI39" s="15" t="n">
-        <v>112650</v>
+        <v>182807</v>
       </c>
       <c r="AJ39" s="15" t="n">
-        <v>182807</v>
+        <v>185165</v>
       </c>
       <c r="AK39" s="15" t="n">
-        <v>185165</v>
+        <v>172278</v>
       </c>
       <c r="AL39" s="15" t="n">
-        <v>172278</v>
+        <v>160859</v>
       </c>
       <c r="AM39" s="15" t="n">
-        <v>160859</v>
+        <v>72880</v>
       </c>
       <c r="AN39" s="15" t="n">
-        <v>72880</v>
+        <v>95205</v>
       </c>
       <c r="AO39" s="15" t="n">
-        <v>95205</v>
-      </c>
-      <c r="AP39" s="15" t="n">
         <v>163311</v>
       </c>
-      <c r="AQ39" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR39" s="15" t="n">
-        <v>0</v>
+      <c r="AP39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ39" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AS39" s="15" t="s">
         <v>58</v>
@@ -7522,70 +7522,70 @@
         <v>0</v>
       </c>
       <c r="I40" s="16" t="n">
-        <v>0</v>
+        <v>5755</v>
       </c>
       <c r="J40" s="16" t="n">
-        <v>5755</v>
+        <v>5309</v>
       </c>
       <c r="K40" s="16" t="n">
-        <v>5309</v>
+        <v>10006</v>
       </c>
       <c r="L40" s="16" t="n">
-        <v>10006</v>
+        <v>4894</v>
       </c>
       <c r="M40" s="16" t="n">
-        <v>4894</v>
+        <v>10385</v>
       </c>
       <c r="N40" s="16" t="n">
-        <v>10385</v>
+        <v>8313</v>
       </c>
       <c r="O40" s="16" t="n">
-        <v>8313</v>
+        <v>5361</v>
       </c>
       <c r="P40" s="16" t="n">
-        <v>5361</v>
+        <v>7140</v>
       </c>
       <c r="Q40" s="16" t="n">
-        <v>7140</v>
-      </c>
-      <c r="R40" s="16" t="n">
         <v>1092</v>
       </c>
+      <c r="R40" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="S40" s="16" t="s">
         <v>58</v>
       </c>
       <c r="T40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="16" t="s">
-        <v>58</v>
+      <c r="U40" s="16" t="n">
+        <v>6497</v>
       </c>
       <c r="V40" s="16" t="n">
-        <v>6497</v>
+        <v>7173</v>
       </c>
       <c r="W40" s="16" t="n">
-        <v>7173</v>
+        <v>8197</v>
       </c>
       <c r="X40" s="16" t="n">
-        <v>8197</v>
+        <v>4407</v>
       </c>
       <c r="Y40" s="16" t="n">
-        <v>4407</v>
+        <v>1941</v>
       </c>
       <c r="Z40" s="16" t="n">
-        <v>1941</v>
+        <v>2561</v>
       </c>
       <c r="AA40" s="16" t="n">
-        <v>2561</v>
+        <v>2615</v>
       </c>
       <c r="AB40" s="16" t="n">
-        <v>2615</v>
+        <v>2767</v>
       </c>
       <c r="AC40" s="16" t="n">
-        <v>2767</v>
-      </c>
-      <c r="AD40" s="16" t="n">
         <v>4960</v>
+      </c>
+      <c r="AD40" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE40" s="16" t="s">
         <v>58</v>
@@ -7669,83 +7669,83 @@
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="n">
-        <v>22428</v>
+        <v>46452</v>
       </c>
       <c r="F41" s="15" t="n">
-        <v>46452</v>
+        <v>39165</v>
       </c>
       <c r="G41" s="15" t="n">
-        <v>39165</v>
+        <v>71587</v>
       </c>
       <c r="H41" s="15" t="n">
-        <v>71587</v>
+        <v>70273</v>
       </c>
       <c r="I41" s="15" t="n">
-        <v>70273</v>
+        <v>67678</v>
       </c>
       <c r="J41" s="15" t="n">
-        <v>67678</v>
+        <v>66733</v>
       </c>
       <c r="K41" s="15" t="n">
-        <v>66733</v>
+        <v>72920</v>
       </c>
       <c r="L41" s="15" t="n">
-        <v>72920</v>
+        <v>88150</v>
       </c>
       <c r="M41" s="15" t="n">
-        <v>88150</v>
+        <v>75551</v>
       </c>
       <c r="N41" s="15" t="n">
-        <v>75551</v>
+        <v>40194</v>
       </c>
       <c r="O41" s="15" t="n">
-        <v>40194</v>
+        <v>26672</v>
       </c>
       <c r="P41" s="15" t="n">
-        <v>26672</v>
+        <v>20460</v>
       </c>
       <c r="Q41" s="15" t="n">
-        <v>20460</v>
+        <v>78346</v>
       </c>
       <c r="R41" s="15" t="n">
-        <v>78346</v>
+        <v>81413</v>
       </c>
       <c r="S41" s="15" t="n">
-        <v>81413</v>
+        <v>95972</v>
       </c>
       <c r="T41" s="15" t="n">
-        <v>95972</v>
+        <v>91938</v>
       </c>
       <c r="U41" s="15" t="n">
-        <v>91938</v>
+        <v>97872</v>
       </c>
       <c r="V41" s="15" t="n">
-        <v>97872</v>
+        <v>67087</v>
       </c>
       <c r="W41" s="15" t="n">
-        <v>67087</v>
+        <v>68411</v>
       </c>
       <c r="X41" s="15" t="n">
-        <v>68411</v>
+        <v>64245</v>
       </c>
       <c r="Y41" s="15" t="n">
-        <v>64245</v>
+        <v>55320</v>
       </c>
       <c r="Z41" s="15" t="n">
-        <v>55320</v>
+        <v>61660</v>
       </c>
       <c r="AA41" s="15" t="n">
-        <v>61660</v>
+        <v>35239</v>
       </c>
       <c r="AB41" s="15" t="n">
-        <v>35239</v>
+        <v>42079</v>
       </c>
       <c r="AC41" s="15" t="n">
-        <v>42079</v>
-      </c>
-      <c r="AD41" s="15" t="n">
         <v>56222</v>
       </c>
+      <c r="AD41" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE41" s="15" t="s">
         <v>58</v>
       </c>
@@ -7779,44 +7779,44 @@
       <c r="AO41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP41" s="15" t="s">
-        <v>58</v>
+      <c r="AP41" s="15" t="n">
+        <v>61258</v>
       </c>
       <c r="AQ41" s="15" t="n">
-        <v>61258</v>
+        <v>69165</v>
       </c>
       <c r="AR41" s="15" t="n">
-        <v>69165</v>
+        <v>72172</v>
       </c>
       <c r="AS41" s="15" t="n">
-        <v>72172</v>
+        <v>52548</v>
       </c>
       <c r="AT41" s="15" t="n">
-        <v>52548</v>
+        <v>52024</v>
       </c>
       <c r="AU41" s="15" t="n">
-        <v>52024</v>
+        <v>68487</v>
       </c>
       <c r="AV41" s="15" t="n">
-        <v>68487</v>
+        <v>64433</v>
       </c>
       <c r="AW41" s="15" t="n">
-        <v>64433</v>
+        <v>60936</v>
       </c>
       <c r="AX41" s="15" t="n">
-        <v>60936</v>
+        <v>36337</v>
       </c>
       <c r="AY41" s="15" t="n">
-        <v>36337</v>
+        <v>22004</v>
       </c>
       <c r="AZ41" s="15" t="n">
-        <v>22004</v>
+        <v>28423</v>
       </c>
       <c r="BA41" s="15" t="n">
-        <v>28423</v>
+        <v>55880</v>
       </c>
       <c r="BB41" s="15" t="n">
-        <v>55880</v>
+        <v>46226</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7866,18 +7866,18 @@
       <c r="Q42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R42" s="16" t="s">
-        <v>58</v>
+      <c r="R42" s="16" t="n">
+        <v>202</v>
       </c>
       <c r="S42" s="16" t="n">
-        <v>202</v>
+        <v>2206</v>
       </c>
       <c r="T42" s="16" t="n">
-        <v>2206</v>
-      </c>
-      <c r="U42" s="16" t="n">
         <v>4840</v>
       </c>
+      <c r="U42" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V42" s="16" t="s">
         <v>58</v>
       </c>
@@ -7938,44 +7938,44 @@
       <c r="AO42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP42" s="16" t="s">
-        <v>58</v>
+      <c r="AP42" s="16" t="n">
+        <v>741</v>
       </c>
       <c r="AQ42" s="16" t="n">
-        <v>741</v>
+        <v>1244</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>1244</v>
+        <v>1001</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>1001</v>
+        <v>1274</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>1274</v>
+        <v>2879</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>2879</v>
+        <v>12952</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>12952</v>
+        <v>16331</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>16331</v>
+        <v>23413</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>23413</v>
+        <v>23470</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>23470</v>
+        <v>19866</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>19866</v>
+        <v>24024</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>24024</v>
+        <v>32234</v>
       </c>
       <c r="BB42" s="16" t="n">
-        <v>32234</v>
+        <v>26004</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7987,83 +7987,83 @@
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="n">
-        <v>26234</v>
+        <v>44410</v>
       </c>
       <c r="F43" s="15" t="n">
-        <v>44410</v>
+        <v>23793</v>
       </c>
       <c r="G43" s="15" t="n">
-        <v>23793</v>
+        <v>49890</v>
       </c>
       <c r="H43" s="15" t="n">
-        <v>49890</v>
+        <v>53373</v>
       </c>
       <c r="I43" s="15" t="n">
-        <v>53373</v>
+        <v>51195</v>
       </c>
       <c r="J43" s="15" t="n">
-        <v>51195</v>
+        <v>41829</v>
       </c>
       <c r="K43" s="15" t="n">
-        <v>41829</v>
+        <v>44234</v>
       </c>
       <c r="L43" s="15" t="n">
-        <v>44234</v>
+        <v>53483</v>
       </c>
       <c r="M43" s="15" t="n">
-        <v>53483</v>
+        <v>50110</v>
       </c>
       <c r="N43" s="15" t="n">
-        <v>50110</v>
+        <v>34355</v>
       </c>
       <c r="O43" s="15" t="n">
-        <v>34355</v>
+        <v>22660</v>
       </c>
       <c r="P43" s="15" t="n">
-        <v>22660</v>
+        <v>16902</v>
       </c>
       <c r="Q43" s="15" t="n">
-        <v>16902</v>
+        <v>44758</v>
       </c>
       <c r="R43" s="15" t="n">
-        <v>44758</v>
+        <v>37060</v>
       </c>
       <c r="S43" s="15" t="n">
-        <v>37060</v>
+        <v>54341</v>
       </c>
       <c r="T43" s="15" t="n">
-        <v>54341</v>
+        <v>61345</v>
       </c>
       <c r="U43" s="15" t="n">
-        <v>61345</v>
+        <v>76934</v>
       </c>
       <c r="V43" s="15" t="n">
-        <v>76934</v>
+        <v>68812</v>
       </c>
       <c r="W43" s="15" t="n">
-        <v>68812</v>
+        <v>60429</v>
       </c>
       <c r="X43" s="15" t="n">
-        <v>60429</v>
+        <v>62463</v>
       </c>
       <c r="Y43" s="15" t="n">
-        <v>62463</v>
+        <v>36697</v>
       </c>
       <c r="Z43" s="15" t="n">
-        <v>36697</v>
+        <v>55673</v>
       </c>
       <c r="AA43" s="15" t="n">
-        <v>55673</v>
+        <v>31725</v>
       </c>
       <c r="AB43" s="15" t="n">
-        <v>31725</v>
+        <v>42014</v>
       </c>
       <c r="AC43" s="15" t="n">
-        <v>42014</v>
-      </c>
-      <c r="AD43" s="15" t="n">
         <v>73716</v>
       </c>
+      <c r="AD43" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE43" s="15" t="s">
         <v>58</v>
       </c>
@@ -8097,44 +8097,44 @@
       <c r="AO43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP43" s="15" t="s">
-        <v>58</v>
+      <c r="AP43" s="15" t="n">
+        <v>48708</v>
       </c>
       <c r="AQ43" s="15" t="n">
-        <v>48708</v>
+        <v>60988</v>
       </c>
       <c r="AR43" s="15" t="n">
-        <v>60988</v>
+        <v>60989</v>
       </c>
       <c r="AS43" s="15" t="n">
-        <v>60989</v>
+        <v>49061</v>
       </c>
       <c r="AT43" s="15" t="n">
-        <v>49061</v>
+        <v>39040</v>
       </c>
       <c r="AU43" s="15" t="n">
-        <v>39040</v>
+        <v>40282</v>
       </c>
       <c r="AV43" s="15" t="n">
-        <v>40282</v>
+        <v>34487</v>
       </c>
       <c r="AW43" s="15" t="n">
-        <v>34487</v>
+        <v>31150</v>
       </c>
       <c r="AX43" s="15" t="n">
-        <v>31150</v>
+        <v>31020</v>
       </c>
       <c r="AY43" s="15" t="n">
-        <v>31020</v>
+        <v>22741</v>
       </c>
       <c r="AZ43" s="15" t="n">
-        <v>22741</v>
+        <v>18913</v>
       </c>
       <c r="BA43" s="15" t="n">
-        <v>18913</v>
+        <v>26574</v>
       </c>
       <c r="BB43" s="15" t="n">
-        <v>26574</v>
+        <v>22756</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8161,67 +8161,67 @@
         <v>0</v>
       </c>
       <c r="J44" s="16" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="K44" s="16" t="n">
-        <v>201</v>
+        <v>5839</v>
       </c>
       <c r="L44" s="16" t="n">
-        <v>5839</v>
+        <v>6678</v>
       </c>
       <c r="M44" s="16" t="n">
-        <v>6678</v>
+        <v>5532</v>
       </c>
       <c r="N44" s="16" t="n">
-        <v>5532</v>
+        <v>4887</v>
       </c>
       <c r="O44" s="16" t="n">
-        <v>4887</v>
+        <v>3256</v>
       </c>
       <c r="P44" s="16" t="n">
-        <v>3256</v>
+        <v>3192</v>
       </c>
       <c r="Q44" s="16" t="n">
-        <v>3192</v>
-      </c>
-      <c r="R44" s="16" t="n">
         <v>2392</v>
       </c>
+      <c r="R44" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="S44" s="16" t="s">
         <v>58</v>
       </c>
       <c r="T44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U44" s="16" t="s">
-        <v>58</v>
+      <c r="U44" s="16" t="n">
+        <v>8883</v>
       </c>
       <c r="V44" s="16" t="n">
-        <v>8883</v>
+        <v>7526</v>
       </c>
       <c r="W44" s="16" t="n">
-        <v>7526</v>
+        <v>10061</v>
       </c>
       <c r="X44" s="16" t="n">
-        <v>10061</v>
+        <v>3726</v>
       </c>
       <c r="Y44" s="16" t="n">
-        <v>3726</v>
+        <v>2580</v>
       </c>
       <c r="Z44" s="16" t="n">
-        <v>2580</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="16" t="n">
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="AB44" s="16" t="n">
-        <v>2152</v>
+        <v>5879</v>
       </c>
       <c r="AC44" s="16" t="n">
-        <v>5879</v>
-      </c>
-      <c r="AD44" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE44" s="16" t="s">
         <v>58</v>
@@ -8305,70 +8305,70 @@
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="n">
-        <v>3030</v>
+        <v>4506</v>
       </c>
       <c r="F45" s="15" t="n">
-        <v>4506</v>
+        <v>11077</v>
       </c>
       <c r="G45" s="15" t="n">
-        <v>11077</v>
+        <v>10617</v>
       </c>
       <c r="H45" s="15" t="n">
-        <v>10617</v>
+        <v>6292</v>
       </c>
       <c r="I45" s="15" t="n">
-        <v>6292</v>
+        <v>2575</v>
       </c>
       <c r="J45" s="15" t="n">
-        <v>2575</v>
+        <v>44</v>
       </c>
       <c r="K45" s="15" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L45" s="15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M45" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N45" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="N45" s="15" t="n">
+      <c r="P45" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="O45" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="15" t="n">
+      <c r="Q45" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="Q45" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="R45" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="15" t="n">
-        <v>10</v>
-      </c>
       <c r="U45" s="15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V45" s="15" t="n">
         <v>0</v>
       </c>
       <c r="W45" s="15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X45" s="15" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="Y45" s="15" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="Z45" s="15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="15" t="n">
         <v>0</v>
@@ -8379,8 +8379,8 @@
       <c r="AC45" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD45" s="15" t="n">
-        <v>0</v>
+      <c r="AD45" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE45" s="15" t="s">
         <v>58</v>
@@ -8464,43 +8464,43 @@
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16" t="n">
-        <v>653</v>
+        <v>1756</v>
       </c>
       <c r="F46" s="16" t="n">
-        <v>1756</v>
+        <v>1308</v>
       </c>
       <c r="G46" s="16" t="n">
-        <v>1308</v>
+        <v>2210</v>
       </c>
       <c r="H46" s="16" t="n">
-        <v>2210</v>
+        <v>2951</v>
       </c>
       <c r="I46" s="16" t="n">
-        <v>2951</v>
+        <v>233</v>
       </c>
       <c r="J46" s="16" t="n">
-        <v>233</v>
+        <v>682</v>
       </c>
       <c r="K46" s="16" t="n">
-        <v>682</v>
+        <v>488</v>
       </c>
       <c r="L46" s="16" t="n">
-        <v>488</v>
+        <v>1046</v>
       </c>
       <c r="M46" s="16" t="n">
-        <v>1046</v>
+        <v>41</v>
       </c>
       <c r="N46" s="16" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="O46" s="16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P46" s="16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q46" s="16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R46" s="16" t="n">
         <v>0</v>
@@ -8521,26 +8521,26 @@
         <v>0</v>
       </c>
       <c r="X46" s="16" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="Y46" s="16" t="n">
-        <v>123</v>
+        <v>483</v>
       </c>
       <c r="Z46" s="16" t="n">
-        <v>483</v>
+        <v>727</v>
       </c>
       <c r="AA46" s="16" t="n">
-        <v>727</v>
+        <v>934</v>
       </c>
       <c r="AB46" s="16" t="n">
-        <v>934</v>
+        <v>1073</v>
       </c>
       <c r="AC46" s="16" t="n">
-        <v>1073</v>
-      </c>
-      <c r="AD46" s="16" t="n">
         <v>1330</v>
       </c>
+      <c r="AD46" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE46" s="16" t="s">
         <v>58</v>
       </c>
@@ -8574,32 +8574,32 @@
       <c r="AO46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP46" s="16" t="s">
-        <v>58</v>
+      <c r="AP46" s="16" t="n">
+        <v>579</v>
       </c>
       <c r="AQ46" s="16" t="n">
-        <v>579</v>
+        <v>119</v>
       </c>
       <c r="AR46" s="16" t="n">
-        <v>119</v>
+        <v>823</v>
       </c>
       <c r="AS46" s="16" t="n">
-        <v>823</v>
+        <v>1229</v>
       </c>
       <c r="AT46" s="16" t="n">
-        <v>1229</v>
+        <v>616</v>
       </c>
       <c r="AU46" s="16" t="n">
-        <v>616</v>
+        <v>306</v>
       </c>
       <c r="AV46" s="16" t="n">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX46" s="16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="16" t="n">
         <v>0</v>
@@ -8641,64 +8641,64 @@
         <v>0</v>
       </c>
       <c r="K47" s="15" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="L47" s="15" t="n">
-        <v>424</v>
+        <v>1691</v>
       </c>
       <c r="M47" s="15" t="n">
-        <v>1691</v>
+        <v>1967</v>
       </c>
       <c r="N47" s="15" t="n">
-        <v>1967</v>
+        <v>2834</v>
       </c>
       <c r="O47" s="15" t="n">
-        <v>2834</v>
+        <v>1345</v>
       </c>
       <c r="P47" s="15" t="n">
-        <v>1345</v>
+        <v>2304</v>
       </c>
       <c r="Q47" s="15" t="n">
-        <v>2304</v>
-      </c>
-      <c r="R47" s="15" t="n">
         <v>1028</v>
       </c>
+      <c r="R47" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="S47" s="15" t="s">
         <v>58</v>
       </c>
       <c r="T47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="15" t="s">
-        <v>58</v>
+      <c r="U47" s="15" t="n">
+        <v>2805</v>
       </c>
       <c r="V47" s="15" t="n">
-        <v>2805</v>
+        <v>1772</v>
       </c>
       <c r="W47" s="15" t="n">
-        <v>1772</v>
+        <v>479</v>
       </c>
       <c r="X47" s="15" t="n">
-        <v>479</v>
+        <v>76</v>
       </c>
       <c r="Y47" s="15" t="n">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="Z47" s="15" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="15" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="AB47" s="15" t="n">
-        <v>176</v>
+        <v>2122</v>
       </c>
       <c r="AC47" s="15" t="n">
-        <v>2122</v>
-      </c>
-      <c r="AD47" s="15" t="n">
         <v>1548</v>
+      </c>
+      <c r="AD47" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE47" s="15" t="s">
         <v>58</v>
@@ -8820,8 +8820,8 @@
       <c r="Q48" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R48" s="16" t="n">
-        <v>0</v>
+      <c r="R48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S48" s="16" t="s">
         <v>58</v>
@@ -8941,82 +8941,82 @@
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15" t="n">
-        <v>7398</v>
+        <v>9246</v>
       </c>
       <c r="F49" s="15" t="n">
-        <v>9246</v>
+        <v>6541</v>
       </c>
       <c r="G49" s="15" t="n">
-        <v>6541</v>
+        <v>10325</v>
       </c>
       <c r="H49" s="15" t="n">
-        <v>10325</v>
+        <v>10563</v>
       </c>
       <c r="I49" s="15" t="n">
-        <v>10563</v>
+        <v>5926</v>
       </c>
       <c r="J49" s="15" t="n">
-        <v>5926</v>
+        <v>4821</v>
       </c>
       <c r="K49" s="15" t="n">
-        <v>4821</v>
+        <v>5258</v>
       </c>
       <c r="L49" s="15" t="n">
-        <v>5258</v>
+        <v>5109</v>
       </c>
       <c r="M49" s="15" t="n">
-        <v>5109</v>
+        <v>4170</v>
       </c>
       <c r="N49" s="15" t="n">
-        <v>4170</v>
+        <v>3313</v>
       </c>
       <c r="O49" s="15" t="n">
-        <v>3313</v>
+        <v>1696</v>
       </c>
       <c r="P49" s="15" t="n">
-        <v>1696</v>
+        <v>1018</v>
       </c>
       <c r="Q49" s="15" t="n">
-        <v>1018</v>
+        <v>4833</v>
       </c>
       <c r="R49" s="15" t="n">
-        <v>4833</v>
+        <v>14245</v>
       </c>
       <c r="S49" s="15" t="n">
-        <v>14245</v>
+        <v>17192</v>
       </c>
       <c r="T49" s="15" t="n">
-        <v>17192</v>
+        <v>12134</v>
       </c>
       <c r="U49" s="15" t="n">
-        <v>12134</v>
+        <v>18658</v>
       </c>
       <c r="V49" s="15" t="n">
-        <v>18658</v>
+        <v>16528</v>
       </c>
       <c r="W49" s="15" t="n">
-        <v>16528</v>
+        <v>18890</v>
       </c>
       <c r="X49" s="15" t="n">
-        <v>18890</v>
+        <v>17373</v>
       </c>
       <c r="Y49" s="15" t="n">
-        <v>17373</v>
+        <v>6568</v>
       </c>
       <c r="Z49" s="15" t="n">
-        <v>6568</v>
+        <v>4223</v>
       </c>
       <c r="AA49" s="15" t="n">
-        <v>4223</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="15" t="n">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="AC49" s="15" t="n">
-        <v>1298</v>
-      </c>
-      <c r="AD49" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE49" s="15" t="s">
         <v>58</v>
@@ -9051,11 +9051,11 @@
       <c r="AO49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ49" s="15" t="n">
+      <c r="AP49" s="15" t="n">
         <v>472</v>
+      </c>
+      <c r="AQ49" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AR49" s="15" t="s">
         <v>58</v>
@@ -9100,52 +9100,52 @@
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16" t="n">
-        <v>979</v>
+        <v>620</v>
       </c>
       <c r="F50" s="16" t="n">
-        <v>620</v>
+        <v>355</v>
       </c>
       <c r="G50" s="16" t="n">
-        <v>355</v>
+        <v>633</v>
       </c>
       <c r="H50" s="16" t="n">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="I50" s="16" t="n">
-        <v>679</v>
+        <v>242</v>
       </c>
       <c r="J50" s="16" t="n">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="K50" s="16" t="n">
-        <v>497</v>
+        <v>149</v>
       </c>
       <c r="L50" s="16" t="n">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="M50" s="16" t="n">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="N50" s="16" t="n">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="O50" s="16" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="P50" s="16" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="Q50" s="16" t="n">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="R50" s="16" t="n">
-        <v>311</v>
+        <v>829</v>
       </c>
       <c r="S50" s="16" t="n">
-        <v>829</v>
+        <v>15</v>
       </c>
       <c r="T50" s="16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U50" s="16" t="n">
         <v>0</v>
@@ -9154,19 +9154,19 @@
         <v>0</v>
       </c>
       <c r="W50" s="16" t="n">
-        <v>0</v>
+        <v>4741</v>
       </c>
       <c r="X50" s="16" t="n">
-        <v>4741</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z50" s="16" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AA50" s="16" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="16" t="n">
         <v>0</v>
@@ -9174,8 +9174,8 @@
       <c r="AC50" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD50" s="16" t="n">
-        <v>0</v>
+      <c r="AD50" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE50" s="16" t="s">
         <v>58</v>
@@ -9210,8 +9210,8 @@
       <c r="AO50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP50" s="16" t="s">
-        <v>58</v>
+      <c r="AP50" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ50" s="16" t="n">
         <v>0</v>
@@ -9277,10 +9277,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L51" s="15" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M51" s="15" t="n">
         <v>0</v>
@@ -9289,16 +9289,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="15" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="P51" s="15" t="n">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="Q51" s="15" t="n">
-        <v>69</v>
-      </c>
-      <c r="R51" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="S51" s="15" t="s">
         <v>58</v>
@@ -9309,32 +9309,32 @@
       <c r="U51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="V51" s="15" t="s">
-        <v>58</v>
+      <c r="V51" s="15" t="n">
+        <v>910</v>
       </c>
       <c r="W51" s="15" t="n">
-        <v>910</v>
+        <v>2238</v>
       </c>
       <c r="X51" s="15" t="n">
-        <v>2238</v>
+        <v>1240</v>
       </c>
       <c r="Y51" s="15" t="n">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AA51" s="15" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AB51" s="15" t="n">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="AC51" s="15" t="n">
-        <v>103</v>
-      </c>
-      <c r="AD51" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE51" s="15" t="s">
         <v>58</v>
@@ -9418,83 +9418,83 @@
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16" t="n">
-        <v>5348</v>
+        <v>9414</v>
       </c>
       <c r="F52" s="16" t="n">
-        <v>9414</v>
+        <v>5885</v>
       </c>
       <c r="G52" s="16" t="n">
-        <v>5885</v>
+        <v>11379</v>
       </c>
       <c r="H52" s="16" t="n">
-        <v>11379</v>
+        <v>10590</v>
       </c>
       <c r="I52" s="16" t="n">
-        <v>10590</v>
+        <v>7421</v>
       </c>
       <c r="J52" s="16" t="n">
-        <v>7421</v>
+        <v>8033</v>
       </c>
       <c r="K52" s="16" t="n">
-        <v>8033</v>
+        <v>7633</v>
       </c>
       <c r="L52" s="16" t="n">
-        <v>7633</v>
+        <v>6458</v>
       </c>
       <c r="M52" s="16" t="n">
-        <v>6458</v>
+        <v>6879</v>
       </c>
       <c r="N52" s="16" t="n">
-        <v>6879</v>
+        <v>3236</v>
       </c>
       <c r="O52" s="16" t="n">
-        <v>3236</v>
+        <v>2383</v>
       </c>
       <c r="P52" s="16" t="n">
-        <v>2383</v>
+        <v>2559</v>
       </c>
       <c r="Q52" s="16" t="n">
-        <v>2559</v>
+        <v>10659</v>
       </c>
       <c r="R52" s="16" t="n">
-        <v>10659</v>
+        <v>14248</v>
       </c>
       <c r="S52" s="16" t="n">
-        <v>14248</v>
+        <v>15637</v>
       </c>
       <c r="T52" s="16" t="n">
-        <v>15637</v>
+        <v>4639</v>
       </c>
       <c r="U52" s="16" t="n">
-        <v>4639</v>
+        <v>0</v>
       </c>
       <c r="V52" s="16" t="n">
-        <v>0</v>
+        <v>7401</v>
       </c>
       <c r="W52" s="16" t="n">
-        <v>7401</v>
+        <v>10002</v>
       </c>
       <c r="X52" s="16" t="n">
-        <v>10002</v>
+        <v>14817</v>
       </c>
       <c r="Y52" s="16" t="n">
-        <v>14817</v>
+        <v>13300</v>
       </c>
       <c r="Z52" s="16" t="n">
-        <v>13300</v>
+        <v>11525</v>
       </c>
       <c r="AA52" s="16" t="n">
-        <v>11525</v>
+        <v>11620</v>
       </c>
       <c r="AB52" s="16" t="n">
-        <v>11620</v>
+        <v>7712</v>
       </c>
       <c r="AC52" s="16" t="n">
-        <v>7712</v>
-      </c>
-      <c r="AD52" s="16" t="n">
         <v>30065</v>
       </c>
+      <c r="AD52" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE52" s="16" t="s">
         <v>58</v>
       </c>
@@ -9528,44 +9528,44 @@
       <c r="AO52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP52" s="16" t="s">
-        <v>58</v>
+      <c r="AP52" s="16" t="n">
+        <v>14005</v>
       </c>
       <c r="AQ52" s="16" t="n">
-        <v>14005</v>
+        <v>17689</v>
       </c>
       <c r="AR52" s="16" t="n">
-        <v>17689</v>
+        <v>17671</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>17671</v>
+        <v>14449</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>14449</v>
+        <v>14539</v>
       </c>
       <c r="AU52" s="16" t="n">
-        <v>14539</v>
+        <v>19316</v>
       </c>
       <c r="AV52" s="16" t="n">
-        <v>19316</v>
+        <v>23960</v>
       </c>
       <c r="AW52" s="16" t="n">
-        <v>23960</v>
+        <v>25454</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>25454</v>
+        <v>14823</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>14823</v>
+        <v>7571</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>7571</v>
+        <v>7676</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>7676</v>
+        <v>15062</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>15062</v>
+        <v>11732</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9577,52 +9577,52 @@
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15" t="n">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="F53" s="15" t="n">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="G53" s="15" t="n">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="H53" s="15" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I53" s="15" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="J53" s="15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K53" s="15" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L53" s="15" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="M53" s="15" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N53" s="15" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O53" s="15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P53" s="15" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="15" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="R53" s="15" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="S53" s="15" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="T53" s="15" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="U53" s="15" t="n">
         <v>0</v>
@@ -9651,8 +9651,8 @@
       <c r="AC53" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD53" s="15" t="n">
-        <v>0</v>
+      <c r="AD53" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE53" s="15" t="s">
         <v>58</v>
@@ -9687,11 +9687,11 @@
       <c r="AO53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP53" s="15" t="s">
-        <v>58</v>
+      <c r="AP53" s="15" t="n">
+        <v>23</v>
       </c>
       <c r="AQ53" s="15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AR53" s="15" t="n">
         <v>0</v>
@@ -9774,18 +9774,18 @@
       <c r="Q54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R54" s="16" t="s">
-        <v>58</v>
+      <c r="R54" s="16" t="n">
+        <v>379</v>
       </c>
       <c r="S54" s="16" t="n">
-        <v>379</v>
+        <v>1023</v>
       </c>
       <c r="T54" s="16" t="n">
-        <v>1023</v>
-      </c>
-      <c r="U54" s="16" t="n">
         <v>3135</v>
       </c>
+      <c r="U54" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V54" s="16" t="s">
         <v>58</v>
       </c>
@@ -9849,41 +9849,41 @@
       <c r="AP54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ54" s="16" t="s">
-        <v>58</v>
+      <c r="AQ54" s="16" t="n">
+        <v>11124</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>11124</v>
+        <v>16471</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>16471</v>
+        <v>18554</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>18554</v>
+        <v>17407</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>17407</v>
+        <v>33793</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>33793</v>
+        <v>32371</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>32371</v>
+        <v>43346</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>43346</v>
+        <v>44618</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>44618</v>
+        <v>24149</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>24149</v>
+        <v>18511</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>18511</v>
+        <v>35374</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>35374</v>
+        <v>34454</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10005,44 +10005,44 @@
       <c r="AO55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP55" s="15" t="s">
-        <v>58</v>
+      <c r="AP55" s="15" t="n">
+        <v>5647</v>
       </c>
       <c r="AQ55" s="15" t="n">
-        <v>5647</v>
+        <v>11031</v>
       </c>
       <c r="AR55" s="15" t="n">
-        <v>11031</v>
+        <v>14635</v>
       </c>
       <c r="AS55" s="15" t="n">
-        <v>14635</v>
+        <v>11323</v>
       </c>
       <c r="AT55" s="15" t="n">
-        <v>11323</v>
+        <v>7483</v>
       </c>
       <c r="AU55" s="15" t="n">
-        <v>7483</v>
+        <v>5478</v>
       </c>
       <c r="AV55" s="15" t="n">
-        <v>5478</v>
+        <v>2532</v>
       </c>
       <c r="AW55" s="15" t="n">
-        <v>2532</v>
+        <v>1587</v>
       </c>
       <c r="AX55" s="15" t="n">
-        <v>1587</v>
+        <v>609</v>
       </c>
       <c r="AY55" s="15" t="n">
-        <v>609</v>
+        <v>70</v>
       </c>
       <c r="AZ55" s="15" t="n">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="BA55" s="15" t="n">
-        <v>269</v>
+        <v>1197</v>
       </c>
       <c r="BB55" s="15" t="n">
-        <v>1197</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10156,8 +10156,8 @@
       <c r="T57" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="20" t="s">
-        <v>58</v>
+      <c r="U57" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="20" t="n">
         <v>0</v>
@@ -10370,8 +10370,8 @@
       <c r="T59" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="20" t="s">
-        <v>58</v>
+      <c r="U59" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V59" s="20" t="n">
         <v>0</v>
@@ -10480,154 +10480,154 @@
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="n">
-        <v>66879</v>
+        <v>124070</v>
       </c>
       <c r="F60" s="22" t="n">
-        <v>124070</v>
+        <v>99206</v>
       </c>
       <c r="G60" s="22" t="n">
-        <v>99206</v>
+        <v>168540</v>
       </c>
       <c r="H60" s="22" t="n">
-        <v>168540</v>
+        <v>165480</v>
       </c>
       <c r="I60" s="22" t="n">
-        <v>165480</v>
+        <v>144516</v>
       </c>
       <c r="J60" s="22" t="n">
-        <v>144516</v>
+        <v>129689</v>
       </c>
       <c r="K60" s="22" t="n">
-        <v>129689</v>
+        <v>148946</v>
       </c>
       <c r="L60" s="22" t="n">
-        <v>148946</v>
+        <v>167772</v>
       </c>
       <c r="M60" s="22" t="n">
-        <v>167772</v>
+        <v>154854</v>
       </c>
       <c r="N60" s="22" t="n">
-        <v>154854</v>
+        <v>97302</v>
       </c>
       <c r="O60" s="22" t="n">
-        <v>97302</v>
+        <v>66965</v>
       </c>
       <c r="P60" s="22" t="n">
-        <v>66965</v>
+        <v>55921</v>
       </c>
       <c r="Q60" s="22" t="n">
-        <v>55921</v>
+        <v>143485</v>
       </c>
       <c r="R60" s="22" t="n">
-        <v>143485</v>
+        <v>150720</v>
       </c>
       <c r="S60" s="22" t="n">
-        <v>150720</v>
+        <v>194925</v>
       </c>
       <c r="T60" s="22" t="n">
-        <v>194925</v>
+        <v>184914</v>
       </c>
       <c r="U60" s="22" t="n">
-        <v>184914</v>
+        <v>211649</v>
       </c>
       <c r="V60" s="22" t="n">
-        <v>211649</v>
+        <v>177209</v>
       </c>
       <c r="W60" s="22" t="n">
-        <v>177209</v>
+        <v>183472</v>
       </c>
       <c r="X60" s="22" t="n">
-        <v>183472</v>
+        <v>168555</v>
       </c>
       <c r="Y60" s="22" t="n">
-        <v>168555</v>
+        <v>117053</v>
       </c>
       <c r="Z60" s="22" t="n">
-        <v>117053</v>
+        <v>136847</v>
       </c>
       <c r="AA60" s="22" t="n">
-        <v>136847</v>
+        <v>84810</v>
       </c>
       <c r="AB60" s="22" t="n">
-        <v>84810</v>
+        <v>105047</v>
       </c>
       <c r="AC60" s="22" t="n">
-        <v>105047</v>
+        <v>167841</v>
       </c>
       <c r="AD60" s="22" t="n">
-        <v>167841</v>
+        <v>142691</v>
       </c>
       <c r="AE60" s="22" t="n">
-        <v>142691</v>
+        <v>159869</v>
       </c>
       <c r="AF60" s="22" t="n">
-        <v>159869</v>
+        <v>172744</v>
       </c>
       <c r="AG60" s="22" t="n">
-        <v>172744</v>
+        <v>131116</v>
       </c>
       <c r="AH60" s="22" t="n">
-        <v>131116</v>
+        <v>112650</v>
       </c>
       <c r="AI60" s="22" t="n">
-        <v>112650</v>
+        <v>182807</v>
       </c>
       <c r="AJ60" s="22" t="n">
-        <v>182807</v>
+        <v>185165</v>
       </c>
       <c r="AK60" s="22" t="n">
-        <v>185165</v>
+        <v>172278</v>
       </c>
       <c r="AL60" s="22" t="n">
-        <v>172278</v>
+        <v>161849</v>
       </c>
       <c r="AM60" s="22" t="n">
-        <v>161849</v>
+        <v>72890</v>
       </c>
       <c r="AN60" s="22" t="n">
-        <v>72890</v>
+        <v>95205</v>
       </c>
       <c r="AO60" s="22" t="n">
-        <v>95205</v>
+        <v>163311</v>
       </c>
       <c r="AP60" s="22" t="n">
-        <v>163311</v>
+        <v>131433</v>
       </c>
       <c r="AQ60" s="22" t="n">
-        <v>131433</v>
+        <v>171360</v>
       </c>
       <c r="AR60" s="22" t="n">
-        <v>171360</v>
+        <v>183762</v>
       </c>
       <c r="AS60" s="22" t="n">
-        <v>183762</v>
+        <v>148438</v>
       </c>
       <c r="AT60" s="22" t="n">
-        <v>148438</v>
+        <v>133988</v>
       </c>
       <c r="AU60" s="22" t="n">
-        <v>133988</v>
+        <v>180614</v>
       </c>
       <c r="AV60" s="22" t="n">
-        <v>180614</v>
+        <v>177735</v>
       </c>
       <c r="AW60" s="22" t="n">
-        <v>177735</v>
+        <v>185986</v>
       </c>
       <c r="AX60" s="22" t="n">
-        <v>185986</v>
+        <v>150877</v>
       </c>
       <c r="AY60" s="22" t="n">
-        <v>150877</v>
+        <v>96401</v>
       </c>
       <c r="AZ60" s="22" t="n">
-        <v>96401</v>
+        <v>97842</v>
       </c>
       <c r="BA60" s="22" t="n">
-        <v>97842</v>
+        <v>166543</v>
       </c>
       <c r="BB60" s="22" t="n">
-        <v>166543</v>
+        <v>144607</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11073,55 +11073,55 @@
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16" t="n">
-        <v>555</v>
+        <v>6394</v>
       </c>
       <c r="F67" s="16" t="n">
-        <v>6394</v>
+        <v>10300</v>
       </c>
       <c r="G67" s="16" t="n">
-        <v>10300</v>
+        <v>11806</v>
       </c>
       <c r="H67" s="16" t="n">
-        <v>11806</v>
+        <v>10853</v>
       </c>
       <c r="I67" s="16" t="n">
-        <v>10853</v>
+        <v>3445</v>
       </c>
       <c r="J67" s="16" t="n">
-        <v>3445</v>
+        <v>1514</v>
       </c>
       <c r="K67" s="16" t="n">
-        <v>1514</v>
+        <v>1937</v>
       </c>
       <c r="L67" s="16" t="n">
-        <v>1937</v>
+        <v>0</v>
       </c>
       <c r="M67" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N67" s="16" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="O67" s="16" t="n">
-        <v>112</v>
+        <v>3181</v>
       </c>
       <c r="P67" s="16" t="n">
-        <v>3181</v>
+        <v>2127</v>
       </c>
       <c r="Q67" s="16" t="n">
-        <v>2127</v>
+        <v>0</v>
       </c>
       <c r="R67" s="16" t="n">
-        <v>0</v>
+        <v>3226</v>
       </c>
       <c r="S67" s="16" t="n">
-        <v>3226</v>
+        <v>12410</v>
       </c>
       <c r="T67" s="16" t="n">
-        <v>12410</v>
+        <v>10566</v>
       </c>
       <c r="U67" s="16" t="n">
-        <v>10566</v>
+        <v>0</v>
       </c>
       <c r="V67" s="16" t="n">
         <v>0</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="AD67" s="16" t="n">
-        <v>0</v>
+        <v>16897</v>
       </c>
       <c r="AE67" s="16" t="n">
-        <v>16897</v>
+        <v>4226</v>
       </c>
       <c r="AF67" s="16" t="n">
-        <v>4226</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="16" t="n">
         <v>0</v>
@@ -11172,13 +11172,13 @@
         <v>0</v>
       </c>
       <c r="AL67" s="16" t="n">
-        <v>0</v>
+        <v>6071</v>
       </c>
       <c r="AM67" s="16" t="n">
-        <v>6071</v>
+        <v>62</v>
       </c>
       <c r="AN67" s="16" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AO67" s="16" t="n">
         <v>0</v>
@@ -11202,10 +11202,10 @@
         <v>0</v>
       </c>
       <c r="AV67" s="16" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="AW67" s="16" t="n">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="AX67" s="16" t="n">
         <v>0</v>
@@ -11214,13 +11214,13 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="16" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="BA67" s="16" t="n">
-        <v>156</v>
+        <v>1350</v>
       </c>
       <c r="BB67" s="16" t="n">
-        <v>1350</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11306,50 +11306,50 @@
       <c r="AC68" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD68" s="15" t="s">
-        <v>58</v>
+      <c r="AD68" s="15" t="n">
+        <v>402139</v>
       </c>
       <c r="AE68" s="15" t="n">
-        <v>402139</v>
+        <v>593166</v>
       </c>
       <c r="AF68" s="15" t="n">
-        <v>593166</v>
+        <v>656975</v>
       </c>
       <c r="AG68" s="15" t="n">
-        <v>656975</v>
+        <v>663330</v>
       </c>
       <c r="AH68" s="15" t="n">
-        <v>663330</v>
+        <v>678947</v>
       </c>
       <c r="AI68" s="15" t="n">
-        <v>678947</v>
+        <v>1132444</v>
       </c>
       <c r="AJ68" s="15" t="n">
-        <v>1132444</v>
+        <v>854807</v>
       </c>
       <c r="AK68" s="15" t="n">
-        <v>854807</v>
+        <v>791515</v>
       </c>
       <c r="AL68" s="15" t="n">
-        <v>791515</v>
+        <v>699052</v>
       </c>
       <c r="AM68" s="15" t="n">
-        <v>699052</v>
+        <v>329720</v>
       </c>
       <c r="AN68" s="15" t="n">
-        <v>329720</v>
+        <v>467821</v>
       </c>
       <c r="AO68" s="15" t="n">
-        <v>467821</v>
-      </c>
-      <c r="AP68" s="15" t="n">
         <v>859346</v>
       </c>
-      <c r="AQ68" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR68" s="15" t="n">
-        <v>0</v>
+      <c r="AP68" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ68" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AS68" s="15" t="s">
         <v>58</v>
@@ -11403,70 +11403,70 @@
         <v>0</v>
       </c>
       <c r="I69" s="16" t="n">
-        <v>0</v>
+        <v>9738</v>
       </c>
       <c r="J69" s="16" t="n">
-        <v>9738</v>
+        <v>8966</v>
       </c>
       <c r="K69" s="16" t="n">
-        <v>8966</v>
+        <v>15781</v>
       </c>
       <c r="L69" s="16" t="n">
-        <v>15781</v>
+        <v>7354</v>
       </c>
       <c r="M69" s="16" t="n">
-        <v>7354</v>
+        <v>13686</v>
       </c>
       <c r="N69" s="16" t="n">
-        <v>13686</v>
+        <v>10895</v>
       </c>
       <c r="O69" s="16" t="n">
-        <v>10895</v>
+        <v>7234</v>
       </c>
       <c r="P69" s="16" t="n">
-        <v>7234</v>
+        <v>11613</v>
       </c>
       <c r="Q69" s="16" t="n">
-        <v>11613</v>
-      </c>
-      <c r="R69" s="16" t="n">
         <v>1929</v>
       </c>
+      <c r="R69" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="S69" s="16" t="s">
         <v>58</v>
       </c>
       <c r="T69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="16" t="s">
-        <v>58</v>
+      <c r="U69" s="16" t="n">
+        <v>11365</v>
       </c>
       <c r="V69" s="16" t="n">
-        <v>11365</v>
+        <v>12937</v>
       </c>
       <c r="W69" s="16" t="n">
-        <v>12937</v>
+        <v>16696</v>
       </c>
       <c r="X69" s="16" t="n">
-        <v>16696</v>
+        <v>9837</v>
       </c>
       <c r="Y69" s="16" t="n">
-        <v>9837</v>
+        <v>5173</v>
       </c>
       <c r="Z69" s="16" t="n">
-        <v>5173</v>
+        <v>6837</v>
       </c>
       <c r="AA69" s="16" t="n">
-        <v>6837</v>
+        <v>7164</v>
       </c>
       <c r="AB69" s="16" t="n">
-        <v>7164</v>
+        <v>7520</v>
       </c>
       <c r="AC69" s="16" t="n">
-        <v>7520</v>
-      </c>
-      <c r="AD69" s="16" t="n">
         <v>14182</v>
+      </c>
+      <c r="AD69" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE69" s="16" t="s">
         <v>58</v>
@@ -11550,83 +11550,83 @@
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="n">
-        <v>34014</v>
+        <v>71970</v>
       </c>
       <c r="F70" s="15" t="n">
-        <v>71970</v>
+        <v>63270</v>
       </c>
       <c r="G70" s="15" t="n">
-        <v>63270</v>
+        <v>115757</v>
       </c>
       <c r="H70" s="15" t="n">
-        <v>115757</v>
+        <v>113932</v>
       </c>
       <c r="I70" s="15" t="n">
-        <v>113932</v>
+        <v>133508</v>
       </c>
       <c r="J70" s="15" t="n">
-        <v>133508</v>
+        <v>127899</v>
       </c>
       <c r="K70" s="15" t="n">
-        <v>127899</v>
+        <v>149956</v>
       </c>
       <c r="L70" s="15" t="n">
-        <v>149956</v>
+        <v>183368</v>
       </c>
       <c r="M70" s="15" t="n">
-        <v>183368</v>
+        <v>160048</v>
       </c>
       <c r="N70" s="15" t="n">
-        <v>160048</v>
+        <v>85814</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>85814</v>
+        <v>56833</v>
       </c>
       <c r="P70" s="15" t="n">
-        <v>56833</v>
+        <v>43015</v>
       </c>
       <c r="Q70" s="15" t="n">
-        <v>43015</v>
+        <v>165855</v>
       </c>
       <c r="R70" s="15" t="n">
-        <v>165855</v>
+        <v>172905</v>
       </c>
       <c r="S70" s="15" t="n">
-        <v>172905</v>
+        <v>204431</v>
       </c>
       <c r="T70" s="15" t="n">
-        <v>204431</v>
+        <v>197272</v>
       </c>
       <c r="U70" s="15" t="n">
-        <v>197272</v>
+        <v>240050</v>
       </c>
       <c r="V70" s="15" t="n">
-        <v>240050</v>
+        <v>175882</v>
       </c>
       <c r="W70" s="15" t="n">
-        <v>175882</v>
+        <v>183844</v>
       </c>
       <c r="X70" s="15" t="n">
-        <v>183844</v>
+        <v>178487</v>
       </c>
       <c r="Y70" s="15" t="n">
-        <v>178487</v>
+        <v>167448</v>
       </c>
       <c r="Z70" s="15" t="n">
-        <v>167448</v>
+        <v>190559</v>
       </c>
       <c r="AA70" s="15" t="n">
-        <v>190559</v>
+        <v>109119</v>
       </c>
       <c r="AB70" s="15" t="n">
-        <v>109119</v>
+        <v>130400</v>
       </c>
       <c r="AC70" s="15" t="n">
-        <v>130400</v>
-      </c>
-      <c r="AD70" s="15" t="n">
         <v>174094</v>
       </c>
+      <c r="AD70" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE70" s="15" t="s">
         <v>58</v>
       </c>
@@ -11660,44 +11660,44 @@
       <c r="AO70" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP70" s="15" t="s">
-        <v>58</v>
+      <c r="AP70" s="15" t="n">
+        <v>412214</v>
       </c>
       <c r="AQ70" s="15" t="n">
-        <v>412214</v>
+        <v>465818</v>
       </c>
       <c r="AR70" s="15" t="n">
-        <v>465818</v>
+        <v>555529</v>
       </c>
       <c r="AS70" s="15" t="n">
-        <v>555529</v>
+        <v>438161</v>
       </c>
       <c r="AT70" s="15" t="n">
-        <v>438161</v>
+        <v>408674</v>
       </c>
       <c r="AU70" s="15" t="n">
-        <v>408674</v>
+        <v>509975</v>
       </c>
       <c r="AV70" s="15" t="n">
-        <v>509975</v>
+        <v>469885</v>
       </c>
       <c r="AW70" s="15" t="n">
-        <v>469885</v>
+        <v>443554</v>
       </c>
       <c r="AX70" s="15" t="n">
-        <v>443554</v>
+        <v>262130</v>
       </c>
       <c r="AY70" s="15" t="n">
-        <v>262130</v>
+        <v>155316</v>
       </c>
       <c r="AZ70" s="15" t="n">
-        <v>155316</v>
+        <v>205013</v>
       </c>
       <c r="BA70" s="15" t="n">
-        <v>205013</v>
+        <v>461775</v>
       </c>
       <c r="BB70" s="15" t="n">
-        <v>461775</v>
+        <v>425898</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11747,18 +11747,18 @@
       <c r="Q71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R71" s="16" t="s">
-        <v>58</v>
+      <c r="R71" s="16" t="n">
+        <v>517</v>
       </c>
       <c r="S71" s="16" t="n">
-        <v>517</v>
+        <v>6287</v>
       </c>
       <c r="T71" s="16" t="n">
-        <v>6287</v>
-      </c>
-      <c r="U71" s="16" t="n">
         <v>15133</v>
       </c>
+      <c r="U71" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V71" s="16" t="s">
         <v>58</v>
       </c>
@@ -11819,44 +11819,44 @@
       <c r="AO71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP71" s="16" t="s">
-        <v>58</v>
+      <c r="AP71" s="16" t="n">
+        <v>6879</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>6879</v>
+        <v>11616</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>11616</v>
+        <v>9606</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>9606</v>
+        <v>12682</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>12682</v>
+        <v>23318</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>23318</v>
+        <v>90068</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>90068</v>
+        <v>111790</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>111790</v>
+        <v>158801</v>
       </c>
       <c r="AX71" s="16" t="n">
-        <v>158801</v>
+        <v>144716</v>
       </c>
       <c r="AY71" s="16" t="n">
-        <v>144716</v>
+        <v>119743</v>
       </c>
       <c r="AZ71" s="16" t="n">
-        <v>119743</v>
+        <v>147584</v>
       </c>
       <c r="BA71" s="16" t="n">
-        <v>147584</v>
+        <v>225844</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>225844</v>
+        <v>203329</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11868,83 +11868,83 @@
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="n">
-        <v>31258</v>
+        <v>53425</v>
       </c>
       <c r="F72" s="15" t="n">
-        <v>53425</v>
+        <v>30291</v>
       </c>
       <c r="G72" s="15" t="n">
-        <v>30291</v>
+        <v>63136</v>
       </c>
       <c r="H72" s="15" t="n">
-        <v>63136</v>
+        <v>68199</v>
       </c>
       <c r="I72" s="15" t="n">
-        <v>68199</v>
+        <v>83640</v>
       </c>
       <c r="J72" s="15" t="n">
-        <v>83640</v>
+        <v>71760</v>
       </c>
       <c r="K72" s="15" t="n">
-        <v>71760</v>
+        <v>78056</v>
       </c>
       <c r="L72" s="15" t="n">
-        <v>78056</v>
+        <v>92869</v>
       </c>
       <c r="M72" s="15" t="n">
-        <v>92869</v>
+        <v>88461</v>
       </c>
       <c r="N72" s="15" t="n">
-        <v>88461</v>
+        <v>61364</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>61364</v>
+        <v>40642</v>
       </c>
       <c r="P72" s="15" t="n">
-        <v>40642</v>
+        <v>30290</v>
       </c>
       <c r="Q72" s="15" t="n">
-        <v>30290</v>
+        <v>80513</v>
       </c>
       <c r="R72" s="15" t="n">
-        <v>80513</v>
+        <v>66449</v>
       </c>
       <c r="S72" s="15" t="n">
-        <v>66449</v>
+        <v>97107</v>
       </c>
       <c r="T72" s="15" t="n">
-        <v>97107</v>
+        <v>109265</v>
       </c>
       <c r="U72" s="15" t="n">
-        <v>109265</v>
+        <v>161027</v>
       </c>
       <c r="V72" s="15" t="n">
-        <v>161027</v>
+        <v>151856</v>
       </c>
       <c r="W72" s="15" t="n">
-        <v>151856</v>
+        <v>133004</v>
       </c>
       <c r="X72" s="15" t="n">
-        <v>133004</v>
+        <v>137472</v>
       </c>
       <c r="Y72" s="15" t="n">
-        <v>137472</v>
+        <v>80737</v>
       </c>
       <c r="Z72" s="15" t="n">
-        <v>80737</v>
+        <v>122525</v>
       </c>
       <c r="AA72" s="15" t="n">
-        <v>122525</v>
+        <v>69816</v>
       </c>
       <c r="AB72" s="15" t="n">
-        <v>69816</v>
+        <v>92435</v>
       </c>
       <c r="AC72" s="15" t="n">
-        <v>92435</v>
-      </c>
-      <c r="AD72" s="15" t="n">
         <v>162174</v>
       </c>
+      <c r="AD72" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE72" s="15" t="s">
         <v>58</v>
       </c>
@@ -11978,44 +11978,44 @@
       <c r="AO72" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP72" s="15" t="s">
-        <v>58</v>
+      <c r="AP72" s="15" t="n">
+        <v>255681</v>
       </c>
       <c r="AQ72" s="15" t="n">
-        <v>255681</v>
+        <v>333582</v>
       </c>
       <c r="AR72" s="15" t="n">
-        <v>333582</v>
+        <v>376193</v>
       </c>
       <c r="AS72" s="15" t="n">
-        <v>376193</v>
+        <v>355744</v>
       </c>
       <c r="AT72" s="15" t="n">
-        <v>355744</v>
+        <v>281873</v>
       </c>
       <c r="AU72" s="15" t="n">
-        <v>281873</v>
+        <v>285493</v>
       </c>
       <c r="AV72" s="15" t="n">
-        <v>285493</v>
+        <v>234304</v>
       </c>
       <c r="AW72" s="15" t="n">
-        <v>234304</v>
+        <v>211020</v>
       </c>
       <c r="AX72" s="15" t="n">
-        <v>211020</v>
+        <v>208868</v>
       </c>
       <c r="AY72" s="15" t="n">
-        <v>208868</v>
+        <v>154246</v>
       </c>
       <c r="AZ72" s="15" t="n">
-        <v>154246</v>
+        <v>126623</v>
       </c>
       <c r="BA72" s="15" t="n">
-        <v>126623</v>
+        <v>199880</v>
       </c>
       <c r="BB72" s="15" t="n">
-        <v>199880</v>
+        <v>183042</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12042,67 +12042,67 @@
         <v>0</v>
       </c>
       <c r="J73" s="16" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="K73" s="16" t="n">
-        <v>460</v>
+        <v>12350</v>
       </c>
       <c r="L73" s="16" t="n">
-        <v>12350</v>
+        <v>13975</v>
       </c>
       <c r="M73" s="16" t="n">
-        <v>13975</v>
+        <v>11396</v>
       </c>
       <c r="N73" s="16" t="n">
-        <v>11396</v>
+        <v>10216</v>
       </c>
       <c r="O73" s="16" t="n">
-        <v>10216</v>
+        <v>7157</v>
       </c>
       <c r="P73" s="16" t="n">
-        <v>7157</v>
+        <v>7442</v>
       </c>
       <c r="Q73" s="16" t="n">
-        <v>7442</v>
-      </c>
-      <c r="R73" s="16" t="n">
         <v>6445</v>
       </c>
+      <c r="R73" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="S73" s="16" t="s">
         <v>58</v>
       </c>
       <c r="T73" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U73" s="16" t="s">
-        <v>58</v>
+      <c r="U73" s="16" t="n">
+        <v>28850</v>
       </c>
       <c r="V73" s="16" t="n">
-        <v>28850</v>
+        <v>25871</v>
       </c>
       <c r="W73" s="16" t="n">
-        <v>25871</v>
+        <v>39219</v>
       </c>
       <c r="X73" s="16" t="n">
-        <v>39219</v>
+        <v>15653</v>
       </c>
       <c r="Y73" s="16" t="n">
-        <v>15653</v>
+        <v>12823</v>
       </c>
       <c r="Z73" s="16" t="n">
-        <v>12823</v>
+        <v>0</v>
       </c>
       <c r="AA73" s="16" t="n">
-        <v>0</v>
+        <v>10356</v>
       </c>
       <c r="AB73" s="16" t="n">
-        <v>10356</v>
+        <v>27725</v>
       </c>
       <c r="AC73" s="16" t="n">
-        <v>27725</v>
-      </c>
-      <c r="AD73" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD73" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE73" s="16" t="s">
         <v>58</v>
@@ -12186,70 +12186,70 @@
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="n">
-        <v>3926</v>
+        <v>5962</v>
       </c>
       <c r="F74" s="15" t="n">
-        <v>5962</v>
+        <v>16695</v>
       </c>
       <c r="G74" s="15" t="n">
-        <v>16695</v>
+        <v>16315</v>
       </c>
       <c r="H74" s="15" t="n">
-        <v>16315</v>
+        <v>9703</v>
       </c>
       <c r="I74" s="15" t="n">
-        <v>9703</v>
+        <v>3977</v>
       </c>
       <c r="J74" s="15" t="n">
-        <v>3977</v>
+        <v>95</v>
       </c>
       <c r="K74" s="15" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L74" s="15" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M74" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="N74" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="15" t="n">
+        <v>42</v>
+      </c>
+      <c r="P74" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q74" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="T74" s="15" t="n">
         <v>41</v>
       </c>
-      <c r="N74" s="15" t="n">
-        <v>21</v>
-      </c>
-      <c r="O74" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" s="15" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q74" s="15" t="n">
-        <v>21</v>
-      </c>
-      <c r="R74" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" s="15" t="n">
-        <v>21</v>
-      </c>
       <c r="U74" s="15" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="V74" s="15" t="n">
         <v>0</v>
       </c>
       <c r="W74" s="15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="X74" s="15" t="n">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="Y74" s="15" t="n">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="Z74" s="15" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AA74" s="15" t="n">
         <v>0</v>
@@ -12260,8 +12260,8 @@
       <c r="AC74" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD74" s="15" t="n">
-        <v>0</v>
+      <c r="AD74" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE74" s="15" t="s">
         <v>58</v>
@@ -12345,43 +12345,43 @@
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="n">
-        <v>663</v>
+        <v>1840</v>
       </c>
       <c r="F75" s="16" t="n">
-        <v>1840</v>
+        <v>1408</v>
       </c>
       <c r="G75" s="16" t="n">
-        <v>1408</v>
+        <v>2396</v>
       </c>
       <c r="H75" s="16" t="n">
-        <v>2396</v>
+        <v>3208</v>
       </c>
       <c r="I75" s="16" t="n">
-        <v>3208</v>
+        <v>289</v>
       </c>
       <c r="J75" s="16" t="n">
-        <v>289</v>
+        <v>1089</v>
       </c>
       <c r="K75" s="16" t="n">
-        <v>1089</v>
+        <v>804</v>
       </c>
       <c r="L75" s="16" t="n">
-        <v>804</v>
+        <v>1725</v>
       </c>
       <c r="M75" s="16" t="n">
-        <v>1725</v>
+        <v>72</v>
       </c>
       <c r="N75" s="16" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="O75" s="16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="P75" s="16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q75" s="16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R75" s="16" t="n">
         <v>0</v>
@@ -12402,26 +12402,26 @@
         <v>0</v>
       </c>
       <c r="X75" s="16" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="Y75" s="16" t="n">
-        <v>264</v>
+        <v>1034</v>
       </c>
       <c r="Z75" s="16" t="n">
-        <v>1034</v>
+        <v>1557</v>
       </c>
       <c r="AA75" s="16" t="n">
-        <v>1557</v>
+        <v>2002</v>
       </c>
       <c r="AB75" s="16" t="n">
-        <v>2002</v>
+        <v>2301</v>
       </c>
       <c r="AC75" s="16" t="n">
-        <v>2301</v>
-      </c>
-      <c r="AD75" s="16" t="n">
         <v>2851</v>
       </c>
+      <c r="AD75" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE75" s="16" t="s">
         <v>58</v>
       </c>
@@ -12455,32 +12455,32 @@
       <c r="AO75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP75" s="16" t="s">
-        <v>58</v>
+      <c r="AP75" s="16" t="n">
+        <v>1997</v>
       </c>
       <c r="AQ75" s="16" t="n">
-        <v>1997</v>
+        <v>412</v>
       </c>
       <c r="AR75" s="16" t="n">
-        <v>412</v>
+        <v>2838</v>
       </c>
       <c r="AS75" s="16" t="n">
-        <v>2838</v>
+        <v>4241</v>
       </c>
       <c r="AT75" s="16" t="n">
-        <v>4241</v>
+        <v>2126</v>
       </c>
       <c r="AU75" s="16" t="n">
-        <v>2126</v>
+        <v>1057</v>
       </c>
       <c r="AV75" s="16" t="n">
-        <v>1057</v>
+        <v>0</v>
       </c>
       <c r="AW75" s="16" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AX75" s="16" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="16" t="n">
         <v>0</v>
@@ -12522,64 +12522,64 @@
         <v>0</v>
       </c>
       <c r="K76" s="15" t="n">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="L76" s="15" t="n">
-        <v>806</v>
+        <v>2934</v>
       </c>
       <c r="M76" s="15" t="n">
-        <v>2934</v>
+        <v>3532</v>
       </c>
       <c r="N76" s="15" t="n">
-        <v>3532</v>
+        <v>5159</v>
       </c>
       <c r="O76" s="15" t="n">
-        <v>5159</v>
+        <v>2616</v>
       </c>
       <c r="P76" s="15" t="n">
-        <v>2616</v>
+        <v>4538</v>
       </c>
       <c r="Q76" s="15" t="n">
-        <v>4538</v>
-      </c>
-      <c r="R76" s="15" t="n">
         <v>2285</v>
       </c>
+      <c r="R76" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="S76" s="15" t="s">
         <v>58</v>
       </c>
       <c r="T76" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="U76" s="15" t="s">
-        <v>58</v>
+      <c r="U76" s="15" t="n">
+        <v>8190</v>
       </c>
       <c r="V76" s="15" t="n">
-        <v>8190</v>
+        <v>5724</v>
       </c>
       <c r="W76" s="15" t="n">
-        <v>5724</v>
+        <v>1524</v>
       </c>
       <c r="X76" s="15" t="n">
-        <v>1524</v>
+        <v>215</v>
       </c>
       <c r="Y76" s="15" t="n">
-        <v>215</v>
+        <v>420</v>
       </c>
       <c r="Z76" s="15" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="15" t="n">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="AB76" s="15" t="n">
-        <v>687</v>
+        <v>10147</v>
       </c>
       <c r="AC76" s="15" t="n">
-        <v>10147</v>
-      </c>
-      <c r="AD76" s="15" t="n">
         <v>7706</v>
+      </c>
+      <c r="AD76" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE76" s="15" t="s">
         <v>58</v>
@@ -12701,8 +12701,8 @@
       <c r="Q77" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R77" s="16" t="n">
-        <v>0</v>
+      <c r="R77" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S77" s="16" t="s">
         <v>58</v>
@@ -12822,82 +12822,82 @@
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="15" t="n">
-        <v>8900</v>
+        <v>11060</v>
       </c>
       <c r="F78" s="15" t="n">
-        <v>11060</v>
+        <v>8221</v>
       </c>
       <c r="G78" s="15" t="n">
-        <v>8221</v>
+        <v>13406</v>
       </c>
       <c r="H78" s="15" t="n">
-        <v>13406</v>
+        <v>13888</v>
       </c>
       <c r="I78" s="15" t="n">
-        <v>13888</v>
+        <v>9939</v>
       </c>
       <c r="J78" s="15" t="n">
-        <v>9939</v>
+        <v>8553</v>
       </c>
       <c r="K78" s="15" t="n">
-        <v>8553</v>
+        <v>9561</v>
       </c>
       <c r="L78" s="15" t="n">
-        <v>9561</v>
+        <v>9246</v>
       </c>
       <c r="M78" s="15" t="n">
-        <v>9246</v>
+        <v>7599</v>
       </c>
       <c r="N78" s="15" t="n">
-        <v>7599</v>
+        <v>6023</v>
       </c>
       <c r="O78" s="15" t="n">
-        <v>6023</v>
+        <v>3051</v>
       </c>
       <c r="P78" s="15" t="n">
-        <v>3051</v>
+        <v>1834</v>
       </c>
       <c r="Q78" s="15" t="n">
-        <v>1834</v>
+        <v>8743</v>
       </c>
       <c r="R78" s="15" t="n">
-        <v>8743</v>
+        <v>26045</v>
       </c>
       <c r="S78" s="15" t="n">
-        <v>26045</v>
+        <v>31090</v>
       </c>
       <c r="T78" s="15" t="n">
-        <v>31090</v>
+        <v>22037</v>
       </c>
       <c r="U78" s="15" t="n">
-        <v>22037</v>
+        <v>39502</v>
       </c>
       <c r="V78" s="15" t="n">
-        <v>39502</v>
+        <v>36885</v>
       </c>
       <c r="W78" s="15" t="n">
-        <v>36885</v>
+        <v>42156</v>
       </c>
       <c r="X78" s="15" t="n">
-        <v>42156</v>
+        <v>38769</v>
       </c>
       <c r="Y78" s="15" t="n">
-        <v>38769</v>
+        <v>14657</v>
       </c>
       <c r="Z78" s="15" t="n">
-        <v>14657</v>
+        <v>9425</v>
       </c>
       <c r="AA78" s="15" t="n">
-        <v>9425</v>
+        <v>0</v>
       </c>
       <c r="AB78" s="15" t="n">
-        <v>0</v>
+        <v>2896</v>
       </c>
       <c r="AC78" s="15" t="n">
-        <v>2896</v>
-      </c>
-      <c r="AD78" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD78" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE78" s="15" t="s">
         <v>58</v>
@@ -12932,11 +12932,11 @@
       <c r="AO78" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP78" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ78" s="15" t="n">
+      <c r="AP78" s="15" t="n">
         <v>2494</v>
+      </c>
+      <c r="AQ78" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AR78" s="15" t="s">
         <v>58</v>
@@ -12981,52 +12981,52 @@
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16" t="n">
-        <v>1357</v>
+        <v>912</v>
       </c>
       <c r="F79" s="16" t="n">
-        <v>912</v>
+        <v>548</v>
       </c>
       <c r="G79" s="16" t="n">
-        <v>548</v>
+        <v>967</v>
       </c>
       <c r="H79" s="16" t="n">
-        <v>967</v>
+        <v>1061</v>
       </c>
       <c r="I79" s="16" t="n">
-        <v>1061</v>
+        <v>484</v>
       </c>
       <c r="J79" s="16" t="n">
-        <v>484</v>
+        <v>975</v>
       </c>
       <c r="K79" s="16" t="n">
-        <v>975</v>
+        <v>306</v>
       </c>
       <c r="L79" s="16" t="n">
-        <v>306</v>
+        <v>445</v>
       </c>
       <c r="M79" s="16" t="n">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="N79" s="16" t="n">
-        <v>376</v>
+        <v>73</v>
       </c>
       <c r="O79" s="16" t="n">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="P79" s="16" t="n">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="Q79" s="16" t="n">
-        <v>21</v>
+        <v>641</v>
       </c>
       <c r="R79" s="16" t="n">
-        <v>641</v>
+        <v>1709</v>
       </c>
       <c r="S79" s="16" t="n">
-        <v>1709</v>
+        <v>32</v>
       </c>
       <c r="T79" s="16" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U79" s="16" t="n">
         <v>0</v>
@@ -13035,19 +13035,19 @@
         <v>0</v>
       </c>
       <c r="W79" s="16" t="n">
-        <v>0</v>
+        <v>12801</v>
       </c>
       <c r="X79" s="16" t="n">
-        <v>12801</v>
+        <v>0</v>
       </c>
       <c r="Y79" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z79" s="16" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="AA79" s="16" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="AB79" s="16" t="n">
         <v>0</v>
@@ -13055,8 +13055,8 @@
       <c r="AC79" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD79" s="16" t="n">
-        <v>0</v>
+      <c r="AD79" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE79" s="16" t="s">
         <v>58</v>
@@ -13091,8 +13091,8 @@
       <c r="AO79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP79" s="16" t="s">
-        <v>58</v>
+      <c r="AP79" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ79" s="16" t="n">
         <v>0</v>
@@ -13158,10 +13158,10 @@
         <v>0</v>
       </c>
       <c r="K80" s="15" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="L80" s="15" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M80" s="15" t="n">
         <v>0</v>
@@ -13170,16 +13170,16 @@
         <v>0</v>
       </c>
       <c r="O80" s="15" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="P80" s="15" t="n">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="Q80" s="15" t="n">
-        <v>137</v>
-      </c>
-      <c r="R80" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R80" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="S80" s="15" t="s">
         <v>58</v>
@@ -13190,32 +13190,32 @@
       <c r="U80" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="V80" s="15" t="s">
-        <v>58</v>
+      <c r="V80" s="15" t="n">
+        <v>2955</v>
       </c>
       <c r="W80" s="15" t="n">
-        <v>2955</v>
+        <v>7948</v>
       </c>
       <c r="X80" s="15" t="n">
-        <v>7948</v>
+        <v>4860</v>
       </c>
       <c r="Y80" s="15" t="n">
-        <v>4860</v>
+        <v>0</v>
       </c>
       <c r="Z80" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AA80" s="15" t="n">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="AB80" s="15" t="n">
-        <v>1460</v>
+        <v>430</v>
       </c>
       <c r="AC80" s="15" t="n">
-        <v>430</v>
-      </c>
-      <c r="AD80" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD80" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE80" s="15" t="s">
         <v>58</v>
@@ -13299,83 +13299,83 @@
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="n">
-        <v>7603</v>
+        <v>13619</v>
       </c>
       <c r="F81" s="16" t="n">
-        <v>13619</v>
+        <v>9077</v>
       </c>
       <c r="G81" s="16" t="n">
-        <v>9077</v>
+        <v>17516</v>
       </c>
       <c r="H81" s="16" t="n">
-        <v>17516</v>
+        <v>16380</v>
       </c>
       <c r="I81" s="16" t="n">
-        <v>16380</v>
+        <v>14111</v>
       </c>
       <c r="J81" s="16" t="n">
-        <v>14111</v>
+        <v>15145</v>
       </c>
       <c r="K81" s="16" t="n">
-        <v>15145</v>
+        <v>14757</v>
       </c>
       <c r="L81" s="16" t="n">
-        <v>14757</v>
+        <v>12886</v>
       </c>
       <c r="M81" s="16" t="n">
-        <v>12886</v>
+        <v>14066</v>
       </c>
       <c r="N81" s="16" t="n">
-        <v>14066</v>
+        <v>6696</v>
       </c>
       <c r="O81" s="16" t="n">
-        <v>6696</v>
+        <v>4922</v>
       </c>
       <c r="P81" s="16" t="n">
-        <v>4922</v>
+        <v>5231</v>
       </c>
       <c r="Q81" s="16" t="n">
-        <v>5231</v>
+        <v>21983</v>
       </c>
       <c r="R81" s="16" t="n">
-        <v>21983</v>
+        <v>29556</v>
       </c>
       <c r="S81" s="16" t="n">
-        <v>29556</v>
+        <v>32546</v>
       </c>
       <c r="T81" s="16" t="n">
-        <v>32546</v>
+        <v>9692</v>
       </c>
       <c r="U81" s="16" t="n">
-        <v>9692</v>
+        <v>0</v>
       </c>
       <c r="V81" s="16" t="n">
-        <v>0</v>
+        <v>19486</v>
       </c>
       <c r="W81" s="16" t="n">
-        <v>19486</v>
+        <v>26484</v>
       </c>
       <c r="X81" s="16" t="n">
-        <v>26484</v>
+        <v>40582</v>
       </c>
       <c r="Y81" s="16" t="n">
-        <v>40582</v>
+        <v>39657</v>
       </c>
       <c r="Z81" s="16" t="n">
-        <v>39657</v>
+        <v>35062</v>
       </c>
       <c r="AA81" s="16" t="n">
-        <v>35062</v>
+        <v>35419</v>
       </c>
       <c r="AB81" s="16" t="n">
-        <v>35419</v>
+        <v>23506</v>
       </c>
       <c r="AC81" s="16" t="n">
-        <v>23506</v>
-      </c>
-      <c r="AD81" s="16" t="n">
         <v>91656</v>
       </c>
+      <c r="AD81" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE81" s="16" t="s">
         <v>58</v>
       </c>
@@ -13409,44 +13409,44 @@
       <c r="AO81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP81" s="16" t="s">
-        <v>58</v>
+      <c r="AP81" s="16" t="n">
+        <v>87217</v>
       </c>
       <c r="AQ81" s="16" t="n">
-        <v>87217</v>
+        <v>106612</v>
       </c>
       <c r="AR81" s="16" t="n">
-        <v>106612</v>
+        <v>125424</v>
       </c>
       <c r="AS81" s="16" t="n">
-        <v>125424</v>
+        <v>103923</v>
       </c>
       <c r="AT81" s="16" t="n">
-        <v>103923</v>
+        <v>98349</v>
       </c>
       <c r="AU81" s="16" t="n">
-        <v>98349</v>
+        <v>123271</v>
       </c>
       <c r="AV81" s="16" t="n">
-        <v>123271</v>
+        <v>144167</v>
       </c>
       <c r="AW81" s="16" t="n">
-        <v>144167</v>
+        <v>147494</v>
       </c>
       <c r="AX81" s="16" t="n">
-        <v>147494</v>
+        <v>86312</v>
       </c>
       <c r="AY81" s="16" t="n">
-        <v>86312</v>
+        <v>44337</v>
       </c>
       <c r="AZ81" s="16" t="n">
-        <v>44337</v>
+        <v>45384</v>
       </c>
       <c r="BA81" s="16" t="n">
-        <v>45384</v>
+        <v>101064</v>
       </c>
       <c r="BB81" s="16" t="n">
-        <v>101064</v>
+        <v>89147</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13458,52 +13458,52 @@
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15" t="n">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="F82" s="15" t="n">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="G82" s="15" t="n">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="H82" s="15" t="n">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I82" s="15" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J82" s="15" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="K82" s="15" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="L82" s="15" t="n">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="M82" s="15" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="N82" s="15" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P82" s="15" t="n">
         <v>0</v>
       </c>
       <c r="Q82" s="15" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="R82" s="15" t="n">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="S82" s="15" t="n">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="T82" s="15" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="U82" s="15" t="n">
         <v>0</v>
@@ -13532,8 +13532,8 @@
       <c r="AC82" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD82" s="15" t="n">
-        <v>0</v>
+      <c r="AD82" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE82" s="15" t="s">
         <v>58</v>
@@ -13568,11 +13568,11 @@
       <c r="AO82" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP82" s="15" t="s">
-        <v>58</v>
+      <c r="AP82" s="15" t="n">
+        <v>78</v>
       </c>
       <c r="AQ82" s="15" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AR82" s="15" t="n">
         <v>0</v>
@@ -13655,18 +13655,18 @@
       <c r="Q83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R83" s="16" t="s">
-        <v>58</v>
+      <c r="R83" s="16" t="n">
+        <v>840</v>
       </c>
       <c r="S83" s="16" t="n">
-        <v>840</v>
+        <v>2470</v>
       </c>
       <c r="T83" s="16" t="n">
-        <v>2470</v>
-      </c>
-      <c r="U83" s="16" t="n">
         <v>8618</v>
       </c>
+      <c r="U83" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V83" s="16" t="s">
         <v>58</v>
       </c>
@@ -13730,41 +13730,41 @@
       <c r="AP83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ83" s="16" t="s">
-        <v>58</v>
+      <c r="AQ83" s="16" t="n">
+        <v>53524</v>
       </c>
       <c r="AR83" s="16" t="n">
-        <v>53524</v>
+        <v>93867</v>
       </c>
       <c r="AS83" s="16" t="n">
-        <v>93867</v>
+        <v>107820</v>
       </c>
       <c r="AT83" s="16" t="n">
-        <v>107820</v>
+        <v>102196</v>
       </c>
       <c r="AU83" s="16" t="n">
-        <v>102196</v>
+        <v>198279</v>
       </c>
       <c r="AV83" s="16" t="n">
-        <v>198279</v>
+        <v>185445</v>
       </c>
       <c r="AW83" s="16" t="n">
-        <v>185445</v>
+        <v>239249</v>
       </c>
       <c r="AX83" s="16" t="n">
-        <v>239249</v>
+        <v>239735</v>
       </c>
       <c r="AY83" s="16" t="n">
-        <v>239735</v>
+        <v>129597</v>
       </c>
       <c r="AZ83" s="16" t="n">
-        <v>129597</v>
+        <v>97299</v>
       </c>
       <c r="BA83" s="16" t="n">
-        <v>97299</v>
+        <v>210168</v>
       </c>
       <c r="BB83" s="16" t="n">
-        <v>210168</v>
+        <v>236230</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13886,44 +13886,44 @@
       <c r="AO84" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP84" s="15" t="s">
-        <v>58</v>
+      <c r="AP84" s="15" t="n">
+        <v>30264</v>
       </c>
       <c r="AQ84" s="15" t="n">
-        <v>30264</v>
+        <v>59181</v>
       </c>
       <c r="AR84" s="15" t="n">
-        <v>59181</v>
+        <v>93919</v>
       </c>
       <c r="AS84" s="15" t="n">
-        <v>93919</v>
+        <v>76657</v>
       </c>
       <c r="AT84" s="15" t="n">
-        <v>76657</v>
+        <v>48772</v>
       </c>
       <c r="AU84" s="15" t="n">
-        <v>48772</v>
+        <v>34894</v>
       </c>
       <c r="AV84" s="15" t="n">
-        <v>34894</v>
+        <v>15611</v>
       </c>
       <c r="AW84" s="15" t="n">
-        <v>15611</v>
+        <v>9195</v>
       </c>
       <c r="AX84" s="15" t="n">
-        <v>9195</v>
+        <v>3434</v>
       </c>
       <c r="AY84" s="15" t="n">
-        <v>3434</v>
+        <v>406</v>
       </c>
       <c r="AZ84" s="15" t="n">
-        <v>406</v>
+        <v>1600</v>
       </c>
       <c r="BA84" s="15" t="n">
-        <v>1600</v>
+        <v>8074</v>
       </c>
       <c r="BB84" s="15" t="n">
-        <v>8074</v>
+        <v>14176</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14039,8 +14039,8 @@
       <c r="T86" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="20" t="s">
-        <v>58</v>
+      <c r="U86" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V86" s="23" t="n">
         <v>0</v>
@@ -14255,8 +14255,8 @@
       <c r="T88" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U88" s="20" t="s">
-        <v>58</v>
+      <c r="U88" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V88" s="23" t="n">
         <v>0</v>
@@ -14471,8 +14471,8 @@
       <c r="T90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U90" s="16" t="s">
-        <v>58</v>
+      <c r="U90" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V90" s="16" t="n">
         <v>0</v>
@@ -14581,154 +14581,154 @@
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22" t="n">
-        <v>88462</v>
+        <v>165431</v>
       </c>
       <c r="F91" s="22" t="n">
-        <v>165431</v>
+        <v>140011</v>
       </c>
       <c r="G91" s="22" t="n">
-        <v>140011</v>
+        <v>241374</v>
       </c>
       <c r="H91" s="22" t="n">
-        <v>241374</v>
+        <v>237326</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>237326</v>
+        <v>259131</v>
       </c>
       <c r="J91" s="22" t="n">
-        <v>259131</v>
+        <v>236574</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>236574</v>
+        <v>284514</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>284514</v>
+        <v>324871</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>324871</v>
+        <v>299310</v>
       </c>
       <c r="N91" s="22" t="n">
-        <v>299310</v>
+        <v>186382</v>
       </c>
       <c r="O91" s="22" t="n">
-        <v>186382</v>
+        <v>126118</v>
       </c>
       <c r="P91" s="22" t="n">
-        <v>126118</v>
+        <v>106296</v>
       </c>
       <c r="Q91" s="22" t="n">
-        <v>106296</v>
+        <v>288501</v>
       </c>
       <c r="R91" s="22" t="n">
-        <v>288501</v>
+        <v>301273</v>
       </c>
       <c r="S91" s="22" t="n">
-        <v>301273</v>
+        <v>386476</v>
       </c>
       <c r="T91" s="22" t="n">
-        <v>386476</v>
+        <v>372624</v>
       </c>
       <c r="U91" s="22" t="n">
-        <v>372624</v>
+        <v>488984</v>
       </c>
       <c r="V91" s="22" t="n">
-        <v>488984</v>
+        <v>431596</v>
       </c>
       <c r="W91" s="22" t="n">
-        <v>431596</v>
+        <v>463741</v>
       </c>
       <c r="X91" s="22" t="n">
-        <v>463741</v>
+        <v>426377</v>
       </c>
       <c r="Y91" s="22" t="n">
-        <v>426377</v>
+        <v>321995</v>
       </c>
       <c r="Z91" s="22" t="n">
-        <v>321995</v>
+        <v>367265</v>
       </c>
       <c r="AA91" s="22" t="n">
-        <v>367265</v>
+        <v>236023</v>
       </c>
       <c r="AB91" s="22" t="n">
-        <v>236023</v>
+        <v>297360</v>
       </c>
       <c r="AC91" s="22" t="n">
-        <v>297360</v>
+        <v>452663</v>
       </c>
       <c r="AD91" s="22" t="n">
-        <v>452663</v>
+        <v>419036</v>
       </c>
       <c r="AE91" s="22" t="n">
-        <v>419036</v>
+        <v>597392</v>
       </c>
       <c r="AF91" s="22" t="n">
-        <v>597392</v>
+        <v>656975</v>
       </c>
       <c r="AG91" s="22" t="n">
-        <v>656975</v>
+        <v>663330</v>
       </c>
       <c r="AH91" s="22" t="n">
-        <v>663330</v>
+        <v>678947</v>
       </c>
       <c r="AI91" s="22" t="n">
-        <v>678947</v>
+        <v>1132444</v>
       </c>
       <c r="AJ91" s="22" t="n">
-        <v>1132444</v>
+        <v>854807</v>
       </c>
       <c r="AK91" s="22" t="n">
-        <v>854807</v>
+        <v>791515</v>
       </c>
       <c r="AL91" s="22" t="n">
-        <v>791515</v>
+        <v>705123</v>
       </c>
       <c r="AM91" s="22" t="n">
-        <v>705123</v>
+        <v>329782</v>
       </c>
       <c r="AN91" s="22" t="n">
-        <v>329782</v>
+        <v>467821</v>
       </c>
       <c r="AO91" s="22" t="n">
-        <v>467821</v>
+        <v>859346</v>
       </c>
       <c r="AP91" s="22" t="n">
-        <v>859346</v>
+        <v>796824</v>
       </c>
       <c r="AQ91" s="22" t="n">
-        <v>796824</v>
+        <v>1030745</v>
       </c>
       <c r="AR91" s="22" t="n">
-        <v>1030745</v>
+        <v>1257376</v>
       </c>
       <c r="AS91" s="22" t="n">
-        <v>1257376</v>
+        <v>1099228</v>
       </c>
       <c r="AT91" s="22" t="n">
-        <v>1099228</v>
+        <v>965308</v>
       </c>
       <c r="AU91" s="22" t="n">
-        <v>965308</v>
+        <v>1243037</v>
       </c>
       <c r="AV91" s="22" t="n">
-        <v>1243037</v>
+        <v>1162822</v>
       </c>
       <c r="AW91" s="22" t="n">
-        <v>1162822</v>
+        <v>1210113</v>
       </c>
       <c r="AX91" s="22" t="n">
-        <v>1210113</v>
+        <v>945195</v>
       </c>
       <c r="AY91" s="22" t="n">
-        <v>945195</v>
+        <v>603645</v>
       </c>
       <c r="AZ91" s="22" t="n">
-        <v>603645</v>
+        <v>623659</v>
       </c>
       <c r="BA91" s="22" t="n">
-        <v>623659</v>
+        <v>1208155</v>
       </c>
       <c r="BB91" s="22" t="n">
-        <v>1208155</v>
+        <v>1162187</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15174,56 +15174,56 @@
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16" t="n">
-        <v>871272</v>
+        <v>858947</v>
       </c>
       <c r="F98" s="16" t="n">
-        <v>858947</v>
+        <v>944261</v>
       </c>
       <c r="G98" s="16" t="n">
-        <v>944261</v>
+        <v>997550</v>
       </c>
       <c r="H98" s="16" t="n">
-        <v>997550</v>
+        <v>1017151</v>
       </c>
       <c r="I98" s="16" t="n">
-        <v>1017151</v>
+        <v>986823</v>
       </c>
       <c r="J98" s="16" t="n">
-        <v>986823</v>
+        <v>1033447</v>
       </c>
       <c r="K98" s="16" t="n">
-        <v>1033447</v>
+        <v>1031416</v>
       </c>
       <c r="L98" s="16" t="n">
-        <v>1031416</v>
+        <v>0</v>
       </c>
       <c r="M98" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N98" s="16" t="n">
-        <v>0</v>
+        <v>949153</v>
       </c>
       <c r="O98" s="16" t="n">
-        <v>949153</v>
+        <v>948703</v>
       </c>
       <c r="P98" s="16" t="n">
-        <v>948703</v>
+        <v>948707</v>
       </c>
       <c r="Q98" s="16" t="n">
-        <v>948707</v>
+        <v>0</v>
       </c>
       <c r="R98" s="16" t="n">
-        <v>0</v>
+        <v>1385144</v>
       </c>
       <c r="S98" s="16" t="n">
-        <v>1385144</v>
+        <v>1463098</v>
       </c>
       <c r="T98" s="16" t="n">
-        <v>1463098</v>
-      </c>
-      <c r="U98" s="16" t="n">
         <v>1539560</v>
       </c>
+      <c r="U98" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V98" s="16" t="s">
         <v>58</v>
       </c>
@@ -15248,15 +15248,15 @@
       <c r="AC98" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD98" s="16" t="s">
-        <v>58</v>
+      <c r="AD98" s="16" t="n">
+        <v>3980448</v>
       </c>
       <c r="AE98" s="16" t="n">
-        <v>3980448</v>
-      </c>
-      <c r="AF98" s="16" t="n">
         <v>4063462</v>
       </c>
+      <c r="AF98" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AG98" s="16" t="s">
         <v>58</v>
       </c>
@@ -15272,15 +15272,15 @@
       <c r="AK98" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL98" s="16" t="s">
-        <v>58</v>
+      <c r="AL98" s="16" t="n">
+        <v>6132323</v>
       </c>
       <c r="AM98" s="16" t="n">
-        <v>6132323</v>
-      </c>
-      <c r="AN98" s="16" t="n">
         <v>6200000</v>
       </c>
+      <c r="AN98" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AO98" s="16" t="s">
         <v>58</v>
       </c>
@@ -15302,26 +15302,26 @@
       <c r="AU98" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AV98" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW98" s="16" t="n">
+      <c r="AV98" s="16" t="n">
         <v>447390</v>
       </c>
+      <c r="AW98" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AX98" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AY98" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ98" s="16" t="s">
-        <v>58</v>
+      <c r="AZ98" s="16" t="n">
+        <v>6000000</v>
       </c>
       <c r="BA98" s="16" t="n">
-        <v>6000000</v>
+        <v>6081081</v>
       </c>
       <c r="BB98" s="16" t="n">
-        <v>6081081</v>
+        <v>7238128</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15407,44 +15407,44 @@
       <c r="AC99" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD99" s="15" t="s">
-        <v>58</v>
+      <c r="AD99" s="15" t="n">
+        <v>2904663</v>
       </c>
       <c r="AE99" s="15" t="n">
-        <v>2904663</v>
+        <v>3734620</v>
       </c>
       <c r="AF99" s="15" t="n">
-        <v>3734620</v>
+        <v>3803171</v>
       </c>
       <c r="AG99" s="15" t="n">
-        <v>3803171</v>
+        <v>5059108</v>
       </c>
       <c r="AH99" s="15" t="n">
-        <v>5059108</v>
+        <v>6027048</v>
       </c>
       <c r="AI99" s="15" t="n">
-        <v>6027048</v>
+        <v>6194752</v>
       </c>
       <c r="AJ99" s="15" t="n">
-        <v>6194752</v>
+        <v>4616461</v>
       </c>
       <c r="AK99" s="15" t="n">
-        <v>4616461</v>
+        <v>4594406</v>
       </c>
       <c r="AL99" s="15" t="n">
-        <v>4594406</v>
+        <v>4345744</v>
       </c>
       <c r="AM99" s="15" t="n">
-        <v>4345744</v>
+        <v>4524149</v>
       </c>
       <c r="AN99" s="15" t="n">
-        <v>4524149</v>
+        <v>4913828</v>
       </c>
       <c r="AO99" s="15" t="n">
-        <v>4913828</v>
-      </c>
-      <c r="AP99" s="15" t="n">
         <v>5262022</v>
+      </c>
+      <c r="AP99" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AQ99" s="15" t="s">
         <v>58</v>
@@ -15504,70 +15504,70 @@
         <v>0</v>
       </c>
       <c r="I100" s="16" t="n">
-        <v>0</v>
+        <v>1692094</v>
       </c>
       <c r="J100" s="16" t="n">
-        <v>1692094</v>
+        <v>1688830</v>
       </c>
       <c r="K100" s="16" t="n">
-        <v>1688830</v>
+        <v>1577154</v>
       </c>
       <c r="L100" s="16" t="n">
-        <v>1577154</v>
+        <v>1502656</v>
       </c>
       <c r="M100" s="16" t="n">
-        <v>1502656</v>
+        <v>1317862</v>
       </c>
       <c r="N100" s="16" t="n">
-        <v>1317862</v>
+        <v>1310598</v>
       </c>
       <c r="O100" s="16" t="n">
-        <v>1310598</v>
+        <v>1349375</v>
       </c>
       <c r="P100" s="16" t="n">
-        <v>1349375</v>
+        <v>1626471</v>
       </c>
       <c r="Q100" s="16" t="n">
-        <v>1626471</v>
-      </c>
-      <c r="R100" s="16" t="n">
         <v>1766484</v>
       </c>
+      <c r="R100" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="S100" s="16" t="s">
         <v>58</v>
       </c>
       <c r="T100" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U100" s="16" t="s">
-        <v>58</v>
+      <c r="U100" s="16" t="n">
+        <v>1749269</v>
       </c>
       <c r="V100" s="16" t="n">
-        <v>1749269</v>
+        <v>1803569</v>
       </c>
       <c r="W100" s="16" t="n">
-        <v>1803569</v>
+        <v>2036843</v>
       </c>
       <c r="X100" s="16" t="n">
-        <v>2036843</v>
+        <v>2232131</v>
       </c>
       <c r="Y100" s="16" t="n">
-        <v>2232131</v>
+        <v>2665121</v>
       </c>
       <c r="Z100" s="16" t="n">
-        <v>2665121</v>
+        <v>2669660</v>
       </c>
       <c r="AA100" s="16" t="n">
-        <v>2669660</v>
+        <v>2739579</v>
       </c>
       <c r="AB100" s="16" t="n">
-        <v>2739579</v>
+        <v>2717745</v>
       </c>
       <c r="AC100" s="16" t="n">
-        <v>2717745</v>
-      </c>
-      <c r="AD100" s="16" t="n">
         <v>2859274</v>
+      </c>
+      <c r="AD100" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE100" s="16" t="s">
         <v>58</v>
@@ -15651,83 +15651,83 @@
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15" t="n">
-        <v>1516586</v>
+        <v>1549341</v>
       </c>
       <c r="F101" s="15" t="n">
-        <v>1549341</v>
+        <v>1615473</v>
       </c>
       <c r="G101" s="15" t="n">
-        <v>1615473</v>
+        <v>1617011</v>
       </c>
       <c r="H101" s="15" t="n">
-        <v>1617011</v>
+        <v>1621277</v>
       </c>
       <c r="I101" s="15" t="n">
-        <v>1621277</v>
+        <v>1972694</v>
       </c>
       <c r="J101" s="15" t="n">
-        <v>1972694</v>
+        <v>1916578</v>
       </c>
       <c r="K101" s="15" t="n">
-        <v>1916578</v>
+        <v>2056445</v>
       </c>
       <c r="L101" s="15" t="n">
-        <v>2056445</v>
+        <v>2080182</v>
       </c>
       <c r="M101" s="15" t="n">
-        <v>2080182</v>
+        <v>2118410</v>
       </c>
       <c r="N101" s="15" t="n">
-        <v>2118410</v>
+        <v>2134995</v>
       </c>
       <c r="O101" s="15" t="n">
-        <v>2134995</v>
+        <v>2130811</v>
       </c>
       <c r="P101" s="15" t="n">
-        <v>2130811</v>
+        <v>2102395</v>
       </c>
       <c r="Q101" s="15" t="n">
-        <v>2102395</v>
+        <v>2116956</v>
       </c>
       <c r="R101" s="15" t="n">
-        <v>2116956</v>
+        <v>2123801</v>
       </c>
       <c r="S101" s="15" t="n">
-        <v>2123801</v>
+        <v>2130111</v>
       </c>
       <c r="T101" s="15" t="n">
-        <v>2130111</v>
+        <v>2145707</v>
       </c>
       <c r="U101" s="15" t="n">
-        <v>2145707</v>
+        <v>2452693</v>
       </c>
       <c r="V101" s="15" t="n">
-        <v>2452693</v>
+        <v>2621700</v>
       </c>
       <c r="W101" s="15" t="n">
-        <v>2621700</v>
+        <v>2687346</v>
       </c>
       <c r="X101" s="15" t="n">
-        <v>2687346</v>
+        <v>2778224</v>
       </c>
       <c r="Y101" s="15" t="n">
-        <v>2778224</v>
+        <v>3026898</v>
       </c>
       <c r="Z101" s="15" t="n">
-        <v>3026898</v>
+        <v>3090480</v>
       </c>
       <c r="AA101" s="15" t="n">
-        <v>3090480</v>
+        <v>3096541</v>
       </c>
       <c r="AB101" s="15" t="n">
-        <v>3096541</v>
+        <v>3098933</v>
       </c>
       <c r="AC101" s="15" t="n">
-        <v>3098933</v>
-      </c>
-      <c r="AD101" s="15" t="n">
         <v>3096546</v>
       </c>
+      <c r="AD101" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE101" s="15" t="s">
         <v>58</v>
       </c>
@@ -15761,44 +15761,44 @@
       <c r="AO101" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP101" s="15" t="s">
-        <v>58</v>
+      <c r="AP101" s="15" t="n">
+        <v>6729146</v>
       </c>
       <c r="AQ101" s="15" t="n">
-        <v>6729146</v>
+        <v>6734880</v>
       </c>
       <c r="AR101" s="15" t="n">
-        <v>6734880</v>
+        <v>7697293</v>
       </c>
       <c r="AS101" s="15" t="n">
-        <v>7697293</v>
+        <v>8338300</v>
       </c>
       <c r="AT101" s="15" t="n">
-        <v>8338300</v>
+        <v>7855490</v>
       </c>
       <c r="AU101" s="15" t="n">
-        <v>7855490</v>
+        <v>7446304</v>
       </c>
       <c r="AV101" s="15" t="n">
-        <v>7446304</v>
+        <v>7292614</v>
       </c>
       <c r="AW101" s="15" t="n">
-        <v>7292614</v>
+        <v>7279014</v>
       </c>
       <c r="AX101" s="15" t="n">
-        <v>7279014</v>
+        <v>7213859</v>
       </c>
       <c r="AY101" s="15" t="n">
-        <v>7213859</v>
+        <v>7058535</v>
       </c>
       <c r="AZ101" s="15" t="n">
-        <v>7058535</v>
+        <v>7212926</v>
       </c>
       <c r="BA101" s="15" t="n">
-        <v>7212926</v>
+        <v>8263690</v>
       </c>
       <c r="BB101" s="15" t="n">
-        <v>8263690</v>
+        <v>9213386</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15848,18 +15848,18 @@
       <c r="Q102" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R102" s="16" t="s">
-        <v>58</v>
+      <c r="R102" s="16" t="n">
+        <v>2559406</v>
       </c>
       <c r="S102" s="16" t="n">
-        <v>2559406</v>
+        <v>2849955</v>
       </c>
       <c r="T102" s="16" t="n">
-        <v>2849955</v>
-      </c>
-      <c r="U102" s="16" t="n">
         <v>3126653</v>
       </c>
+      <c r="U102" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V102" s="16" t="s">
         <v>58</v>
       </c>
@@ -15920,44 +15920,44 @@
       <c r="AO102" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP102" s="16" t="s">
-        <v>58</v>
+      <c r="AP102" s="16" t="n">
+        <v>9283401</v>
       </c>
       <c r="AQ102" s="16" t="n">
-        <v>9283401</v>
+        <v>9337621</v>
       </c>
       <c r="AR102" s="16" t="n">
-        <v>9337621</v>
+        <v>9596404</v>
       </c>
       <c r="AS102" s="16" t="n">
-        <v>9596404</v>
+        <v>9954474</v>
       </c>
       <c r="AT102" s="16" t="n">
-        <v>9954474</v>
+        <v>8099340</v>
       </c>
       <c r="AU102" s="16" t="n">
-        <v>8099340</v>
+        <v>6953984</v>
       </c>
       <c r="AV102" s="16" t="n">
-        <v>6953984</v>
+        <v>6845264</v>
       </c>
       <c r="AW102" s="16" t="n">
-        <v>6845264</v>
+        <v>6782599</v>
       </c>
       <c r="AX102" s="16" t="n">
-        <v>6782599</v>
+        <v>6165999</v>
       </c>
       <c r="AY102" s="16" t="n">
-        <v>6165999</v>
+        <v>6027534</v>
       </c>
       <c r="AZ102" s="16" t="n">
-        <v>6027534</v>
+        <v>6143190</v>
       </c>
       <c r="BA102" s="16" t="n">
-        <v>6143190</v>
+        <v>7006391</v>
       </c>
       <c r="BB102" s="16" t="n">
-        <v>7006391</v>
+        <v>7819143</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15969,83 +15969,83 @@
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="15" t="n">
-        <v>1191507</v>
+        <v>1202995</v>
       </c>
       <c r="F103" s="15" t="n">
-        <v>1202995</v>
+        <v>1273106</v>
       </c>
       <c r="G103" s="15" t="n">
-        <v>1273106</v>
+        <v>1265504</v>
       </c>
       <c r="H103" s="15" t="n">
-        <v>1265504</v>
+        <v>1277781</v>
       </c>
       <c r="I103" s="15" t="n">
-        <v>1277781</v>
+        <v>1633753</v>
       </c>
       <c r="J103" s="15" t="n">
-        <v>1633753</v>
+        <v>1715556</v>
       </c>
       <c r="K103" s="15" t="n">
-        <v>1715556</v>
+        <v>1764615</v>
       </c>
       <c r="L103" s="15" t="n">
-        <v>1764615</v>
+        <v>1736421</v>
       </c>
       <c r="M103" s="15" t="n">
-        <v>1736421</v>
+        <v>1765336</v>
       </c>
       <c r="N103" s="15" t="n">
-        <v>1765336</v>
+        <v>1786174</v>
       </c>
       <c r="O103" s="15" t="n">
-        <v>1786174</v>
+        <v>1793557</v>
       </c>
       <c r="P103" s="15" t="n">
-        <v>1793557</v>
+        <v>1792096</v>
       </c>
       <c r="Q103" s="15" t="n">
-        <v>1792096</v>
+        <v>1798852</v>
       </c>
       <c r="R103" s="15" t="n">
-        <v>1798852</v>
+        <v>1793011</v>
       </c>
       <c r="S103" s="15" t="n">
-        <v>1793011</v>
+        <v>1786993</v>
       </c>
       <c r="T103" s="15" t="n">
-        <v>1786993</v>
+        <v>1781156</v>
       </c>
       <c r="U103" s="15" t="n">
-        <v>1781156</v>
+        <v>2093054</v>
       </c>
       <c r="V103" s="15" t="n">
-        <v>2093054</v>
+        <v>2206824</v>
       </c>
       <c r="W103" s="15" t="n">
-        <v>2206824</v>
+        <v>2200996</v>
       </c>
       <c r="X103" s="15" t="n">
-        <v>2200996</v>
+        <v>2200855</v>
       </c>
       <c r="Y103" s="15" t="n">
-        <v>2200855</v>
+        <v>2200098</v>
       </c>
       <c r="Z103" s="15" t="n">
-        <v>2200098</v>
+        <v>2200798</v>
       </c>
       <c r="AA103" s="15" t="n">
-        <v>2200798</v>
+        <v>2200662</v>
       </c>
       <c r="AB103" s="15" t="n">
-        <v>2200662</v>
+        <v>2200100</v>
       </c>
       <c r="AC103" s="15" t="n">
-        <v>2200100</v>
-      </c>
-      <c r="AD103" s="15" t="n">
         <v>2199984</v>
       </c>
+      <c r="AD103" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AE103" s="15" t="s">
         <v>58</v>
       </c>
@@ -16079,44 +16079,44 @@
       <c r="AO103" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP103" s="15" t="s">
-        <v>58</v>
+      <c r="AP103" s="15" t="n">
+        <v>5249261</v>
       </c>
       <c r="AQ103" s="15" t="n">
-        <v>5249261</v>
+        <v>5469633</v>
       </c>
       <c r="AR103" s="15" t="n">
-        <v>5469633</v>
+        <v>6168211</v>
       </c>
       <c r="AS103" s="15" t="n">
-        <v>6168211</v>
+        <v>7251055</v>
       </c>
       <c r="AT103" s="15" t="n">
-        <v>7251055</v>
+        <v>7220108</v>
       </c>
       <c r="AU103" s="15" t="n">
-        <v>7220108</v>
+        <v>7087359</v>
       </c>
       <c r="AV103" s="15" t="n">
-        <v>7087359</v>
+        <v>6793980</v>
       </c>
       <c r="AW103" s="15" t="n">
-        <v>6793980</v>
+        <v>6774318</v>
       </c>
       <c r="AX103" s="15" t="n">
-        <v>6774318</v>
+        <v>6733333</v>
       </c>
       <c r="AY103" s="15" t="n">
-        <v>6733333</v>
+        <v>6782727</v>
       </c>
       <c r="AZ103" s="15" t="n">
-        <v>6782727</v>
+        <v>6695025</v>
       </c>
       <c r="BA103" s="15" t="n">
-        <v>6695025</v>
+        <v>7521638</v>
       </c>
       <c r="BB103" s="15" t="n">
-        <v>7521638</v>
+        <v>8043681</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16143,64 +16143,64 @@
         <v>0</v>
       </c>
       <c r="J104" s="16" t="n">
-        <v>0</v>
+        <v>2288557</v>
       </c>
       <c r="K104" s="16" t="n">
-        <v>2288557</v>
+        <v>2115088</v>
       </c>
       <c r="L104" s="16" t="n">
-        <v>2115088</v>
+        <v>2092692</v>
       </c>
       <c r="M104" s="16" t="n">
-        <v>2092692</v>
+        <v>2060014</v>
       </c>
       <c r="N104" s="16" t="n">
-        <v>2060014</v>
+        <v>2090444</v>
       </c>
       <c r="O104" s="16" t="n">
-        <v>2090444</v>
+        <v>2198096</v>
       </c>
       <c r="P104" s="16" t="n">
-        <v>2198096</v>
+        <v>2331454</v>
       </c>
       <c r="Q104" s="16" t="n">
-        <v>2331454</v>
-      </c>
-      <c r="R104" s="16" t="n">
         <v>2694398</v>
       </c>
+      <c r="R104" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="S104" s="16" t="s">
         <v>58</v>
       </c>
       <c r="T104" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U104" s="16" t="s">
-        <v>58</v>
+      <c r="U104" s="16" t="n">
+        <v>3247777</v>
       </c>
       <c r="V104" s="16" t="n">
-        <v>3247777</v>
+        <v>3437550</v>
       </c>
       <c r="W104" s="16" t="n">
-        <v>3437550</v>
+        <v>3898121</v>
       </c>
       <c r="X104" s="16" t="n">
-        <v>3898121</v>
+        <v>4201020</v>
       </c>
       <c r="Y104" s="16" t="n">
-        <v>4201020</v>
-      </c>
-      <c r="Z104" s="16" t="n">
         <v>4970155</v>
       </c>
-      <c r="AA104" s="16" t="s">
-        <v>58</v>
+      <c r="Z104" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA104" s="16" t="n">
+        <v>4812268</v>
       </c>
       <c r="AB104" s="16" t="n">
-        <v>4812268</v>
-      </c>
-      <c r="AC104" s="16" t="n">
         <v>4715938</v>
+      </c>
+      <c r="AC104" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AD104" s="16" t="s">
         <v>58</v>
@@ -16287,70 +16287,70 @@
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="15" t="n">
-        <v>1295710</v>
+        <v>1323125</v>
       </c>
       <c r="F105" s="15" t="n">
-        <v>1323125</v>
+        <v>1507177</v>
       </c>
       <c r="G105" s="15" t="n">
-        <v>1507177</v>
+        <v>1536686</v>
       </c>
       <c r="H105" s="15" t="n">
-        <v>1536686</v>
+        <v>1542117</v>
       </c>
       <c r="I105" s="15" t="n">
-        <v>1542117</v>
+        <v>1544466</v>
       </c>
       <c r="J105" s="15" t="n">
-        <v>1544466</v>
+        <v>2159091</v>
       </c>
       <c r="K105" s="15" t="n">
-        <v>2159091</v>
+        <v>0</v>
       </c>
       <c r="L105" s="15" t="n">
-        <v>0</v>
+        <v>2050000</v>
       </c>
       <c r="M105" s="15" t="n">
-        <v>2050000</v>
+        <v>2100000</v>
       </c>
       <c r="N105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" s="15" t="n">
         <v>2100000</v>
-      </c>
-      <c r="O105" s="15" t="n">
-        <v>0</v>
       </c>
       <c r="P105" s="15" t="n">
         <v>2100000</v>
       </c>
       <c r="Q105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S105" s="15" t="n">
         <v>2100000</v>
       </c>
-      <c r="R105" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S105" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="T105" s="15" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="U105" s="15" t="n">
         <v>2050000</v>
       </c>
+      <c r="U105" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="V105" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="15" t="s">
-        <v>58</v>
+      <c r="W105" s="15" t="n">
+        <v>2708333</v>
       </c>
       <c r="X105" s="15" t="n">
-        <v>2708333</v>
+        <v>2800000</v>
       </c>
       <c r="Y105" s="15" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="Z105" s="15" t="n">
         <v>3066667</v>
+      </c>
+      <c r="Z105" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AA105" s="15" t="s">
         <v>58</v>
@@ -16446,46 +16446,46 @@
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16" t="n">
-        <v>1015314</v>
+        <v>1047836</v>
       </c>
       <c r="F106" s="16" t="n">
-        <v>1047836</v>
+        <v>1076453</v>
       </c>
       <c r="G106" s="16" t="n">
-        <v>1076453</v>
+        <v>1084163</v>
       </c>
       <c r="H106" s="16" t="n">
-        <v>1084163</v>
+        <v>1087089</v>
       </c>
       <c r="I106" s="16" t="n">
-        <v>1087089</v>
+        <v>1240343</v>
       </c>
       <c r="J106" s="16" t="n">
-        <v>1240343</v>
+        <v>1596774</v>
       </c>
       <c r="K106" s="16" t="n">
-        <v>1596774</v>
+        <v>1647541</v>
       </c>
       <c r="L106" s="16" t="n">
-        <v>1647541</v>
+        <v>1649140</v>
       </c>
       <c r="M106" s="16" t="n">
-        <v>1649140</v>
+        <v>1756098</v>
       </c>
       <c r="N106" s="16" t="n">
-        <v>1756098</v>
+        <v>0</v>
       </c>
       <c r="O106" s="16" t="n">
-        <v>0</v>
+        <v>1750000</v>
       </c>
       <c r="P106" s="16" t="n">
-        <v>1750000</v>
+        <v>1800000</v>
       </c>
       <c r="Q106" s="16" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="R106" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R106" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S106" s="16" t="s">
         <v>58</v>
@@ -16502,27 +16502,27 @@
       <c r="W106" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X106" s="16" t="s">
-        <v>58</v>
+      <c r="X106" s="16" t="n">
+        <v>2146341</v>
       </c>
       <c r="Y106" s="16" t="n">
-        <v>2146341</v>
+        <v>2140787</v>
       </c>
       <c r="Z106" s="16" t="n">
-        <v>2140787</v>
+        <v>2141678</v>
       </c>
       <c r="AA106" s="16" t="n">
-        <v>2141678</v>
+        <v>2143469</v>
       </c>
       <c r="AB106" s="16" t="n">
-        <v>2143469</v>
+        <v>2144455</v>
       </c>
       <c r="AC106" s="16" t="n">
-        <v>2144455</v>
-      </c>
-      <c r="AD106" s="16" t="n">
         <v>2143609</v>
       </c>
+      <c r="AD106" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE106" s="16" t="s">
         <v>58</v>
       </c>
@@ -16556,32 +16556,32 @@
       <c r="AO106" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP106" s="16" t="s">
-        <v>58</v>
+      <c r="AP106" s="16" t="n">
+        <v>3449050</v>
       </c>
       <c r="AQ106" s="16" t="n">
-        <v>3449050</v>
+        <v>3462185</v>
       </c>
       <c r="AR106" s="16" t="n">
-        <v>3462185</v>
+        <v>3448360</v>
       </c>
       <c r="AS106" s="16" t="n">
-        <v>3448360</v>
+        <v>3450773</v>
       </c>
       <c r="AT106" s="16" t="n">
-        <v>3450773</v>
+        <v>3451299</v>
       </c>
       <c r="AU106" s="16" t="n">
-        <v>3451299</v>
-      </c>
-      <c r="AV106" s="16" t="n">
         <v>3454248</v>
       </c>
-      <c r="AW106" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX106" s="16" t="n">
+      <c r="AV106" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW106" s="16" t="n">
         <v>8000000</v>
+      </c>
+      <c r="AX106" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY106" s="16" t="s">
         <v>58</v>
@@ -16623,64 +16623,64 @@
         <v>0</v>
       </c>
       <c r="K107" s="15" t="n">
-        <v>0</v>
+        <v>1900943</v>
       </c>
       <c r="L107" s="15" t="n">
-        <v>1900943</v>
+        <v>1735068</v>
       </c>
       <c r="M107" s="15" t="n">
-        <v>1735068</v>
+        <v>1795628</v>
       </c>
       <c r="N107" s="15" t="n">
-        <v>1795628</v>
+        <v>1820395</v>
       </c>
       <c r="O107" s="15" t="n">
-        <v>1820395</v>
+        <v>1944981</v>
       </c>
       <c r="P107" s="15" t="n">
-        <v>1944981</v>
+        <v>1969618</v>
       </c>
       <c r="Q107" s="15" t="n">
-        <v>1969618</v>
-      </c>
-      <c r="R107" s="15" t="n">
         <v>2222763</v>
       </c>
+      <c r="R107" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="S107" s="15" t="s">
         <v>58</v>
       </c>
       <c r="T107" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="U107" s="15" t="s">
-        <v>58</v>
+      <c r="U107" s="15" t="n">
+        <v>2919786</v>
       </c>
       <c r="V107" s="15" t="n">
-        <v>2919786</v>
+        <v>3230248</v>
       </c>
       <c r="W107" s="15" t="n">
-        <v>3230248</v>
+        <v>3181628</v>
       </c>
       <c r="X107" s="15" t="n">
-        <v>3181628</v>
+        <v>2828947</v>
       </c>
       <c r="Y107" s="15" t="n">
-        <v>2828947</v>
-      </c>
-      <c r="Z107" s="15" t="n">
         <v>2818792</v>
       </c>
-      <c r="AA107" s="15" t="s">
-        <v>58</v>
+      <c r="Z107" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA107" s="15" t="n">
+        <v>3903409</v>
       </c>
       <c r="AB107" s="15" t="n">
-        <v>3903409</v>
+        <v>4781810</v>
       </c>
       <c r="AC107" s="15" t="n">
-        <v>4781810</v>
-      </c>
-      <c r="AD107" s="15" t="n">
         <v>4978036</v>
+      </c>
+      <c r="AD107" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AE107" s="15" t="s">
         <v>58</v>
@@ -16802,8 +16802,8 @@
       <c r="Q108" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R108" s="16" t="n">
-        <v>0</v>
+      <c r="R108" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S108" s="16" t="s">
         <v>58</v>
@@ -16923,80 +16923,80 @@
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15" t="n">
-        <v>1203028</v>
+        <v>1196193</v>
       </c>
       <c r="F109" s="15" t="n">
-        <v>1196193</v>
+        <v>1256841</v>
       </c>
       <c r="G109" s="15" t="n">
-        <v>1256841</v>
+        <v>1298402</v>
       </c>
       <c r="H109" s="15" t="n">
-        <v>1298402</v>
+        <v>1314778</v>
       </c>
       <c r="I109" s="15" t="n">
-        <v>1314778</v>
+        <v>1677185</v>
       </c>
       <c r="J109" s="15" t="n">
-        <v>1677185</v>
+        <v>1774113</v>
       </c>
       <c r="K109" s="15" t="n">
-        <v>1774113</v>
+        <v>1818372</v>
       </c>
       <c r="L109" s="15" t="n">
-        <v>1818372</v>
+        <v>1809748</v>
       </c>
       <c r="M109" s="15" t="n">
-        <v>1809748</v>
+        <v>1822302</v>
       </c>
       <c r="N109" s="15" t="n">
-        <v>1822302</v>
+        <v>1817990</v>
       </c>
       <c r="O109" s="15" t="n">
-        <v>1817990</v>
+        <v>1798939</v>
       </c>
       <c r="P109" s="15" t="n">
-        <v>1798939</v>
+        <v>1801572</v>
       </c>
       <c r="Q109" s="15" t="n">
-        <v>1801572</v>
+        <v>1809021</v>
       </c>
       <c r="R109" s="15" t="n">
-        <v>1809021</v>
+        <v>1828361</v>
       </c>
       <c r="S109" s="15" t="n">
-        <v>1828361</v>
+        <v>1808399</v>
       </c>
       <c r="T109" s="15" t="n">
-        <v>1808399</v>
+        <v>1816137</v>
       </c>
       <c r="U109" s="15" t="n">
-        <v>1816137</v>
+        <v>2117162</v>
       </c>
       <c r="V109" s="15" t="n">
-        <v>2117162</v>
+        <v>2231667</v>
       </c>
       <c r="W109" s="15" t="n">
-        <v>2231667</v>
+        <v>2231657</v>
       </c>
       <c r="X109" s="15" t="n">
-        <v>2231657</v>
+        <v>2231566</v>
       </c>
       <c r="Y109" s="15" t="n">
-        <v>2231566</v>
+        <v>2231577</v>
       </c>
       <c r="Z109" s="15" t="n">
-        <v>2231577</v>
-      </c>
-      <c r="AA109" s="15" t="n">
         <v>2231826</v>
       </c>
-      <c r="AB109" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC109" s="15" t="n">
+      <c r="AA109" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB109" s="15" t="n">
         <v>2231125</v>
       </c>
+      <c r="AC109" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="AD109" s="15" t="s">
         <v>58</v>
       </c>
@@ -17033,11 +17033,11 @@
       <c r="AO109" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP109" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ109" s="15" t="n">
+      <c r="AP109" s="15" t="n">
         <v>5283898</v>
+      </c>
+      <c r="AQ109" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AR109" s="15" t="s">
         <v>58</v>
@@ -17082,73 +17082,73 @@
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16" t="n">
-        <v>1386108</v>
+        <v>1470968</v>
       </c>
       <c r="F110" s="16" t="n">
-        <v>1470968</v>
+        <v>1543662</v>
       </c>
       <c r="G110" s="16" t="n">
-        <v>1543662</v>
+        <v>1527646</v>
       </c>
       <c r="H110" s="16" t="n">
-        <v>1527646</v>
+        <v>1562592</v>
       </c>
       <c r="I110" s="16" t="n">
-        <v>1562592</v>
+        <v>2000000</v>
       </c>
       <c r="J110" s="16" t="n">
-        <v>2000000</v>
+        <v>1961771</v>
       </c>
       <c r="K110" s="16" t="n">
-        <v>1961771</v>
+        <v>2053691</v>
       </c>
       <c r="L110" s="16" t="n">
-        <v>2053691</v>
+        <v>1960352</v>
       </c>
       <c r="M110" s="16" t="n">
-        <v>1960352</v>
+        <v>2112360</v>
       </c>
       <c r="N110" s="16" t="n">
-        <v>2112360</v>
+        <v>2085714</v>
       </c>
       <c r="O110" s="16" t="n">
-        <v>2085714</v>
+        <v>2156250</v>
       </c>
       <c r="P110" s="16" t="n">
-        <v>2156250</v>
+        <v>2100000</v>
       </c>
       <c r="Q110" s="16" t="n">
-        <v>2100000</v>
+        <v>2061093</v>
       </c>
       <c r="R110" s="16" t="n">
-        <v>2061093</v>
+        <v>2061520</v>
       </c>
       <c r="S110" s="16" t="n">
-        <v>2061520</v>
-      </c>
-      <c r="T110" s="16" t="n">
         <v>2133333</v>
       </c>
+      <c r="T110" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="U110" s="16" t="s">
         <v>58</v>
       </c>
       <c r="V110" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W110" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X110" s="16" t="n">
+      <c r="W110" s="16" t="n">
         <v>2700063</v>
       </c>
+      <c r="X110" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="Y110" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z110" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA110" s="16" t="n">
+      <c r="Z110" s="16" t="n">
         <v>2719665</v>
+      </c>
+      <c r="AA110" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AB110" s="16" t="s">
         <v>58</v>
@@ -17259,10 +17259,10 @@
         <v>0</v>
       </c>
       <c r="K111" s="15" t="n">
-        <v>0</v>
+        <v>1888889</v>
       </c>
       <c r="L111" s="15" t="n">
-        <v>1888889</v>
+        <v>0</v>
       </c>
       <c r="M111" s="15" t="n">
         <v>0</v>
@@ -17271,16 +17271,16 @@
         <v>0</v>
       </c>
       <c r="O111" s="15" t="n">
-        <v>0</v>
+        <v>1971223</v>
       </c>
       <c r="P111" s="15" t="n">
-        <v>1971223</v>
+        <v>1985507</v>
       </c>
       <c r="Q111" s="15" t="n">
-        <v>1985507</v>
-      </c>
-      <c r="R111" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R111" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="S111" s="15" t="s">
         <v>58</v>
@@ -17291,29 +17291,29 @@
       <c r="U111" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="V111" s="15" t="s">
-        <v>58</v>
+      <c r="V111" s="15" t="n">
+        <v>3247253</v>
       </c>
       <c r="W111" s="15" t="n">
-        <v>3247253</v>
+        <v>3551385</v>
       </c>
       <c r="X111" s="15" t="n">
-        <v>3551385</v>
-      </c>
-      <c r="Y111" s="15" t="n">
         <v>3919355</v>
       </c>
+      <c r="Y111" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="Z111" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AA111" s="15" t="s">
-        <v>58</v>
+      <c r="AA111" s="15" t="n">
+        <v>4183381</v>
       </c>
       <c r="AB111" s="15" t="n">
-        <v>4183381</v>
-      </c>
-      <c r="AC111" s="15" t="n">
         <v>4174757</v>
+      </c>
+      <c r="AC111" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AD111" s="15" t="s">
         <v>58</v>
@@ -17400,83 +17400,83 @@
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16" t="n">
-        <v>1421653</v>
+        <v>1446675</v>
       </c>
       <c r="F112" s="16" t="n">
-        <v>1446675</v>
+        <v>1542396</v>
       </c>
       <c r="G112" s="16" t="n">
-        <v>1542396</v>
+        <v>1539327</v>
       </c>
       <c r="H112" s="16" t="n">
-        <v>1539327</v>
+        <v>1546742</v>
       </c>
       <c r="I112" s="16" t="n">
-        <v>1546742</v>
+        <v>1901496</v>
       </c>
       <c r="J112" s="16" t="n">
-        <v>1901496</v>
+        <v>1885348</v>
       </c>
       <c r="K112" s="16" t="n">
-        <v>1885348</v>
+        <v>1933316</v>
       </c>
       <c r="L112" s="16" t="n">
-        <v>1933316</v>
+        <v>1995355</v>
       </c>
       <c r="M112" s="16" t="n">
-        <v>1995355</v>
+        <v>2044774</v>
       </c>
       <c r="N112" s="16" t="n">
-        <v>2044774</v>
+        <v>2069221</v>
       </c>
       <c r="O112" s="16" t="n">
-        <v>2069221</v>
+        <v>2065464</v>
       </c>
       <c r="P112" s="16" t="n">
-        <v>2065464</v>
+        <v>2044158</v>
       </c>
       <c r="Q112" s="16" t="n">
-        <v>2044158</v>
+        <v>2062389</v>
       </c>
       <c r="R112" s="16" t="n">
-        <v>2062389</v>
+        <v>2074396</v>
       </c>
       <c r="S112" s="16" t="n">
-        <v>2074396</v>
+        <v>2081346</v>
       </c>
       <c r="T112" s="16" t="n">
-        <v>2081346</v>
-      </c>
-      <c r="U112" s="16" t="n">
         <v>2089243</v>
       </c>
-      <c r="V112" s="16" t="s">
-        <v>58</v>
+      <c r="U112" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V112" s="16" t="n">
+        <v>2632887</v>
       </c>
       <c r="W112" s="16" t="n">
-        <v>2632887</v>
+        <v>2647870</v>
       </c>
       <c r="X112" s="16" t="n">
-        <v>2647870</v>
+        <v>2738881</v>
       </c>
       <c r="Y112" s="16" t="n">
-        <v>2738881</v>
+        <v>2981729</v>
       </c>
       <c r="Z112" s="16" t="n">
-        <v>2981729</v>
+        <v>3042256</v>
       </c>
       <c r="AA112" s="16" t="n">
-        <v>3042256</v>
+        <v>3048107</v>
       </c>
       <c r="AB112" s="16" t="n">
-        <v>3048107</v>
+        <v>3047977</v>
       </c>
       <c r="AC112" s="16" t="n">
-        <v>3047977</v>
-      </c>
-      <c r="AD112" s="16" t="n">
         <v>3048595</v>
       </c>
+      <c r="AD112" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE112" s="16" t="s">
         <v>58</v>
       </c>
@@ -17510,44 +17510,44 @@
       <c r="AO112" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP112" s="16" t="s">
-        <v>58</v>
+      <c r="AP112" s="16" t="n">
+        <v>6227562</v>
       </c>
       <c r="AQ112" s="16" t="n">
-        <v>6227562</v>
+        <v>6027022</v>
       </c>
       <c r="AR112" s="16" t="n">
-        <v>6027022</v>
+        <v>7097731</v>
       </c>
       <c r="AS112" s="16" t="n">
-        <v>7097731</v>
+        <v>7192401</v>
       </c>
       <c r="AT112" s="16" t="n">
-        <v>7192401</v>
+        <v>6764495</v>
       </c>
       <c r="AU112" s="16" t="n">
-        <v>6764495</v>
+        <v>6381808</v>
       </c>
       <c r="AV112" s="16" t="n">
-        <v>6381808</v>
+        <v>6016987</v>
       </c>
       <c r="AW112" s="16" t="n">
-        <v>6016987</v>
+        <v>5794531</v>
       </c>
       <c r="AX112" s="16" t="n">
-        <v>5794531</v>
+        <v>5822843</v>
       </c>
       <c r="AY112" s="16" t="n">
-        <v>5822843</v>
+        <v>5856162</v>
       </c>
       <c r="AZ112" s="16" t="n">
-        <v>5856162</v>
+        <v>5912454</v>
       </c>
       <c r="BA112" s="16" t="n">
-        <v>5912454</v>
+        <v>6709866</v>
       </c>
       <c r="BB112" s="16" t="n">
-        <v>6709866</v>
+        <v>7598619</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17559,53 +17559,53 @@
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15" t="n">
-        <v>1081395</v>
+        <v>1121622</v>
       </c>
       <c r="F113" s="15" t="n">
-        <v>1121622</v>
+        <v>1155172</v>
       </c>
       <c r="G113" s="15" t="n">
-        <v>1155172</v>
+        <v>1171875</v>
       </c>
       <c r="H113" s="15" t="n">
-        <v>1171875</v>
+        <v>1146067</v>
       </c>
       <c r="I113" s="15" t="n">
-        <v>1146067</v>
+        <v>0</v>
       </c>
       <c r="J113" s="15" t="n">
-        <v>0</v>
+        <v>1573333</v>
       </c>
       <c r="K113" s="15" t="n">
-        <v>1573333</v>
+        <v>1655556</v>
       </c>
       <c r="L113" s="15" t="n">
-        <v>1655556</v>
+        <v>1750000</v>
       </c>
       <c r="M113" s="15" t="n">
-        <v>1750000</v>
+        <v>1709677</v>
       </c>
       <c r="N113" s="15" t="n">
-        <v>1709677</v>
+        <v>1764706</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>1764706</v>
+        <v>0</v>
       </c>
       <c r="P113" s="15" t="n">
         <v>0</v>
       </c>
       <c r="Q113" s="15" t="n">
-        <v>0</v>
+        <v>1621212</v>
       </c>
       <c r="R113" s="15" t="n">
-        <v>1621212</v>
+        <v>1733333</v>
       </c>
       <c r="S113" s="15" t="n">
-        <v>1733333</v>
-      </c>
-      <c r="T113" s="15" t="n">
         <v>1744681</v>
       </c>
+      <c r="T113" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="U113" s="15" t="s">
         <v>58</v>
       </c>
@@ -17669,11 +17669,11 @@
       <c r="AO113" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP113" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ113" s="15" t="n">
+      <c r="AP113" s="15" t="n">
         <v>3391304</v>
+      </c>
+      <c r="AQ113" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AR113" s="15" t="s">
         <v>58</v>
@@ -17756,18 +17756,18 @@
       <c r="Q114" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R114" s="16" t="s">
-        <v>58</v>
+      <c r="R114" s="16" t="n">
+        <v>2216359</v>
       </c>
       <c r="S114" s="16" t="n">
-        <v>2216359</v>
+        <v>2414467</v>
       </c>
       <c r="T114" s="16" t="n">
-        <v>2414467</v>
-      </c>
-      <c r="U114" s="16" t="n">
         <v>2748963</v>
       </c>
+      <c r="U114" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V114" s="16" t="s">
         <v>58</v>
       </c>
@@ -17831,41 +17831,41 @@
       <c r="AP114" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ114" s="16" t="s">
-        <v>58</v>
+      <c r="AQ114" s="16" t="n">
+        <v>4811579</v>
       </c>
       <c r="AR114" s="16" t="n">
-        <v>4811579</v>
+        <v>5698925</v>
       </c>
       <c r="AS114" s="16" t="n">
-        <v>5698925</v>
+        <v>5811146</v>
       </c>
       <c r="AT114" s="16" t="n">
-        <v>5811146</v>
+        <v>5870971</v>
       </c>
       <c r="AU114" s="16" t="n">
-        <v>5870971</v>
+        <v>5867458</v>
       </c>
       <c r="AV114" s="16" t="n">
-        <v>5867458</v>
+        <v>5728739</v>
       </c>
       <c r="AW114" s="16" t="n">
-        <v>5728739</v>
+        <v>5519517</v>
       </c>
       <c r="AX114" s="16" t="n">
-        <v>5519517</v>
+        <v>5373056</v>
       </c>
       <c r="AY114" s="16" t="n">
-        <v>5373056</v>
+        <v>5366558</v>
       </c>
       <c r="AZ114" s="16" t="n">
-        <v>5366558</v>
+        <v>5256280</v>
       </c>
       <c r="BA114" s="16" t="n">
-        <v>5256280</v>
+        <v>5941313</v>
       </c>
       <c r="BB114" s="16" t="n">
-        <v>5941313</v>
+        <v>6856388</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17987,44 +17987,44 @@
       <c r="AO115" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AP115" s="15" t="s">
-        <v>58</v>
+      <c r="AP115" s="15" t="n">
+        <v>5359306</v>
       </c>
       <c r="AQ115" s="15" t="n">
-        <v>5359306</v>
+        <v>5364971</v>
       </c>
       <c r="AR115" s="15" t="n">
-        <v>5364971</v>
+        <v>6417424</v>
       </c>
       <c r="AS115" s="15" t="n">
-        <v>6417424</v>
+        <v>6770026</v>
       </c>
       <c r="AT115" s="15" t="n">
-        <v>6770026</v>
+        <v>6517707</v>
       </c>
       <c r="AU115" s="15" t="n">
-        <v>6517707</v>
+        <v>6369843</v>
       </c>
       <c r="AV115" s="15" t="n">
-        <v>6369843</v>
+        <v>6165482</v>
       </c>
       <c r="AW115" s="15" t="n">
-        <v>6165482</v>
+        <v>5793951</v>
       </c>
       <c r="AX115" s="15" t="n">
-        <v>5793951</v>
+        <v>5638752</v>
       </c>
       <c r="AY115" s="15" t="n">
-        <v>5638752</v>
+        <v>5800000</v>
       </c>
       <c r="AZ115" s="15" t="n">
-        <v>5800000</v>
+        <v>5947955</v>
       </c>
       <c r="BA115" s="15" t="n">
-        <v>5947955</v>
+        <v>6745196</v>
       </c>
       <c r="BB115" s="15" t="n">
-        <v>6745196</v>
+        <v>7077384</v>
       </c>
     </row>
   </sheetData>
